--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\CommSee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74B9714-0B63-4D3C-A906-7664605EFC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EF1A66-5315-4CBD-88EA-16E336C5FEED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="33" activeTab="33" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9928" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9927" uniqueCount="1656">
   <si>
     <t>@</t>
   </si>
@@ -4245,12 +4245,6 @@
     <t>ONG000000000375</t>
   </si>
   <si>
-    <t>2020-08-31</t>
-  </si>
-  <si>
-    <t>2020-08-30</t>
-  </si>
-  <si>
     <t>ONG000000000538</t>
   </si>
   <si>
@@ -4539,24 +4533,9 @@
     <t>90,000.00</t>
   </si>
   <si>
-    <t>15-Dec-2020</t>
-  </si>
-  <si>
-    <t>13-Feb-2021</t>
-  </si>
-  <si>
-    <t>COMSEE_SC7_20092020200120</t>
-  </si>
-  <si>
-    <t>CSSC7_TERM20092020200906</t>
-  </si>
-  <si>
     <t>FACI Fee Due</t>
   </si>
   <si>
-    <t>14-Jan-2021</t>
-  </si>
-  <si>
     <t>26-Dec-2020</t>
   </si>
   <si>
@@ -5044,6 +5023,33 @@
   </si>
   <si>
     <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>32.88</t>
+  </si>
+  <si>
+    <t>06-May-2020</t>
+  </si>
+  <si>
+    <t>05-Jul-2020</t>
+  </si>
+  <si>
+    <t>IMTEUR1-0735</t>
+  </si>
+  <si>
+    <t>CG852/Hold for Investment - Europe/IT_COL</t>
+  </si>
+  <si>
+    <t>01-Jun-2020</t>
+  </si>
+  <si>
+    <t>05-Jun-2020</t>
+  </si>
+  <si>
+    <t>2020-06-05</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
   </si>
 </sst>
 </file>
@@ -9128,7 +9134,7 @@
         <v>1009</v>
       </c>
       <c r="E2" s="195" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="F2" s="200" t="s">
         <v>98</v>
@@ -9294,7 +9300,7 @@
         <v>947</v>
       </c>
       <c r="BI2" s="195" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="BJ2" s="205" t="s">
         <v>496</v>
@@ -9658,10 +9664,10 @@
         <v>1007</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="D2" s="195" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="E2" s="195" t="s">
         <v>1019</v>
@@ -9974,10 +9980,10 @@
   </sheetPr>
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection activeCell="V3" sqref="V3"/>
-      <selection pane="topRight" activeCell="O22" sqref="O22"/>
+      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10219,7 +10225,7 @@
         <v>1024</v>
       </c>
       <c r="E2" s="195" t="s">
-        <v>1647</v>
+        <v>1640</v>
       </c>
       <c r="F2" s="195" t="s">
         <v>1380</v>
@@ -10228,7 +10234,7 @@
         <v>484</v>
       </c>
       <c r="H2" s="195" t="s">
-        <v>1648</v>
+        <v>1641</v>
       </c>
       <c r="K2" s="195" t="s">
         <v>806</v>
@@ -10240,13 +10246,13 @@
         <v>126</v>
       </c>
       <c r="N2" s="195" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="O2" s="195" t="s">
-        <v>1650</v>
+        <v>1643</v>
       </c>
       <c r="P2" s="195" t="s">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="S2" s="195" t="s">
         <v>562</v>
@@ -10261,7 +10267,7 @@
         <v>98</v>
       </c>
       <c r="Y2" s="195" t="s">
-        <v>1649</v>
+        <v>1642</v>
       </c>
       <c r="Z2" s="195" t="s">
         <v>812</v>
@@ -10270,7 +10276,7 @@
         <v>812</v>
       </c>
       <c r="AB2" s="195" t="s">
-        <v>1652</v>
+        <v>1645</v>
       </c>
       <c r="AC2" s="200" t="s">
         <v>499</v>
@@ -10287,13 +10293,13 @@
       <c r="AG2" s="207"/>
       <c r="AH2" s="207"/>
       <c r="AQ2" s="195" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="AR2" s="204" t="s">
         <v>813</v>
       </c>
       <c r="AS2" s="195" t="s">
-        <v>1646</v>
+        <v>1639</v>
       </c>
       <c r="AT2" s="204" t="s">
         <v>520</v>
@@ -10311,7 +10317,7 @@
         <v>816</v>
       </c>
       <c r="AY2" s="195" t="s">
-        <v>1645</v>
+        <v>1638</v>
       </c>
       <c r="AZ2" s="195" t="s">
         <v>817</v>
@@ -10406,7 +10412,7 @@
         <v>812</v>
       </c>
       <c r="AB3" s="195" t="s">
-        <v>1653</v>
+        <v>1646</v>
       </c>
       <c r="AC3" s="200" t="s">
         <v>499</v>
@@ -24804,11 +24810,11 @@
   </sheetPr>
   <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25135,22 +25141,22 @@
         <v>561</v>
       </c>
       <c r="P3" s="170" t="s">
-        <v>1387</v>
+        <v>1654</v>
       </c>
       <c r="Q3" s="170" t="s">
         <v>488</v>
       </c>
       <c r="R3" s="170" t="s">
-        <v>1388</v>
+        <v>1655</v>
       </c>
       <c r="S3" s="170" t="s">
-        <v>562</v>
+        <v>1647</v>
       </c>
       <c r="T3" s="170" t="s">
         <v>562</v>
       </c>
       <c r="U3" s="170" t="s">
-        <v>562</v>
+        <v>1647</v>
       </c>
       <c r="V3" s="170" t="s">
         <v>1338</v>
@@ -25239,7 +25245,7 @@
         <v>1349</v>
       </c>
       <c r="I4" s="170" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="J4" s="170" t="s">
         <v>354</v>
@@ -25260,13 +25266,13 @@
         <v>870</v>
       </c>
       <c r="P4" s="170" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="Q4" s="170" t="s">
         <v>738</v>
       </c>
       <c r="R4" s="170" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="S4" s="170" t="s">
         <v>1032</v>
@@ -25361,10 +25367,10 @@
         <v>1355</v>
       </c>
       <c r="I5" s="170" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="J5" s="170" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="K5" s="170" t="s">
         <v>372</v>
@@ -25483,7 +25489,7 @@
         <v>1360</v>
       </c>
       <c r="I6" s="170" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="J6" s="170" t="s">
         <v>354</v>
@@ -25504,13 +25510,13 @@
         <v>872</v>
       </c>
       <c r="P6" s="170" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="Q6" s="170" t="s">
         <v>757</v>
       </c>
       <c r="R6" s="170" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="S6" s="170" t="s">
         <v>562</v>
@@ -25605,7 +25611,7 @@
         <v>1365</v>
       </c>
       <c r="I7" s="170" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="J7" s="170" t="s">
         <v>354</v>
@@ -25626,13 +25632,13 @@
         <v>1376</v>
       </c>
       <c r="P7" s="170" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="Q7" s="170" t="s">
         <v>1364</v>
       </c>
       <c r="R7" s="170" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="S7" s="170" t="s">
         <v>562</v>
@@ -25815,7 +25821,7 @@
         <v>59</v>
       </c>
       <c r="Q1" s="65" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="R1" s="65" t="s">
         <v>1242</v>
@@ -25878,7 +25884,7 @@
         <v>913</v>
       </c>
       <c r="AL1" s="65" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="AM1" s="65" t="s">
         <v>914</v>
@@ -25896,19 +25902,19 @@
         <v>918</v>
       </c>
       <c r="AR1" s="64" t="s">
+        <v>1400</v>
+      </c>
+      <c r="AS1" s="64" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AT1" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="AS1" s="64" t="s">
+      <c r="AU1" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="AT1" s="64" t="s">
+      <c r="AV1" s="64" t="s">
         <v>1404</v>
-      </c>
-      <c r="AU1" s="64" t="s">
-        <v>1405</v>
-      </c>
-      <c r="AV1" s="64" t="s">
-        <v>1406</v>
       </c>
       <c r="AW1" s="64" t="s">
         <v>919</v>
@@ -25929,16 +25935,16 @@
         <v>928</v>
       </c>
       <c r="BC1" s="64" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="BD1" s="64" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="BE1" s="110" t="s">
         <v>922</v>
       </c>
       <c r="BF1" s="110" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="BG1" s="110" t="s">
         <v>74</v>
@@ -26015,13 +26021,13 @@
         <v>227</v>
       </c>
       <c r="Q2" s="195" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="R2" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="S2" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="T2" s="206" t="s">
         <v>230</v>
@@ -26048,7 +26054,7 @@
         <v>1329</v>
       </c>
       <c r="AG2" s="195" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="AH2" s="195"/>
       <c r="AI2" s="195"/>
@@ -26057,7 +26063,7 @@
         <v>816</v>
       </c>
       <c r="AL2" s="206" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AM2" s="206" t="s">
         <v>104</v>
@@ -26081,19 +26087,19 @@
         <v>820</v>
       </c>
       <c r="AT2" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AU2" s="206" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AV2" s="206" t="s">
         <v>1414</v>
-      </c>
-      <c r="AU2" s="206" t="s">
-        <v>1415</v>
-      </c>
-      <c r="AV2" s="206" t="s">
-        <v>1416</v>
       </c>
       <c r="AW2" s="206" t="s">
         <v>950</v>
       </c>
       <c r="AX2" s="25" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="AY2" s="206" t="s">
         <v>678</v>
@@ -26108,10 +26114,10 @@
         <v>1305</v>
       </c>
       <c r="BC2" s="67" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="BD2" s="67" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="BE2" s="195" t="s">
         <v>953</v>
@@ -26134,7 +26140,7 @@
         <v>1385</v>
       </c>
       <c r="E3" s="195" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="F3" s="195" t="s">
         <v>126</v>
@@ -26143,13 +26149,13 @@
         <v>527</v>
       </c>
       <c r="H3" s="195" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="I3" s="206" t="s">
         <v>98</v>
       </c>
       <c r="J3" s="195" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="K3" s="206" t="s">
         <v>153</v>
@@ -26170,13 +26176,13 @@
         <v>227</v>
       </c>
       <c r="Q3" s="195" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="R3" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="S3" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="T3" s="206" t="s">
         <v>230</v>
@@ -26207,7 +26213,7 @@
         <v>816</v>
       </c>
       <c r="AL3" s="206" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AM3" s="206" t="s">
         <v>104</v>
@@ -26231,19 +26237,19 @@
         <v>820</v>
       </c>
       <c r="AT3" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AU3" s="206" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AV3" s="206" t="s">
         <v>1414</v>
-      </c>
-      <c r="AU3" s="206" t="s">
-        <v>1415</v>
-      </c>
-      <c r="AV3" s="206" t="s">
-        <v>1416</v>
       </c>
       <c r="AW3" s="206" t="s">
         <v>950</v>
       </c>
       <c r="AX3" s="25" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="AY3" s="206" t="s">
         <v>678</v>
@@ -26258,10 +26264,10 @@
         <v>1305</v>
       </c>
       <c r="BC3" s="67" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="BD3" s="67" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="BE3" s="195" t="s">
         <v>953</v>
@@ -26320,13 +26326,13 @@
         <v>227</v>
       </c>
       <c r="Q4" s="195" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="R4" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="S4" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="T4" s="206" t="s">
         <v>230</v>
@@ -26348,7 +26354,7 @@
       </c>
       <c r="AF4" s="25"/>
       <c r="AG4" s="195" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="AH4" s="195"/>
       <c r="AI4" s="195"/>
@@ -26357,7 +26363,7 @@
         <v>816</v>
       </c>
       <c r="AL4" s="206" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AM4" s="206" t="s">
         <v>104</v>
@@ -26381,19 +26387,19 @@
         <v>820</v>
       </c>
       <c r="AT4" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AU4" s="206" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AV4" s="206" t="s">
         <v>1414</v>
-      </c>
-      <c r="AU4" s="206" t="s">
-        <v>1415</v>
-      </c>
-      <c r="AV4" s="206" t="s">
-        <v>1416</v>
       </c>
       <c r="AW4" s="206" t="s">
         <v>950</v>
       </c>
       <c r="AX4" s="25" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="AY4" s="206" t="s">
         <v>678</v>
@@ -26408,10 +26414,10 @@
         <v>1305</v>
       </c>
       <c r="BC4" s="67" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="BD4" s="67" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="BE4" s="195" t="s">
         <v>953</v>
@@ -26470,13 +26476,13 @@
         <v>227</v>
       </c>
       <c r="Q5" s="195" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="R5" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="S5" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="T5" s="206" t="s">
         <v>230</v>
@@ -26498,7 +26504,7 @@
       </c>
       <c r="AF5" s="25"/>
       <c r="AG5" s="195" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="AH5" s="195"/>
       <c r="AI5" s="195"/>
@@ -26507,7 +26513,7 @@
         <v>816</v>
       </c>
       <c r="AL5" s="206" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AM5" s="206" t="s">
         <v>104</v>
@@ -26531,19 +26537,19 @@
         <v>820</v>
       </c>
       <c r="AT5" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AU5" s="206" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AV5" s="206" t="s">
         <v>1414</v>
-      </c>
-      <c r="AU5" s="206" t="s">
-        <v>1415</v>
-      </c>
-      <c r="AV5" s="206" t="s">
-        <v>1416</v>
       </c>
       <c r="AW5" s="206" t="s">
         <v>950</v>
       </c>
       <c r="AX5" s="25" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="AY5" s="206" t="s">
         <v>678</v>
@@ -26558,10 +26564,10 @@
         <v>1305</v>
       </c>
       <c r="BC5" s="67" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="BD5" s="67" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="BE5" s="195" t="s">
         <v>953</v>
@@ -26620,19 +26626,19 @@
         <v>568</v>
       </c>
       <c r="Q6" s="195" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="R6" s="195" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="S6" s="195" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="T6" s="206" t="s">
         <v>230</v>
       </c>
       <c r="U6" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="V6" s="206" t="s">
         <v>98</v>
@@ -26668,7 +26674,7 @@
         <v>757</v>
       </c>
       <c r="AG6" s="195" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="AH6" s="195" t="s">
         <v>872</v>
@@ -26683,7 +26689,7 @@
         <v>816</v>
       </c>
       <c r="AL6" s="206" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AM6" s="206" t="s">
         <v>104</v>
@@ -26707,19 +26713,19 @@
         <v>820</v>
       </c>
       <c r="AT6" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AU6" s="206" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AV6" s="206" t="s">
         <v>1414</v>
-      </c>
-      <c r="AU6" s="206" t="s">
-        <v>1415</v>
-      </c>
-      <c r="AV6" s="206" t="s">
-        <v>1416</v>
       </c>
       <c r="AW6" s="206" t="s">
         <v>950</v>
       </c>
       <c r="AX6" s="25" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="AY6" s="206" t="s">
         <v>678</v>
@@ -26734,10 +26740,10 @@
         <v>1052</v>
       </c>
       <c r="BC6" s="67" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="BD6" s="67" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="BE6" s="195" t="s">
         <v>953</v>
@@ -26805,19 +26811,19 @@
         <v>568</v>
       </c>
       <c r="Q7" s="195" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="R7" s="195" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="S7" s="195" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="T7" s="206" t="s">
         <v>230</v>
       </c>
       <c r="U7" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="V7" s="206" t="s">
         <v>98</v>
@@ -26853,7 +26859,7 @@
         <v>1364</v>
       </c>
       <c r="AG7" s="195" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="AH7" s="195" t="s">
         <v>1376</v>
@@ -26868,7 +26874,7 @@
         <v>816</v>
       </c>
       <c r="AL7" s="206" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AM7" s="206" t="s">
         <v>104</v>
@@ -26892,19 +26898,19 @@
         <v>820</v>
       </c>
       <c r="AT7" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AU7" s="206" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AV7" s="206" t="s">
         <v>1414</v>
-      </c>
-      <c r="AU7" s="206" t="s">
-        <v>1415</v>
-      </c>
-      <c r="AV7" s="206" t="s">
-        <v>1416</v>
       </c>
       <c r="AW7" s="206" t="s">
         <v>950</v>
       </c>
       <c r="AX7" s="25" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="AY7" s="206" t="s">
         <v>678</v>
@@ -26919,10 +26925,10 @@
         <v>1052</v>
       </c>
       <c r="BC7" s="67" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="BD7" s="67" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="BE7" s="195" t="s">
         <v>953</v>
@@ -27074,7 +27080,7 @@
         <v>1037</v>
       </c>
       <c r="G1" s="72" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="H1" s="68" t="s">
         <v>1242</v>
@@ -27086,13 +27092,13 @@
         <v>925</v>
       </c>
       <c r="K1" s="68" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="L1" s="68" t="s">
         <v>998</v>
       </c>
       <c r="M1" s="68" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="N1" s="75" t="s">
         <v>931</v>
@@ -27176,7 +27182,7 @@
         <v>227</v>
       </c>
       <c r="H2" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>1305</v>
@@ -27188,10 +27194,10 @@
         <v>234</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="M2" s="76" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="N2" s="67">
         <v>100</v>
@@ -27208,10 +27214,10 @@
         <v>1317</v>
       </c>
       <c r="C3" s="195" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D3" s="195" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>864</v>
@@ -27223,7 +27229,7 @@
         <v>227</v>
       </c>
       <c r="H3" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>1305</v>
@@ -27235,10 +27241,10 @@
         <v>234</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="M3" s="76" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="N3" s="67">
         <v>100</v>
@@ -27270,7 +27276,7 @@
         <v>227</v>
       </c>
       <c r="H4" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I4" s="25" t="s">
         <v>1305</v>
@@ -27282,10 +27288,10 @@
         <v>234</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="M4" s="76" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="N4" s="67">
         <v>100</v>
@@ -27317,7 +27323,7 @@
         <v>227</v>
       </c>
       <c r="H5" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="I5" s="25" t="s">
         <v>1305</v>
@@ -27329,10 +27335,10 @@
         <v>234</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="M5" s="76" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="N5" s="67">
         <v>100</v>
@@ -27364,7 +27370,7 @@
         <v>227</v>
       </c>
       <c r="H6" s="195" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>1305</v>
@@ -27376,10 +27382,10 @@
         <v>234</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="M6" s="76" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="N6" s="67">
         <v>100</v>
@@ -27411,7 +27417,7 @@
         <v>227</v>
       </c>
       <c r="H7" s="195" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>1305</v>
@@ -27423,10 +27429,10 @@
         <v>234</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="M7" s="76" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="N7" s="67">
         <v>100</v>
@@ -27493,10 +27499,10 @@
         <v>1242</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="H1" s="48" t="s">
         <v>425</v>
@@ -27505,22 +27511,22 @@
         <v>936</v>
       </c>
       <c r="J1" s="77" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="K1" s="78" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="L1" s="30" t="s">
         <v>801</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="N1" s="30" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="P1" s="48" t="s">
         <v>925</v>
@@ -27549,13 +27555,13 @@
         <v>1326</v>
       </c>
       <c r="E2" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F2" s="195" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G2" s="206" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H2" s="25" t="s">
         <v>864</v>
@@ -27564,22 +27570,22 @@
         <v>87</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="K2" s="195" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="L2" s="25" t="s">
         <v>227</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="N2" s="25" t="s">
         <v>820</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="P2" s="206" t="s">
         <v>678</v>
@@ -27594,7 +27600,7 @@
         <v>971</v>
       </c>
       <c r="T2" s="195" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -27605,19 +27611,19 @@
         <v>1317</v>
       </c>
       <c r="C3" s="195" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D3" s="195" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E3" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F3" s="195" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G3" s="206" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H3" s="25" t="s">
         <v>864</v>
@@ -27626,22 +27632,22 @@
         <v>87</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="K3" s="195" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="L3" s="25" t="s">
         <v>227</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="N3" s="25" t="s">
         <v>820</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="P3" s="206" t="s">
         <v>678</v>
@@ -27656,7 +27662,7 @@
         <v>971</v>
       </c>
       <c r="T3" s="195" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -27673,13 +27679,13 @@
         <v>1349</v>
       </c>
       <c r="E4" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F4" s="195" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G4" s="206" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H4" s="25" t="s">
         <v>864</v>
@@ -27688,22 +27694,22 @@
         <v>87</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="K4" s="195" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="L4" s="25" t="s">
         <v>227</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="N4" s="25" t="s">
         <v>820</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="P4" s="206" t="s">
         <v>678</v>
@@ -27718,7 +27724,7 @@
         <v>971</v>
       </c>
       <c r="T4" s="195" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -27735,13 +27741,13 @@
         <v>1355</v>
       </c>
       <c r="E5" s="195" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="F5" s="195" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="G5" s="206" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H5" s="25" t="s">
         <v>864</v>
@@ -27750,22 +27756,22 @@
         <v>87</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="K5" s="195" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="L5" s="25" t="s">
         <v>227</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="N5" s="25" t="s">
         <v>820</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="P5" s="206" t="s">
         <v>678</v>
@@ -27780,7 +27786,7 @@
         <v>971</v>
       </c>
       <c r="T5" s="195" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -27797,13 +27803,13 @@
         <v>1360</v>
       </c>
       <c r="E6" s="195" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="F6" s="195" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="G6" s="206" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H6" s="25" t="s">
         <v>864</v>
@@ -27812,22 +27818,22 @@
         <v>87</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="K6" s="195" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="L6" s="25" t="s">
         <v>227</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="N6" s="25" t="s">
         <v>820</v>
       </c>
       <c r="O6" s="25" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="P6" s="206" t="s">
         <v>678</v>
@@ -27842,7 +27848,7 @@
         <v>971</v>
       </c>
       <c r="T6" s="195" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
@@ -27859,13 +27865,13 @@
         <v>1365</v>
       </c>
       <c r="E7" s="195" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="F7" s="195" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="G7" s="206" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="H7" s="25" t="s">
         <v>864</v>
@@ -27874,22 +27880,22 @@
         <v>87</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="K7" s="195" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="L7" s="25" t="s">
         <v>227</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="N7" s="25" t="s">
         <v>820</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="P7" s="206" t="s">
         <v>678</v>
@@ -27904,7 +27910,7 @@
         <v>971</v>
       </c>
       <c r="T7" s="195" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -28097,10 +28103,10 @@
         <v>992</v>
       </c>
       <c r="V2" s="195" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="W2" s="195" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="X2" s="143">
         <v>60</v>
@@ -28174,10 +28180,10 @@
         <v>992</v>
       </c>
       <c r="V3" s="195" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="W3" s="195" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="X3" s="143">
         <v>60</v>
@@ -28251,10 +28257,10 @@
         <v>992</v>
       </c>
       <c r="V4" s="195" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="W4" s="195" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="X4" s="143">
         <v>60</v>
@@ -28278,13 +28284,13 @@
         <v>168</v>
       </c>
       <c r="D7" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="I7" t="s">
         <v>1451</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1452</v>
-      </c>
-      <c r="I7" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -28292,16 +28298,16 @@
         <v>171</v>
       </c>
       <c r="B8" s="194" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C8" s="195" t="s">
         <v>527</v>
       </c>
       <c r="D8" s="195" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E8" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="F8" s="204" t="s">
         <v>689</v>
@@ -28310,10 +28316,10 @@
         <v>227</v>
       </c>
       <c r="H8" s="195" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="I8" s="195" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="J8" s="206" t="s">
         <v>234</v>
@@ -28322,7 +28328,7 @@
         <v>942</v>
       </c>
       <c r="L8" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="M8" s="195">
         <v>3.5</v>
@@ -28331,19 +28337,19 @@
         <v>200</v>
       </c>
       <c r="R8" s="195" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="S8" s="195" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="T8" s="195" t="s">
         <v>502</v>
       </c>
       <c r="U8" s="200" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="V8" s="195" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="W8" s="195" t="s">
         <v>502</v>
@@ -28371,7 +28377,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE1" sqref="AE1"/>
+      <selection pane="topRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28414,19 +28420,19 @@
         <v>545</v>
       </c>
       <c r="C1" s="110" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E1" s="110" t="s">
         <v>1463</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="F1" s="110" t="s">
         <v>1464</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="G1" s="110" t="s">
         <v>1465</v>
-      </c>
-      <c r="F1" s="110" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G1" s="110" t="s">
-        <v>1467</v>
       </c>
       <c r="H1" s="110" t="s">
         <v>1265</v>
@@ -28456,46 +28462,46 @@
         <v>13</v>
       </c>
       <c r="Q1" s="106" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="R1" s="106" t="s">
         <v>78</v>
       </c>
       <c r="S1" s="106" t="s">
+        <v>1467</v>
+      </c>
+      <c r="T1" s="106" t="s">
+        <v>1468</v>
+      </c>
+      <c r="U1" s="106" t="s">
         <v>1469</v>
       </c>
-      <c r="T1" s="106" t="s">
+      <c r="V1" s="106" t="s">
         <v>1470</v>
       </c>
-      <c r="U1" s="106" t="s">
+      <c r="W1" s="106" t="s">
         <v>1471</v>
-      </c>
-      <c r="V1" s="106" t="s">
-        <v>1472</v>
-      </c>
-      <c r="W1" s="106" t="s">
-        <v>1473</v>
       </c>
       <c r="X1" s="110" t="s">
         <v>1033</v>
       </c>
       <c r="Y1" s="110" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="Z1" s="110" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="AA1" s="110" t="s">
         <v>931</v>
       </c>
       <c r="AB1" s="110" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="AC1" s="110" t="s">
         <v>936</v>
       </c>
       <c r="AD1" s="110" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="AE1" s="110" t="s">
         <v>938</v>
@@ -28509,10 +28515,10 @@
         <v>1317</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="D2" s="195" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E2" s="204" t="s">
         <v>107</v>
@@ -28527,7 +28533,7 @@
         <v>1052</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="J2" s="25" t="s">
         <v>678</v>
@@ -28551,7 +28557,7 @@
         <v>1320</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>352</v>
@@ -28560,13 +28566,13 @@
         <v>352</v>
       </c>
       <c r="T2" s="25" t="s">
+        <v>1479</v>
+      </c>
+      <c r="U2" s="195" t="s">
+        <v>1480</v>
+      </c>
+      <c r="V2" s="25" t="s">
         <v>1481</v>
-      </c>
-      <c r="U2" s="195" t="s">
-        <v>1482</v>
-      </c>
-      <c r="V2" s="25" t="s">
-        <v>1483</v>
       </c>
       <c r="W2" s="25" t="s">
         <v>816</v>
@@ -28575,7 +28581,7 @@
         <v>9.86</v>
       </c>
       <c r="Z2" s="38" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AA2" s="38" t="s">
         <v>1053</v>
@@ -28587,7 +28593,7 @@
         <v>87</v>
       </c>
       <c r="AD2" s="195" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28598,49 +28604,49 @@
         <v>1317</v>
       </c>
       <c r="C3" s="195" t="s">
-        <v>1485</v>
+        <v>1648</v>
       </c>
       <c r="D3" s="195" t="s">
-        <v>1486</v>
+        <v>1649</v>
       </c>
       <c r="E3" s="204" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="204" t="s">
-        <v>116</v>
+        <v>516</v>
       </c>
       <c r="G3" s="195" t="s">
-        <v>1487</v>
+        <v>1336</v>
       </c>
       <c r="H3" s="195" t="s">
-        <v>1052</v>
+        <v>1650</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>678</v>
+        <v>502</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>951</v>
       </c>
       <c r="L3" s="195" t="s">
-        <v>532</v>
+        <v>494</v>
       </c>
       <c r="M3" s="195" t="s">
-        <v>953</v>
+        <v>1651</v>
       </c>
       <c r="N3" s="25" t="s">
         <v>98</v>
       </c>
       <c r="O3" s="195" t="s">
-        <v>1488</v>
+        <v>1338</v>
       </c>
       <c r="P3" s="195" t="s">
-        <v>1487</v>
+        <v>1336</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R3" s="195" t="s">
         <v>372</v>
@@ -28649,13 +28655,13 @@
         <v>372</v>
       </c>
       <c r="T3" s="195" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="U3" s="195" t="s">
-        <v>725</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>1483</v>
+        <v>1652</v>
+      </c>
+      <c r="V3" s="25">
+        <v>43983</v>
       </c>
       <c r="W3" s="25" t="s">
         <v>816</v>
@@ -28664,7 +28670,7 @@
         <v>9.86</v>
       </c>
       <c r="Z3" s="38" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AA3" s="38" t="s">
         <v>1053</v>
@@ -28673,10 +28679,10 @@
         <v>591</v>
       </c>
       <c r="AC3" s="101" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="AD3" s="195" t="s">
-        <v>1490</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28687,10 +28693,10 @@
         <v>1317</v>
       </c>
       <c r="C4" s="195" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="D4" s="195" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="E4" s="204" t="s">
         <v>107</v>
@@ -28705,7 +28711,7 @@
         <v>1052</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>678</v>
@@ -28729,7 +28735,7 @@
         <v>1347</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R4" s="195" t="s">
         <v>372</v>
@@ -28738,13 +28744,13 @@
         <v>372</v>
       </c>
       <c r="T4" s="195" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="U4" s="195" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="V4" s="25" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="W4" s="25" t="s">
         <v>816</v>
@@ -28753,7 +28759,7 @@
         <v>9.86</v>
       </c>
       <c r="Z4" s="38" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AA4" s="38" t="s">
         <v>1053</v>
@@ -28765,10 +28771,10 @@
         <v>87</v>
       </c>
       <c r="AD4" s="195" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
       <c r="AE4" s="198" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28779,10 +28785,10 @@
         <v>1317</v>
       </c>
       <c r="C5" s="195" t="s">
-        <v>1491</v>
+        <v>1484</v>
       </c>
       <c r="D5" s="195" t="s">
-        <v>1492</v>
+        <v>1485</v>
       </c>
       <c r="E5" s="204" t="s">
         <v>107</v>
@@ -28797,7 +28803,7 @@
         <v>1052</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>678</v>
@@ -28821,7 +28827,7 @@
         <v>1352</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R5" s="195" t="s">
         <v>372</v>
@@ -28830,13 +28836,13 @@
         <v>372</v>
       </c>
       <c r="T5" s="195" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="U5" s="195" t="s">
-        <v>1493</v>
+        <v>1486</v>
       </c>
       <c r="V5" s="25" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="W5" s="25" t="s">
         <v>816</v>
@@ -28845,7 +28851,7 @@
         <v>9.86</v>
       </c>
       <c r="Z5" s="38" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AA5" s="38" t="s">
         <v>1053</v>
@@ -28857,7 +28863,7 @@
         <v>87</v>
       </c>
       <c r="AD5" s="195" t="s">
-        <v>1494</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28868,10 +28874,10 @@
         <v>1317</v>
       </c>
       <c r="C6" s="195" t="s">
-        <v>1496</v>
+        <v>1489</v>
       </c>
       <c r="D6" s="195" t="s">
-        <v>1497</v>
+        <v>1490</v>
       </c>
       <c r="E6" s="204" t="s">
         <v>107</v>
@@ -28886,7 +28892,7 @@
         <v>1052</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>678</v>
@@ -28910,7 +28916,7 @@
         <v>1358</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R6" s="25" t="s">
         <v>352</v>
@@ -28919,13 +28925,13 @@
         <v>372</v>
       </c>
       <c r="T6" s="195" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="U6" s="195" t="s">
         <v>761</v>
       </c>
       <c r="V6" s="25" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="W6" s="25" t="s">
         <v>816</v>
@@ -28934,7 +28940,7 @@
         <v>9.86</v>
       </c>
       <c r="Z6" s="38" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AA6" s="38" t="s">
         <v>1053</v>
@@ -28946,7 +28952,7 @@
         <v>87</v>
       </c>
       <c r="AD6" s="195" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28960,7 +28966,7 @@
         <v>844</v>
       </c>
       <c r="D7" s="195" t="s">
-        <v>1498</v>
+        <v>1491</v>
       </c>
       <c r="E7" s="204" t="s">
         <v>107</v>
@@ -28975,7 +28981,7 @@
         <v>1052</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>678</v>
@@ -28999,7 +29005,7 @@
         <v>1362</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>352</v>
@@ -29008,13 +29014,13 @@
         <v>372</v>
       </c>
       <c r="T7" s="195" t="s">
-        <v>1489</v>
+        <v>1483</v>
       </c>
       <c r="U7" s="195" t="s">
-        <v>1499</v>
+        <v>1492</v>
       </c>
       <c r="V7" s="25" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="W7" s="25" t="s">
         <v>816</v>
@@ -29023,7 +29029,7 @@
         <v>9.86</v>
       </c>
       <c r="Z7" s="38" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="AA7" s="38" t="s">
         <v>1053</v>
@@ -29035,7 +29041,7 @@
         <v>87</v>
       </c>
       <c r="AD7" s="195" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
   </sheetData>
@@ -30358,7 +30364,7 @@
         <v>424</v>
       </c>
       <c r="AE1" s="102" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="AF1" s="102" t="s">
         <v>427</v>
@@ -30367,7 +30373,7 @@
         <v>603</v>
       </c>
       <c r="AH1" s="102" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="AI1" s="102" t="s">
         <v>428</v>
@@ -30615,10 +30621,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="132" t="s">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="D2" s="203" t="s">
         <v>91</v>
@@ -30627,19 +30633,19 @@
         <v>481</v>
       </c>
       <c r="F2" s="195" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="G2" s="195" t="s">
         <v>1319</v>
       </c>
       <c r="H2" s="195" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="I2" s="195" t="s">
-        <v>1506</v>
+        <v>1499</v>
       </c>
       <c r="J2" s="195" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="K2" s="195" t="s">
         <v>160</v>
@@ -30654,10 +30660,10 @@
         <v>101</v>
       </c>
       <c r="O2" s="195" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="P2" s="195" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="Q2" s="195">
         <v>2</v>
@@ -30672,10 +30678,10 @@
         <v>160</v>
       </c>
       <c r="U2" s="195" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="V2" s="195" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="W2" s="195" t="s">
         <v>106</v>
@@ -30684,19 +30690,19 @@
         <v>107</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>1511</v>
+        <v>1504</v>
       </c>
       <c r="Z2" s="101" t="s">
-        <v>1512</v>
+        <v>1505</v>
       </c>
       <c r="AA2" s="195" t="s">
-        <v>1513</v>
+        <v>1506</v>
       </c>
       <c r="AB2" s="195" t="s">
-        <v>1514</v>
+        <v>1507</v>
       </c>
       <c r="AC2" s="195" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="AD2" s="101" t="s">
         <v>493</v>
@@ -30711,7 +30717,7 @@
         <v>678</v>
       </c>
       <c r="AH2" s="25" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="AI2" s="101" t="s">
         <v>497</v>
@@ -30747,7 +30753,7 @@
         <v>1180</v>
       </c>
       <c r="AT2" s="101" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="AU2" s="101" t="s">
         <v>536</v>
@@ -30831,7 +30837,7 @@
         <v>1097</v>
       </c>
       <c r="BX2" s="101" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="BY2" s="200" t="s">
         <v>495</v>
@@ -30855,7 +30861,7 @@
         <v>392</v>
       </c>
       <c r="CF2" s="101" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="CG2" s="101">
         <v>100</v>
@@ -31181,7 +31187,7 @@
         <v>1212</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>689</v>
@@ -31261,7 +31267,7 @@
         <v>1214</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C3" s="101" t="s">
         <v>690</v>
@@ -31341,7 +31347,7 @@
         <v>1215</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C4" s="101" t="s">
         <v>520</v>
@@ -31421,7 +31427,7 @@
         <v>1216</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>691</v>
@@ -31501,7 +31507,7 @@
         <v>1217</v>
       </c>
       <c r="B6" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C6" s="101" t="s">
         <v>230</v>
@@ -31824,10 +31830,10 @@
         <v>555</v>
       </c>
       <c r="BE1" s="57" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="BF1" s="57" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="BG1" s="57" t="s">
         <v>557</v>
@@ -31868,19 +31874,19 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="D2" s="195" t="s">
-        <v>1504</v>
+        <v>1497</v>
       </c>
       <c r="E2" s="195" t="s">
-        <v>1507</v>
+        <v>1500</v>
       </c>
       <c r="F2" s="195" t="s">
-        <v>1523</v>
+        <v>1516</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>98</v>
@@ -31952,19 +31958,19 @@
         <v>117</v>
       </c>
       <c r="AD2" s="195" t="s">
-        <v>1523</v>
+        <v>1516</v>
       </c>
       <c r="AE2" s="101" t="s">
-        <v>1524</v>
+        <v>1517</v>
       </c>
       <c r="AF2" s="101" t="s">
-        <v>1525</v>
+        <v>1518</v>
       </c>
       <c r="AG2" s="195" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
       <c r="AH2" s="195" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="AI2" s="101" t="s">
         <v>98</v>
@@ -32036,7 +32042,7 @@
         <v>864</v>
       </c>
       <c r="BF2" s="25" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="BG2" s="101" t="s">
         <v>569</v>
@@ -32066,7 +32072,7 @@
         <v>988</v>
       </c>
       <c r="BP2" s="13" t="s">
-        <v>1527</v>
+        <v>1520</v>
       </c>
       <c r="BQ2" s="101" t="s">
         <v>683</v>
@@ -32134,7 +32140,7 @@
         <v>1212</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>598</v>
@@ -32160,7 +32166,7 @@
         <v>1214</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C3" s="101" t="s">
         <v>598</v>
@@ -32186,7 +32192,7 @@
         <v>1215</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C4" s="101" t="s">
         <v>598</v>
@@ -32212,7 +32218,7 @@
         <v>1216</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C5" s="101" t="s">
         <v>598</v>
@@ -32298,7 +32304,7 @@
         <v>1212</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>598</v>
@@ -32324,7 +32330,7 @@
         <v>1214</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C3" s="101" t="s">
         <v>598</v>
@@ -32350,7 +32356,7 @@
         <v>1215</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C4" s="101" t="s">
         <v>598</v>
@@ -32376,7 +32382,7 @@
         <v>1216</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C5" s="101" t="s">
         <v>598</v>
@@ -32476,10 +32482,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="D2" s="200" t="s">
         <v>899</v>
@@ -32511,10 +32517,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C3" s="195" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="D3" s="200" t="s">
         <v>590</v>
@@ -32546,10 +32552,10 @@
         <v>104</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C4" s="195" t="s">
-        <v>1515</v>
+        <v>1508</v>
       </c>
       <c r="D4" s="200" t="s">
         <v>899</v>
@@ -32644,10 +32650,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="D2" s="200" t="s">
         <v>899</v>
@@ -32679,10 +32685,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C3" s="195" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="D3" s="200" t="s">
         <v>590</v>
@@ -32714,10 +32720,10 @@
         <v>104</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C4" s="195" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="D4" s="200" t="s">
         <v>590</v>
@@ -32783,10 +32789,10 @@
         <v>13</v>
       </c>
       <c r="D1" s="81" t="s">
-        <v>1528</v>
+        <v>1521</v>
       </c>
       <c r="E1" s="81" t="s">
-        <v>1529</v>
+        <v>1522</v>
       </c>
       <c r="F1" s="117" t="s">
         <v>422</v>
@@ -32797,19 +32803,19 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1526</v>
+        <v>1519</v>
       </c>
       <c r="D2" s="199" t="s">
-        <v>1508</v>
+        <v>1501</v>
       </c>
       <c r="E2" s="200" t="s">
         <v>100</v>
       </c>
       <c r="F2" s="101" t="s">
-        <v>1530</v>
+        <v>1523</v>
       </c>
       <c r="G2" s="199"/>
       <c r="H2" s="199"/>
@@ -32857,10 +32863,10 @@
         <v>30</v>
       </c>
       <c r="E1" s="81" t="s">
-        <v>1531</v>
+        <v>1524</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>1532</v>
+        <v>1525</v>
       </c>
       <c r="G1" s="117" t="s">
         <v>546</v>
@@ -32871,13 +32877,13 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1502</v>
+        <v>1495</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1505</v>
+        <v>1498</v>
       </c>
       <c r="D2" s="195" t="s">
-        <v>1522</v>
+        <v>1515</v>
       </c>
       <c r="E2" s="199" t="s">
         <v>133</v>
@@ -32886,7 +32892,7 @@
         <v>163</v>
       </c>
       <c r="G2" s="101" t="s">
-        <v>1533</v>
+        <v>1526</v>
       </c>
       <c r="H2" s="199"/>
       <c r="I2" s="199"/>
@@ -33103,7 +33109,7 @@
         <v>424</v>
       </c>
       <c r="AE1" s="102" t="s">
-        <v>1500</v>
+        <v>1493</v>
       </c>
       <c r="AF1" s="102" t="s">
         <v>427</v>
@@ -33112,7 +33118,7 @@
         <v>603</v>
       </c>
       <c r="AH1" s="102" t="s">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="AI1" s="102" t="s">
         <v>428</v>
@@ -33339,10 +33345,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="132" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="D2" s="203" t="s">
         <v>91</v>
@@ -33351,19 +33357,19 @@
         <v>481</v>
       </c>
       <c r="F2" s="195" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="G2" s="195" t="s">
-        <v>1537</v>
+        <v>1530</v>
       </c>
       <c r="H2" s="195" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="I2" s="195" t="s">
-        <v>1539</v>
+        <v>1532</v>
       </c>
       <c r="J2" s="195" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="K2" s="195" t="s">
         <v>160</v>
@@ -33396,10 +33402,10 @@
         <v>160</v>
       </c>
       <c r="U2" s="195" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="V2" s="195" t="s">
-        <v>1510</v>
+        <v>1503</v>
       </c>
       <c r="W2" s="195" t="s">
         <v>106</v>
@@ -33408,19 +33414,19 @@
         <v>107</v>
       </c>
       <c r="Y2" s="101" t="s">
-        <v>1541</v>
+        <v>1534</v>
       </c>
       <c r="Z2" s="101" t="s">
-        <v>1542</v>
+        <v>1535</v>
       </c>
       <c r="AA2" s="195" t="s">
-        <v>1543</v>
+        <v>1536</v>
       </c>
       <c r="AB2" s="195" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="AC2" s="195" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="AD2" s="101" t="s">
         <v>493</v>
@@ -33435,7 +33441,7 @@
         <v>678</v>
       </c>
       <c r="AH2" s="25" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="AI2" s="101" t="s">
         <v>497</v>
@@ -33471,7 +33477,7 @@
         <v>1180</v>
       </c>
       <c r="AT2" s="101" t="s">
-        <v>1517</v>
+        <v>1510</v>
       </c>
       <c r="AU2" s="101" t="s">
         <v>536</v>
@@ -33540,7 +33546,7 @@
         <v>1097</v>
       </c>
       <c r="BQ2" s="101" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="BR2" s="200" t="s">
         <v>495</v>
@@ -33564,7 +33570,7 @@
         <v>392</v>
       </c>
       <c r="BY2" s="101" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="BZ2" s="101">
         <v>100</v>
@@ -34089,7 +34095,7 @@
         <v>1212</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>689</v>
@@ -34169,7 +34175,7 @@
         <v>1214</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C3" s="101" t="s">
         <v>690</v>
@@ -34249,7 +34255,7 @@
         <v>1215</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C4" s="101" t="s">
         <v>520</v>
@@ -34329,7 +34335,7 @@
         <v>1216</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>691</v>
@@ -34409,7 +34415,7 @@
         <v>1217</v>
       </c>
       <c r="B6" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C6" s="101" t="s">
         <v>230</v>
@@ -34728,10 +34734,10 @@
         <v>555</v>
       </c>
       <c r="BD1" s="57" t="s">
-        <v>1520</v>
+        <v>1513</v>
       </c>
       <c r="BE1" s="57" t="s">
-        <v>1521</v>
+        <v>1514</v>
       </c>
       <c r="BF1" s="57" t="s">
         <v>557</v>
@@ -34769,19 +34775,19 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="D2" s="195" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="E2" s="195" t="s">
-        <v>1540</v>
+        <v>1533</v>
       </c>
       <c r="F2" s="195" t="s">
-        <v>1546</v>
+        <v>1539</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>98</v>
@@ -34796,10 +34802,10 @@
         <v>673</v>
       </c>
       <c r="K2" s="195" t="s">
-        <v>1547</v>
+        <v>1540</v>
       </c>
       <c r="L2" s="195" t="s">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="M2" s="195" t="s">
         <v>195</v>
@@ -34829,10 +34835,10 @@
         <v>160</v>
       </c>
       <c r="V2" s="195" t="s">
-        <v>1549</v>
+        <v>1542</v>
       </c>
       <c r="W2" s="195" t="s">
-        <v>1550</v>
+        <v>1543</v>
       </c>
       <c r="X2" s="195" t="s">
         <v>113</v>
@@ -34853,19 +34859,19 @@
         <v>117</v>
       </c>
       <c r="AD2" s="195" t="s">
-        <v>1546</v>
+        <v>1539</v>
       </c>
       <c r="AE2" s="101" t="s">
-        <v>1551</v>
+        <v>1544</v>
       </c>
       <c r="AF2" s="101" t="s">
-        <v>1552</v>
+        <v>1545</v>
       </c>
       <c r="AG2" s="195" t="s">
+        <v>1531</v>
+      </c>
+      <c r="AH2" s="195" t="s">
         <v>1538</v>
-      </c>
-      <c r="AH2" s="195" t="s">
-        <v>1545</v>
       </c>
       <c r="AI2" s="101" t="s">
         <v>98</v>
@@ -34880,19 +34886,19 @@
         <v>683</v>
       </c>
       <c r="AM2" s="195" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="AN2" s="195" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="AO2" s="195" t="s">
-        <v>1553</v>
+        <v>1546</v>
       </c>
       <c r="AP2" s="195" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="AQ2" s="195" t="s">
-        <v>1554</v>
+        <v>1547</v>
       </c>
       <c r="AR2" s="199" t="s">
         <v>501</v>
@@ -34934,7 +34940,7 @@
         <v>864</v>
       </c>
       <c r="BE2" s="25" t="s">
-        <v>1516</v>
+        <v>1509</v>
       </c>
       <c r="BF2" s="101" t="s">
         <v>569</v>
@@ -35026,7 +35032,7 @@
         <v>1212</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>598</v>
@@ -35052,7 +35058,7 @@
         <v>1214</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C3" s="101" t="s">
         <v>598</v>
@@ -35078,7 +35084,7 @@
         <v>1215</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C4" s="101" t="s">
         <v>598</v>
@@ -35104,7 +35110,7 @@
         <v>1216</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C5" s="101" t="s">
         <v>598</v>
@@ -35190,7 +35196,7 @@
         <v>1212</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="101" t="s">
         <v>598</v>
@@ -35216,7 +35222,7 @@
         <v>1214</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C3" s="101" t="s">
         <v>598</v>
@@ -35242,7 +35248,7 @@
         <v>1215</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C4" s="101" t="s">
         <v>598</v>
@@ -35268,7 +35274,7 @@
         <v>1216</v>
       </c>
       <c r="B5" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C5" s="101" t="s">
         <v>598</v>
@@ -35368,10 +35374,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="D2" s="200" t="s">
         <v>899</v>
@@ -35403,10 +35409,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C3" s="195" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="D3" s="200" t="s">
         <v>590</v>
@@ -35438,10 +35444,10 @@
         <v>104</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C4" s="195" t="s">
-        <v>1545</v>
+        <v>1538</v>
       </c>
       <c r="D4" s="200" t="s">
         <v>899</v>
@@ -35536,10 +35542,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="D2" s="200" t="s">
         <v>899</v>
@@ -35571,10 +35577,10 @@
         <v>118</v>
       </c>
       <c r="B3" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C3" s="195" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="D3" s="200" t="s">
         <v>590</v>
@@ -35606,10 +35612,10 @@
         <v>104</v>
       </c>
       <c r="B4" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C4" s="195" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="D4" s="200" t="s">
         <v>590</v>
@@ -35866,65 +35872,65 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="132" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="132" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="E2" s="195" t="s">
         <v>805</v>
       </c>
       <c r="F2" s="195" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="G2" s="195" t="s">
-        <v>1555</v>
+        <v>1548</v>
       </c>
       <c r="H2" s="195" t="s">
-        <v>1556</v>
+        <v>1549</v>
       </c>
       <c r="I2" s="195" t="s">
         <v>265</v>
       </c>
       <c r="J2" s="195" t="s">
-        <v>1557</v>
+        <v>1550</v>
       </c>
       <c r="K2" s="195" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="L2" s="195" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="M2" s="195" t="s">
-        <v>1559</v>
+        <v>1552</v>
       </c>
       <c r="N2" s="25"/>
       <c r="O2" s="195" t="s">
-        <v>1558</v>
+        <v>1551</v>
       </c>
       <c r="P2" s="195" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="Q2" s="195" t="s">
-        <v>1560</v>
+        <v>1553</v>
       </c>
       <c r="R2" s="195" t="s">
-        <v>1561</v>
+        <v>1554</v>
       </c>
       <c r="S2" s="195" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="T2" s="195" t="s">
         <v>273</v>
       </c>
       <c r="U2" s="195" t="s">
-        <v>1563</v>
+        <v>1556</v>
       </c>
       <c r="V2" s="195" t="s">
-        <v>1564</v>
+        <v>1557</v>
       </c>
       <c r="W2" s="195" t="s">
         <v>276</v>
@@ -35936,16 +35942,16 @@
         <v>717</v>
       </c>
       <c r="Z2" s="195" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="AA2" s="195" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="AB2" s="146" t="s">
         <v>227</v>
       </c>
       <c r="AC2" s="195" t="s">
-        <v>1565</v>
+        <v>1558</v>
       </c>
       <c r="AD2" s="146" t="s">
         <v>690</v>
@@ -35957,7 +35963,7 @@
         <v>947</v>
       </c>
       <c r="AG2" s="195" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="AH2" s="25" t="s">
         <v>942</v>
@@ -35972,7 +35978,7 @@
         <v>203</v>
       </c>
       <c r="AL2" s="13" t="s">
-        <v>1567</v>
+        <v>1560</v>
       </c>
       <c r="AM2" s="146" t="s">
         <v>505</v>
@@ -35996,7 +36002,7 @@
         <v>1097</v>
       </c>
       <c r="AT2" s="101" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
       <c r="AU2" s="25" t="s">
         <v>678</v>
@@ -36011,10 +36017,10 @@
         <v>1305</v>
       </c>
       <c r="AY2" s="25" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="AZ2" s="25" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="BA2" s="13" t="s">
         <v>695</v>
@@ -36023,7 +36029,7 @@
         <v>392</v>
       </c>
       <c r="BC2" s="13" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -36114,7 +36120,7 @@
         <v>801</v>
       </c>
       <c r="J1" s="82" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="K1" s="65" t="s">
         <v>1242</v>
@@ -36144,7 +36150,7 @@
         <v>913</v>
       </c>
       <c r="T1" s="65" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="U1" s="65" t="s">
         <v>1244</v>
@@ -36191,19 +36197,19 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="D2" s="195" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="E2" s="206" t="s">
         <v>118</v>
       </c>
       <c r="F2" s="195" t="s">
-        <v>1570</v>
+        <v>1563</v>
       </c>
       <c r="G2" s="195" t="s">
         <v>947</v>
@@ -36215,10 +36221,10 @@
         <v>227</v>
       </c>
       <c r="J2" s="195" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="K2" s="195" t="s">
-        <v>1571</v>
+        <v>1564</v>
       </c>
       <c r="L2" s="206" t="s">
         <v>230</v>
@@ -36236,16 +36242,16 @@
         <v>392</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>1519</v>
+        <v>1512</v>
       </c>
       <c r="R2" s="25" t="s">
-        <v>1572</v>
+        <v>1565</v>
       </c>
       <c r="S2" s="206" t="s">
         <v>816</v>
       </c>
       <c r="T2" s="206" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="U2" s="25" t="s">
         <v>568</v>
@@ -36272,10 +36278,10 @@
         <v>1305</v>
       </c>
       <c r="AC2" s="25" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="AD2" s="25" t="s">
-        <v>1569</v>
+        <v>1562</v>
       </c>
       <c r="AE2" s="25" t="s">
         <v>953</v>
@@ -36284,7 +36290,7 @@
         <v>1097</v>
       </c>
       <c r="AG2" s="101" t="s">
-        <v>1518</v>
+        <v>1511</v>
       </c>
     </row>
   </sheetData>
@@ -36423,7 +36429,7 @@
         <v>602</v>
       </c>
       <c r="AE1" s="60" t="s">
-        <v>1573</v>
+        <v>1566</v>
       </c>
       <c r="AF1" s="112" t="s">
         <v>1041</v>
@@ -36435,7 +36441,7 @@
         <v>795</v>
       </c>
       <c r="AI1" s="112" t="s">
-        <v>1574</v>
+        <v>1567</v>
       </c>
       <c r="AJ1" s="112" t="s">
         <v>797</v>
@@ -36455,13 +36461,13 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="132" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="132" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="E2" s="195">
         <v>7180228</v>
@@ -36470,70 +36476,70 @@
         <v>3000110</v>
       </c>
       <c r="G2" s="195" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="H2" s="195" t="s">
-        <v>1576</v>
+        <v>1569</v>
       </c>
       <c r="I2" s="195" t="s">
         <v>247</v>
       </c>
       <c r="J2" s="195" t="s">
+        <v>1570</v>
+      </c>
+      <c r="K2" s="195" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L2" s="195" t="s">
+        <v>1571</v>
+      </c>
+      <c r="M2" s="195" t="s">
+        <v>1572</v>
+      </c>
+      <c r="N2" s="195" t="s">
+        <v>1573</v>
+      </c>
+      <c r="O2" s="195" t="s">
+        <v>1571</v>
+      </c>
+      <c r="P2" s="195" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q2" s="195" t="s">
+        <v>1574</v>
+      </c>
+      <c r="R2" s="195" t="s">
+        <v>1575</v>
+      </c>
+      <c r="S2" s="195" t="s">
+        <v>1576</v>
+      </c>
+      <c r="T2" s="195" t="s">
         <v>1577</v>
       </c>
-      <c r="K2" s="195" t="s">
+      <c r="U2" s="195" t="s">
         <v>1578</v>
       </c>
-      <c r="L2" s="195" t="s">
-        <v>1578</v>
-      </c>
-      <c r="M2" s="195" t="s">
+      <c r="V2" s="195" t="s">
         <v>1579</v>
       </c>
-      <c r="N2" s="195" t="s">
+      <c r="W2" s="195" t="s">
         <v>1580</v>
       </c>
-      <c r="O2" s="195" t="s">
-        <v>1578</v>
-      </c>
-      <c r="P2" s="195" t="s">
+      <c r="X2" s="195" t="s">
         <v>1581</v>
       </c>
-      <c r="Q2" s="195" t="s">
-        <v>1581</v>
-      </c>
-      <c r="R2" s="195" t="s">
+      <c r="Y2" s="195" t="s">
         <v>1582</v>
       </c>
-      <c r="S2" s="195" t="s">
-        <v>1583</v>
-      </c>
-      <c r="T2" s="195" t="s">
-        <v>1584</v>
-      </c>
-      <c r="U2" s="195" t="s">
-        <v>1585</v>
-      </c>
-      <c r="V2" s="195" t="s">
-        <v>1586</v>
-      </c>
-      <c r="W2" s="195" t="s">
-        <v>1587</v>
-      </c>
-      <c r="X2" s="195" t="s">
-        <v>1588</v>
-      </c>
-      <c r="Y2" s="195" t="s">
-        <v>1589</v>
-      </c>
       <c r="Z2" s="195" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="AA2" s="63" t="s">
         <v>813</v>
       </c>
       <c r="AB2" s="195" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="AC2" s="200" t="s">
         <v>520</v>
@@ -36542,25 +36548,25 @@
         <v>864</v>
       </c>
       <c r="AE2" s="195" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="AF2" s="200" t="s">
         <v>98</v>
       </c>
       <c r="AG2" s="200" t="s">
-        <v>1590</v>
+        <v>1583</v>
       </c>
       <c r="AH2" s="63" t="s">
         <v>814</v>
       </c>
       <c r="AI2" s="25" t="s">
-        <v>1591</v>
+        <v>1584</v>
       </c>
       <c r="AJ2" s="200" t="s">
         <v>816</v>
       </c>
       <c r="AK2" s="195" t="s">
-        <v>1592</v>
+        <v>1585</v>
       </c>
       <c r="AL2" s="101" t="s">
         <v>87</v>
@@ -36685,13 +36691,13 @@
         <v>30</v>
       </c>
       <c r="AB1" s="60" t="s">
-        <v>1593</v>
+        <v>1586</v>
       </c>
       <c r="AC1" s="58" t="s">
-        <v>1594</v>
+        <v>1587</v>
       </c>
       <c r="AD1" s="58" t="s">
-        <v>1595</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="2" spans="1:30" s="101" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -36699,85 +36705,85 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1534</v>
+        <v>1527</v>
       </c>
       <c r="C2" s="132" t="s">
         <v>92</v>
       </c>
       <c r="D2" s="132" t="s">
-        <v>1535</v>
+        <v>1528</v>
       </c>
       <c r="E2" s="195" t="s">
         <v>805</v>
       </c>
       <c r="F2" s="195" t="s">
-        <v>1536</v>
+        <v>1529</v>
       </c>
       <c r="G2" s="195" t="s">
-        <v>1575</v>
+        <v>1568</v>
       </c>
       <c r="H2" s="195" t="s">
-        <v>1596</v>
+        <v>1589</v>
       </c>
       <c r="I2" s="195" t="s">
         <v>247</v>
       </c>
       <c r="J2" s="195" t="s">
-        <v>1577</v>
+        <v>1570</v>
       </c>
       <c r="K2" s="195" t="s">
+        <v>1571</v>
+      </c>
+      <c r="L2" s="195" t="s">
+        <v>1571</v>
+      </c>
+      <c r="M2" s="195" t="s">
+        <v>1590</v>
+      </c>
+      <c r="N2" s="195" t="s">
+        <v>1573</v>
+      </c>
+      <c r="O2" s="195" t="s">
+        <v>1571</v>
+      </c>
+      <c r="P2" s="195" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q2" s="195" t="s">
+        <v>1574</v>
+      </c>
+      <c r="R2" s="195" t="s">
+        <v>1575</v>
+      </c>
+      <c r="S2" s="195" t="s">
+        <v>1576</v>
+      </c>
+      <c r="T2" s="195" t="s">
+        <v>1591</v>
+      </c>
+      <c r="U2" s="195" t="s">
         <v>1578</v>
       </c>
-      <c r="L2" s="195" t="s">
-        <v>1578</v>
-      </c>
-      <c r="M2" s="195" t="s">
-        <v>1597</v>
-      </c>
-      <c r="N2" s="195" t="s">
+      <c r="V2" s="195" t="s">
+        <v>1579</v>
+      </c>
+      <c r="W2" s="195" t="s">
         <v>1580</v>
       </c>
-      <c r="O2" s="195" t="s">
-        <v>1578</v>
-      </c>
-      <c r="P2" s="195" t="s">
+      <c r="X2" s="195" t="s">
         <v>1581</v>
       </c>
-      <c r="Q2" s="195" t="s">
-        <v>1581</v>
-      </c>
-      <c r="R2" s="195" t="s">
+      <c r="Y2" s="195" t="s">
         <v>1582</v>
       </c>
-      <c r="S2" s="195" t="s">
-        <v>1583</v>
-      </c>
-      <c r="T2" s="195" t="s">
-        <v>1598</v>
-      </c>
-      <c r="U2" s="195" t="s">
-        <v>1585</v>
-      </c>
-      <c r="V2" s="195" t="s">
-        <v>1586</v>
-      </c>
-      <c r="W2" s="195" t="s">
-        <v>1587</v>
-      </c>
-      <c r="X2" s="195" t="s">
-        <v>1588</v>
-      </c>
-      <c r="Y2" s="195" t="s">
-        <v>1589</v>
-      </c>
       <c r="Z2" s="195" t="s">
-        <v>1538</v>
+        <v>1531</v>
       </c>
       <c r="AA2" s="195" t="s">
-        <v>1544</v>
+        <v>1537</v>
       </c>
       <c r="AB2" s="195" t="s">
-        <v>1566</v>
+        <v>1559</v>
       </c>
       <c r="AC2" s="101" t="s">
         <v>227</v>
@@ -40230,10 +40236,10 @@
         <v>431</v>
       </c>
       <c r="AN1" s="27" t="s">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="AO1" s="27" t="s">
-        <v>1600</v>
+        <v>1593</v>
       </c>
       <c r="AP1" s="27" t="s">
         <v>433</v>
@@ -40302,31 +40308,31 @@
         <v>461</v>
       </c>
       <c r="BL1" s="110" t="s">
+        <v>1594</v>
+      </c>
+      <c r="BM1" s="110" t="s">
+        <v>1595</v>
+      </c>
+      <c r="BN1" s="110" t="s">
+        <v>1596</v>
+      </c>
+      <c r="BO1" s="110" t="s">
+        <v>1597</v>
+      </c>
+      <c r="BP1" s="110" t="s">
+        <v>1598</v>
+      </c>
+      <c r="BQ1" s="110" t="s">
+        <v>1599</v>
+      </c>
+      <c r="BR1" s="110" t="s">
+        <v>1600</v>
+      </c>
+      <c r="BS1" s="110" t="s">
         <v>1601</v>
       </c>
-      <c r="BM1" s="110" t="s">
+      <c r="BT1" s="110" t="s">
         <v>1602</v>
-      </c>
-      <c r="BN1" s="110" t="s">
-        <v>1603</v>
-      </c>
-      <c r="BO1" s="110" t="s">
-        <v>1604</v>
-      </c>
-      <c r="BP1" s="110" t="s">
-        <v>1605</v>
-      </c>
-      <c r="BQ1" s="110" t="s">
-        <v>1606</v>
-      </c>
-      <c r="BR1" s="110" t="s">
-        <v>1607</v>
-      </c>
-      <c r="BS1" s="110" t="s">
-        <v>1608</v>
-      </c>
-      <c r="BT1" s="110" t="s">
-        <v>1609</v>
       </c>
       <c r="BU1" s="110" t="s">
         <v>452</v>
@@ -40349,10 +40355,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1611</v>
+        <v>1604</v>
       </c>
       <c r="D2" s="203" t="s">
         <v>481</v>
@@ -40361,22 +40367,22 @@
         <v>91</v>
       </c>
       <c r="F2" s="203" t="s">
-        <v>1612</v>
+        <v>1605</v>
       </c>
       <c r="G2" s="195" t="s">
         <v>1319</v>
       </c>
       <c r="H2" s="195" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="I2" s="195" t="s">
-        <v>1614</v>
+        <v>1607</v>
       </c>
       <c r="J2" s="195" t="s">
-        <v>1615</v>
+        <v>1608</v>
       </c>
       <c r="K2" s="195" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="L2" s="200" t="s">
         <v>98</v>
@@ -40403,13 +40409,13 @@
         <v>1</v>
       </c>
       <c r="T2" s="195" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="U2" s="195" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="V2" s="195" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="W2" s="195" t="s">
         <v>106</v>
@@ -40418,16 +40424,16 @@
         <v>107</v>
       </c>
       <c r="Y2" s="25" t="s">
-        <v>1618</v>
+        <v>1611</v>
       </c>
       <c r="Z2" s="25" t="s">
         <v>492</v>
       </c>
       <c r="AA2" s="195" t="s">
-        <v>1619</v>
+        <v>1612</v>
       </c>
       <c r="AB2" s="195" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="AC2" s="200" t="s">
         <v>493</v>
@@ -40532,7 +40538,7 @@
         <v>678</v>
       </c>
       <c r="BK2" s="195" t="s">
-        <v>1621</v>
+        <v>1614</v>
       </c>
       <c r="BL2" s="101" t="s">
         <v>1097</v>
@@ -40550,10 +40556,10 @@
         <v>707</v>
       </c>
       <c r="BQ2" s="101" t="s">
-        <v>1622</v>
+        <v>1615</v>
       </c>
       <c r="BR2" s="200" t="s">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="BS2" s="200" t="s">
         <v>392</v>
@@ -40574,46 +40580,46 @@
         <v>116</v>
       </c>
       <c r="BY2" s="195" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="BZ2" s="195"/>
       <c r="CA2" s="195"/>
       <c r="CB2" s="195"/>
       <c r="CC2" s="195" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="CD2" s="195" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="CE2" s="195" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="CF2" s="195" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="CG2" s="195" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="CH2" s="195" t="s">
-        <v>1625</v>
+        <v>1618</v>
       </c>
       <c r="CI2" s="195" t="s">
         <v>1021</v>
       </c>
       <c r="CJ2" s="195" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="CK2" s="195" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="CL2" s="195" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="CM2" s="195" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="CN2" s="195" t="s">
-        <v>1626</v>
+        <v>1619</v>
       </c>
     </row>
   </sheetData>
@@ -40855,19 +40861,19 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="C2" s="195" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D2" s="195" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E2" s="195" t="s">
+        <v>1608</v>
+      </c>
+      <c r="F2" s="195" t="s">
         <v>1620</v>
-      </c>
-      <c r="D2" s="195" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E2" s="195" t="s">
-        <v>1615</v>
-      </c>
-      <c r="F2" s="195" t="s">
-        <v>1627</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>98</v>
@@ -40879,13 +40885,13 @@
         <v>184</v>
       </c>
       <c r="J2" s="195" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="K2" s="195" t="s">
-        <v>1628</v>
+        <v>1621</v>
       </c>
       <c r="L2" s="195" t="s">
-        <v>1629</v>
+        <v>1622</v>
       </c>
       <c r="M2" s="195" t="s">
         <v>195</v>
@@ -40906,19 +40912,19 @@
         <v>1</v>
       </c>
       <c r="S2" s="195" t="s">
-        <v>1616</v>
+        <v>1609</v>
       </c>
       <c r="T2" s="195" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="U2" s="195" t="s">
-        <v>1617</v>
+        <v>1610</v>
       </c>
       <c r="V2" s="195" t="s">
         <v>489</v>
       </c>
       <c r="W2" s="195" t="s">
-        <v>1630</v>
+        <v>1623</v>
       </c>
       <c r="X2" s="195" t="s">
         <v>113</v>
@@ -40939,13 +40945,13 @@
         <v>117</v>
       </c>
       <c r="AD2" s="195" t="s">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="AE2" s="101" t="s">
-        <v>1631</v>
+        <v>1624</v>
       </c>
       <c r="AF2" s="195" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="AG2" s="101" t="s">
         <v>98</v>
@@ -40960,16 +40966,16 @@
         <v>1087</v>
       </c>
       <c r="AK2" s="195" t="s">
+        <v>1619</v>
+      </c>
+      <c r="AL2" s="25" t="s">
+        <v>1625</v>
+      </c>
+      <c r="AM2" s="25" t="s">
         <v>1626</v>
       </c>
-      <c r="AL2" s="25" t="s">
-        <v>1632</v>
-      </c>
-      <c r="AM2" s="25" t="s">
-        <v>1633</v>
-      </c>
       <c r="AN2" s="195" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="AO2" s="199" t="s">
         <v>514</v>
@@ -41006,7 +41012,7 @@
         <v>571</v>
       </c>
       <c r="BA2" s="195" t="s">
-        <v>1634</v>
+        <v>1627</v>
       </c>
     </row>
   </sheetData>
@@ -41094,7 +41100,7 @@
         <v>587</v>
       </c>
       <c r="O1" s="110" t="s">
-        <v>1635</v>
+        <v>1628</v>
       </c>
       <c r="P1" s="110" t="s">
         <v>1228</v>
@@ -41105,10 +41111,10 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="D2" s="200" t="s">
         <v>590</v>
@@ -41150,22 +41156,22 @@
         <v>904</v>
       </c>
       <c r="Q2" s="195" t="s">
-        <v>1636</v>
+        <v>1629</v>
       </c>
       <c r="R2" s="195" t="s">
-        <v>1637</v>
+        <v>1630</v>
       </c>
       <c r="S2" s="195" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="T2" s="195" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="U2" s="195" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="V2" s="195" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
     </row>
   </sheetData>
@@ -41248,7 +41254,7 @@
         <v>801</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="L1" s="65" t="s">
         <v>1242</v>
@@ -41272,7 +41278,7 @@
         <v>912</v>
       </c>
       <c r="S1" s="65" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="T1" s="65" t="s">
         <v>914</v>
@@ -41290,19 +41296,19 @@
         <v>918</v>
       </c>
       <c r="Y1" s="64" t="s">
+        <v>1400</v>
+      </c>
+      <c r="Z1" s="64" t="s">
+        <v>1401</v>
+      </c>
+      <c r="AA1" s="64" t="s">
         <v>1402</v>
       </c>
-      <c r="Z1" s="64" t="s">
+      <c r="AB1" s="64" t="s">
         <v>1403</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AC1" s="64" t="s">
         <v>1404</v>
-      </c>
-      <c r="AB1" s="64" t="s">
-        <v>1405</v>
-      </c>
-      <c r="AC1" s="64" t="s">
-        <v>1406</v>
       </c>
       <c r="AD1" s="64" t="s">
         <v>919</v>
@@ -41323,7 +41329,7 @@
         <v>928</v>
       </c>
       <c r="AJ1" s="85" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="AK1" s="110" t="s">
         <v>922</v>
@@ -41334,19 +41340,19 @@
         <v>87</v>
       </c>
       <c r="B2" s="194" t="s">
-        <v>1610</v>
+        <v>1603</v>
       </c>
       <c r="C2" s="195" t="s">
-        <v>1613</v>
+        <v>1606</v>
       </c>
       <c r="D2" s="206" t="s">
         <v>98</v>
       </c>
       <c r="E2" s="195" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="F2" s="206" t="s">
-        <v>1495</v>
+        <v>1488</v>
       </c>
       <c r="G2" s="195" t="s">
         <v>1089</v>
@@ -41361,10 +41367,10 @@
         <v>227</v>
       </c>
       <c r="K2" s="195" t="s">
-        <v>1620</v>
+        <v>1613</v>
       </c>
       <c r="L2" s="195" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="M2" s="206" t="s">
         <v>690</v>
@@ -41379,13 +41385,13 @@
         <v>392</v>
       </c>
       <c r="Q2" s="195" t="s">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="R2" s="206" t="s">
         <v>942</v>
       </c>
       <c r="S2" s="206" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="T2" s="206" t="s">
         <v>104</v>
@@ -41409,19 +41415,19 @@
         <v>820</v>
       </c>
       <c r="AA2" s="25" t="s">
+        <v>1412</v>
+      </c>
+      <c r="AB2" s="206" t="s">
+        <v>1413</v>
+      </c>
+      <c r="AC2" s="206" t="s">
         <v>1414</v>
-      </c>
-      <c r="AB2" s="206" t="s">
-        <v>1415</v>
-      </c>
-      <c r="AC2" s="206" t="s">
-        <v>1416</v>
       </c>
       <c r="AD2" s="206" t="s">
         <v>950</v>
       </c>
       <c r="AE2" s="25" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="AF2" s="206" t="s">
         <v>678</v>
@@ -41433,7 +41439,7 @@
         <v>98</v>
       </c>
       <c r="AI2" s="25" t="s">
-        <v>1568</v>
+        <v>1561</v>
       </c>
       <c r="AJ2" s="101" t="s">
         <v>1097</v>

--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="1" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="33" activeTab="33" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComSee_DFO2_Loan" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -5547,8 +5547,8 @@
     <col width="22.6640625" bestFit="1" customWidth="1" style="195" min="67" max="67"/>
     <col width="25.33203125" customWidth="1" style="195" min="68" max="68"/>
     <col width="30.6640625" customWidth="1" style="195" min="69" max="69"/>
-    <col width="8.88671875" customWidth="1" style="202" min="70" max="72"/>
-    <col width="8.88671875" customWidth="1" style="202" min="73" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="70" max="74"/>
+    <col width="8.88671875" customWidth="1" style="202" min="75" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="110" thickBot="1">
@@ -6629,8 +6629,8 @@
     <col width="21.44140625" customWidth="1" style="195" min="16" max="16"/>
     <col width="22" customWidth="1" style="195" min="17" max="17"/>
     <col width="18" customWidth="1" style="195" min="18" max="19"/>
-    <col width="8.88671875" customWidth="1" style="202" min="20" max="22"/>
-    <col width="8.88671875" customWidth="1" style="202" min="23" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="20" max="24"/>
+    <col width="8.88671875" customWidth="1" style="202" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
@@ -6964,8 +6964,8 @@
     <col width="21.44140625" customWidth="1" style="195" min="13" max="13"/>
     <col width="17.88671875" customWidth="1" style="195" min="14" max="14"/>
     <col width="22" customWidth="1" style="195" min="15" max="16"/>
-    <col width="8.88671875" customWidth="1" style="202" min="17" max="19"/>
-    <col width="8.88671875" customWidth="1" style="202" min="20" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="17" max="21"/>
+    <col width="8.88671875" customWidth="1" style="202" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="127">
@@ -7281,8 +7281,8 @@
     <col width="36.6640625" customWidth="1" style="195" min="55" max="55"/>
     <col width="35.88671875" customWidth="1" style="195" min="56" max="56"/>
     <col width="26.5546875" customWidth="1" style="195" min="57" max="58"/>
-    <col width="8.88671875" customWidth="1" style="202" min="59" max="61"/>
-    <col width="8.88671875" customWidth="1" style="202" min="62" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="59" max="63"/>
+    <col width="8.88671875" customWidth="1" style="202" min="64" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="120">
@@ -10263,11 +10263,11 @@
   </sheetPr>
   <dimension ref="A1:CE36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="BB8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="BG20" sqref="BG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -24177,8 +24177,8 @@
     <col width="19.33203125" customWidth="1" style="170" min="104" max="104"/>
     <col width="28.44140625" customWidth="1" style="170" min="105" max="105"/>
     <col width="39.88671875" bestFit="1" customWidth="1" style="170" min="106" max="106"/>
-    <col width="8.88671875" customWidth="1" style="170" min="107" max="111"/>
-    <col width="8.88671875" customWidth="1" style="170" min="112" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="107" max="113"/>
+    <col width="8.88671875" customWidth="1" style="170" min="114" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="163" thickBot="1">
@@ -25235,7 +25235,7 @@
       </c>
       <c r="C3" s="195" t="inlineStr">
         <is>
-          <t>3000581</t>
+          <t>3000584</t>
         </is>
       </c>
       <c r="D3" s="194" t="inlineStr">
@@ -25260,17 +25260,17 @@
       </c>
       <c r="H3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_28102020155353</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="I3" s="195" t="inlineStr">
         <is>
-          <t>1000671</t>
+          <t>1000679</t>
         </is>
       </c>
       <c r="J3" s="197" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="K3" s="195" t="inlineStr">
@@ -25354,7 +25354,7 @@
       </c>
       <c r="AB3" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM28102020160606</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="AC3" s="200" t="inlineStr">
@@ -25551,7 +25551,7 @@
       </c>
       <c r="BQ3" s="196" t="inlineStr">
         <is>
-          <t>06-Jul-2021</t>
+          <t>07-Jul-2021</t>
         </is>
       </c>
       <c r="BR3" s="196" t="n">
@@ -27772,7 +27772,7 @@
   <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CV15" sqref="CV15"/>
       <selection pane="topRight" activeCell="CV15" sqref="CV15"/>
       <selection pane="bottomLeft" activeCell="CV15" sqref="CV15"/>
@@ -27804,8 +27804,8 @@
     <col width="24.6640625" customWidth="1" style="170" min="49" max="49"/>
     <col width="25.5546875" customWidth="1" style="170" min="50" max="50"/>
     <col width="24.44140625" customWidth="1" style="170" min="51" max="51"/>
-    <col width="8.88671875" customWidth="1" style="170" min="52" max="56"/>
-    <col width="8.88671875" customWidth="1" style="170" min="57" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="52" max="58"/>
+    <col width="8.88671875" customWidth="1" style="170" min="59" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="182" thickBot="1">
@@ -28322,22 +28322,22 @@
       </c>
       <c r="C3" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM28102020160606</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="D3" s="195" t="inlineStr">
         <is>
-          <t>3000581</t>
+          <t>3000584</t>
         </is>
       </c>
       <c r="E3" s="196" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="F3" s="196" t="inlineStr">
         <is>
-          <t>2021-08-05</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="G3" s="195" t="inlineStr">
@@ -28449,7 +28449,7 @@
       </c>
       <c r="AD3" s="197" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>2021-07-07</t>
         </is>
       </c>
       <c r="AE3" s="198" t="inlineStr">
@@ -28459,7 +28459,7 @@
       </c>
       <c r="AF3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_28102020155353</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="AG3" s="195" t="inlineStr">
@@ -29539,11 +29539,11 @@
   </sheetPr>
   <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -29569,8 +29569,8 @@
     <col width="22" customWidth="1" style="170" min="39" max="39"/>
     <col width="25.44140625" customWidth="1" style="170" min="40" max="40"/>
     <col width="26.5546875" bestFit="1" customWidth="1" style="170" min="41" max="41"/>
-    <col width="8.88671875" customWidth="1" style="170" min="42" max="46"/>
-    <col width="8.88671875" customWidth="1" style="170" min="47" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="42" max="48"/>
+    <col width="8.88671875" customWidth="1" style="170" min="49" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="188">
@@ -30010,7 +30010,7 @@
       </c>
       <c r="E3" s="170" t="inlineStr">
         <is>
-          <t>3000581</t>
+          <t>3000584</t>
         </is>
       </c>
       <c r="F3" s="170" t="inlineStr">
@@ -30025,12 +30025,12 @@
       </c>
       <c r="H3" s="170" t="inlineStr">
         <is>
-          <t>CSSC7_TERM28102020160606</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="I3" s="170" t="inlineStr">
         <is>
-          <t>ONG000000000491</t>
+          <t>ONG000000000494</t>
         </is>
       </c>
       <c r="J3" s="170" t="inlineStr">
@@ -30055,47 +30055,47 @@
       </c>
       <c r="N3" s="170" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="O3" s="170" t="inlineStr">
         <is>
-          <t>2021-08-05</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="P3" s="170" t="inlineStr">
         <is>
-          <t>2020-10-06</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="Q3" s="170" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-08-04</t>
         </is>
       </c>
       <c r="R3" s="170" t="inlineStr">
         <is>
-          <t>2020-10-05</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="S3" s="170" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>350.68</t>
         </is>
       </c>
       <c r="T3" s="170" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>273.97</t>
         </is>
       </c>
       <c r="U3" s="170" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>76.71</t>
         </is>
       </c>
       <c r="V3" s="170" t="inlineStr">
         <is>
-          <t>CSSC7_TERM28102020160606</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="W3" s="184" t="inlineStr">
@@ -31675,7 +31675,7 @@
       </c>
       <c r="E3" s="195" t="inlineStr">
         <is>
-          <t>3000581</t>
+          <t>3000584</t>
         </is>
       </c>
       <c r="F3" s="195" t="inlineStr">
@@ -31690,7 +31690,7 @@
       </c>
       <c r="H3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_28102020155353</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="I3" s="206" t="inlineStr">
@@ -31700,7 +31700,7 @@
       </c>
       <c r="J3" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM28102020160606</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="K3" s="206" t="inlineStr">
@@ -31781,7 +31781,7 @@
       <c r="AF3" s="25" t="n"/>
       <c r="AG3" s="195" t="inlineStr">
         <is>
-          <t>05-Aug-2021</t>
+          <t>06-Aug-2021</t>
         </is>
       </c>
       <c r="AH3" s="195" t="n"/>
@@ -33340,12 +33340,12 @@
       </c>
       <c r="C3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_28102020155353</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="D3" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM28102020160606</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="E3" s="25" t="inlineStr">
@@ -33954,12 +33954,12 @@
       </c>
       <c r="C3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_28102020155353</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="D3" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM28102020160606</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="E3" s="195" t="inlineStr">
@@ -34486,8 +34486,8 @@
     <col width="32.6640625" customWidth="1" style="195" min="22" max="22"/>
     <col width="18" customWidth="1" style="195" min="23" max="23"/>
     <col width="16.88671875" customWidth="1" style="195" min="24" max="24"/>
-    <col width="9.109375" customWidth="1" style="202" min="25" max="32"/>
-    <col width="9.109375" customWidth="1" style="202" min="33" max="16384"/>
+    <col width="9.109375" customWidth="1" style="202" min="25" max="34"/>
+    <col width="9.109375" customWidth="1" style="202" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="118" thickBot="1">
@@ -34772,12 +34772,12 @@
       </c>
       <c r="H3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_28102020155353</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="I3" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM28102020160606</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="J3" s="198" t="inlineStr">
@@ -35132,8 +35132,8 @@
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C22" sqref="C22"/>
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -35483,12 +35483,12 @@
       </c>
       <c r="C3" s="195" t="inlineStr">
         <is>
-          <t>06-May-2020</t>
+          <t>14-Jun-2020</t>
         </is>
       </c>
       <c r="D3" s="195" t="inlineStr">
         <is>
-          <t>05-Jul-2020</t>
+          <t>13-Aug-2020</t>
         </is>
       </c>
       <c r="E3" s="204" t="inlineStr">
@@ -35503,7 +35503,7 @@
       </c>
       <c r="G3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_28102020155353</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="H3" s="195" t="inlineStr">
@@ -35543,12 +35543,12 @@
       </c>
       <c r="O3" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM28102020160606</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="P3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_28102020155353</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="Q3" s="25" t="inlineStr">
@@ -35573,11 +35573,13 @@
       </c>
       <c r="U3" s="195" t="inlineStr">
         <is>
-          <t>01-Jun-2020</t>
-        </is>
-      </c>
-      <c r="V3" s="25" t="n">
-        <v>43983</v>
+          <t>08-Aug-2020</t>
+        </is>
+      </c>
+      <c r="V3" s="25" t="inlineStr">
+        <is>
+          <t>04-Jun-2018</t>
+        </is>
       </c>
       <c r="W3" s="25" t="inlineStr">
         <is>
@@ -35609,7 +35611,7 @@
       </c>
       <c r="AD3" s="195" t="inlineStr">
         <is>
-          <t>05-Jun-2020</t>
+          <t>14-Jul-2020</t>
         </is>
       </c>
     </row>

--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="33" activeTab="33" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="16" activeTab="16" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -2519,8 +2519,8 @@
   </sheetPr>
   <dimension ref="A1:BK15"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BA13" sqref="BA13"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="E2" s="138" t="inlineStr">
         <is>
-          <t>COM_RES_02</t>
+          <t>EU_COM_RES_02</t>
         </is>
       </c>
       <c r="F2" s="195" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="E3" s="138" t="inlineStr">
         <is>
-          <t>COM_RES_02</t>
+          <t>EU_COM_RES_02</t>
         </is>
       </c>
       <c r="F3" s="195" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="E4" s="141" t="inlineStr">
         <is>
-          <t>COM_RES_04</t>
+          <t>EU_COM_RES_04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="E5" s="141" t="inlineStr">
         <is>
-          <t>COM_RES_04</t>
+          <t>EU_COM_RES_04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -4022,7 +4022,7 @@
       </c>
       <c r="E6" s="141" t="inlineStr">
         <is>
-          <t>COM_RES_10</t>
+          <t>EU_COM_RES_10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="E7" s="141" t="inlineStr">
         <is>
-          <t>COM_RES_11</t>
+          <t>EU_COM_RES_11</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -5475,9 +5475,9 @@
   <dimension ref="A1:BQ7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
       <selection activeCell="V3" sqref="V3"/>
-      <selection pane="topRight" activeCell="V3" sqref="V3"/>
+      <selection pane="topRight" activeCell="BO3" sqref="BO3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -5547,8 +5547,8 @@
     <col width="22.6640625" bestFit="1" customWidth="1" style="195" min="67" max="67"/>
     <col width="25.33203125" customWidth="1" style="195" min="68" max="68"/>
     <col width="30.6640625" customWidth="1" style="195" min="69" max="69"/>
-    <col width="8.88671875" customWidth="1" style="202" min="70" max="74"/>
-    <col width="8.88671875" customWidth="1" style="202" min="75" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="70" max="76"/>
+    <col width="8.88671875" customWidth="1" style="202" min="77" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="110" thickBot="1">
@@ -6256,7 +6256,7 @@
       </c>
       <c r="E3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC3_22092020152332</t>
+          <t>COMSEE_SC3_29102020212151</t>
         </is>
       </c>
       <c r="F3" s="200" t="inlineStr">
@@ -6276,32 +6276,32 @@
       </c>
       <c r="I3" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="J3" s="205" t="inlineStr">
         <is>
-          <t>BLOGGS</t>
+          <t>CAMPOMANES</t>
         </is>
       </c>
       <c r="K3" s="145" t="inlineStr">
         <is>
-          <t>Melbourne, VIC,Australia</t>
+          <t>Amsterdam, Netherlands</t>
         </is>
       </c>
       <c r="L3" s="205" t="inlineStr">
         <is>
-          <t>Bloggs,  John</t>
+          <t>Campomanes,  Makee</t>
         </is>
       </c>
       <c r="M3" s="205" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>IMT</t>
         </is>
       </c>
       <c r="N3" s="200" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="O3" s="200" t="inlineStr">
@@ -6326,22 +6326,22 @@
       </c>
       <c r="S3" s="200" t="inlineStr">
         <is>
-          <t>BUSINESS VERIFICATION</t>
+          <t>OL</t>
         </is>
       </c>
       <c r="T3" s="200" t="inlineStr">
         <is>
-          <t>BUSINESS VERIFICATION</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="U3" s="200" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>IMT</t>
         </is>
       </c>
       <c r="V3" s="200" t="inlineStr">
         <is>
-          <t>CBA OBU AUD</t>
+          <t>CBA OBU USD</t>
         </is>
       </c>
       <c r="W3" s="200" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="AA3" s="200" t="inlineStr">
         <is>
-          <t>Sydney, Australia</t>
+          <t xml:space="preserve"> Amsterdam, Netherlands</t>
         </is>
       </c>
       <c r="AB3" s="204" t="inlineStr">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="AT3" s="200" t="inlineStr">
         <is>
-          <t>Hold for Investment - Australia</t>
+          <t>Hold for Investment - Europe</t>
         </is>
       </c>
       <c r="AU3" s="200" t="inlineStr">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="BD3" s="200" t="inlineStr">
         <is>
-          <t>Business Verification,${SPACE}${SPACE}BVT</t>
+          <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
       <c r="BE3" s="195" t="inlineStr">
@@ -6509,12 +6509,12 @@
       </c>
       <c r="BF3" s="200" t="inlineStr">
         <is>
-          <t>Hold for Investment - Australia</t>
+          <t>Hold for Investment - Europe</t>
         </is>
       </c>
       <c r="BG3" s="200" t="inlineStr">
         <is>
-          <t>Commonwealth Bank of Australia - DBU</t>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
       <c r="BH3" s="200" t="inlineStr">
@@ -6524,12 +6524,12 @@
       </c>
       <c r="BI3" s="195" t="inlineStr">
         <is>
-          <t>27-Nov-2021</t>
+          <t>08-Aug-2021</t>
         </is>
       </c>
       <c r="BJ3" s="205" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="BK3" s="200" t="inlineStr">
@@ -6544,17 +6544,17 @@
       </c>
       <c r="BM3" s="205" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>IMT</t>
         </is>
       </c>
       <c r="BN3" s="205" t="inlineStr">
         <is>
-          <t>BUSINESS VERIFICATION</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="BO3" s="205" t="inlineStr">
         <is>
-          <t>BUSINESS VERIFICATION</t>
+          <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
       <c r="BP3" s="205" t="inlineStr">
@@ -6603,11 +6603,11 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="V3" sqref="V3"/>
       <selection pane="topRight" activeCell="V3" sqref="V3"/>
       <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -6629,8 +6629,8 @@
     <col width="21.44140625" customWidth="1" style="195" min="16" max="16"/>
     <col width="22" customWidth="1" style="195" min="17" max="17"/>
     <col width="18" customWidth="1" style="195" min="18" max="19"/>
-    <col width="8.88671875" customWidth="1" style="202" min="20" max="24"/>
-    <col width="8.88671875" customWidth="1" style="202" min="25" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="20" max="26"/>
+    <col width="8.88671875" customWidth="1" style="202" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="C3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC3_22092020152332</t>
+          <t>COMSEE_SC3_29102020212151</t>
         </is>
       </c>
       <c r="D3" s="195" t="inlineStr">
         <is>
-          <t>COMSEEFACBG_22092020153120</t>
+          <t>COMSEEFACBG_29102020213046</t>
         </is>
       </c>
       <c r="E3" s="195" t="inlineStr">
@@ -6940,17 +6940,17 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="V3" sqref="V3"/>
       <selection pane="topRight" activeCell="V3" sqref="V3"/>
       <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
   <cols>
     <col width="6.109375" customWidth="1" style="195" min="1" max="1"/>
-    <col width="60.33203125" customWidth="1" style="195" min="2" max="2"/>
+    <col width="20.6640625" bestFit="1" customWidth="1" style="195" min="2" max="2"/>
     <col width="22.6640625" customWidth="1" style="195" min="3" max="3"/>
     <col width="27.109375" customWidth="1" style="195" min="4" max="4"/>
     <col width="23.44140625" customWidth="1" style="195" min="5" max="5"/>
@@ -6964,8 +6964,8 @@
     <col width="21.44140625" customWidth="1" style="195" min="13" max="13"/>
     <col width="17.88671875" customWidth="1" style="195" min="14" max="14"/>
     <col width="22" customWidth="1" style="195" min="15" max="16"/>
-    <col width="8.88671875" customWidth="1" style="202" min="17" max="21"/>
-    <col width="8.88671875" customWidth="1" style="202" min="22" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="17" max="23"/>
+    <col width="8.88671875" customWidth="1" style="202" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="127">
@@ -7229,10 +7229,10 @@
   </sheetPr>
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="V3" sqref="V3"/>
-      <selection pane="topRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="topRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -7281,8 +7281,8 @@
     <col width="36.6640625" customWidth="1" style="195" min="55" max="55"/>
     <col width="35.88671875" customWidth="1" style="195" min="56" max="56"/>
     <col width="26.5546875" customWidth="1" style="195" min="57" max="58"/>
-    <col width="8.88671875" customWidth="1" style="202" min="59" max="63"/>
-    <col width="8.88671875" customWidth="1" style="202" min="64" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="59" max="65"/>
+    <col width="8.88671875" customWidth="1" style="202" min="66" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="120">
@@ -7595,7 +7595,7 @@
       </c>
       <c r="D2" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_03_V1</t>
+          <t>EU_COM_RES_03_V1</t>
         </is>
       </c>
       <c r="E2" s="195" t="inlineStr">
@@ -7807,92 +7807,92 @@
       </c>
       <c r="D3" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_03_V2</t>
+          <t>EU_COM_RES_03_V2</t>
         </is>
       </c>
       <c r="E3" s="195" t="inlineStr">
         <is>
-          <t>3000735</t>
+          <t>3000597</t>
         </is>
       </c>
       <c r="F3" s="195" t="inlineStr">
         <is>
+          <t>0913539</t>
+        </is>
+      </c>
+      <c r="G3" s="195" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="H3" s="195" t="inlineStr">
+        <is>
+          <t>60000584</t>
+        </is>
+      </c>
+      <c r="K3" s="195" t="inlineStr">
+        <is>
+          <t>Issuance Fee (BG/LC)</t>
+        </is>
+      </c>
+      <c r="L3" s="195" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="M3" s="195" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G3" s="195" t="inlineStr">
-        <is>
-          <t>V2</t>
-        </is>
-      </c>
-      <c r="H3" s="195" t="inlineStr">
-        <is>
-          <t>60000956</t>
-        </is>
-      </c>
-      <c r="K3" s="195" t="inlineStr">
-        <is>
-          <t>Issuance Fee (BG/LC)</t>
-        </is>
-      </c>
-      <c r="L3" s="195" t="inlineStr">
+      <c r="N3" s="195" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="O3" s="195" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="P3" s="195" t="inlineStr">
+        <is>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="Q3" s="195" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="R3" s="195" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
+      <c r="S3" s="195" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W3" s="195" t="inlineStr">
+        <is>
+          <t>Financial Letter of Credit</t>
+        </is>
+      </c>
+      <c r="X3" s="195" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="M3" s="195" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N3" s="195" t="inlineStr">
-        <is>
-          <t>2020-11-27</t>
-        </is>
-      </c>
-      <c r="O3" s="195" t="inlineStr">
-        <is>
-          <t>2020-12-03</t>
-        </is>
-      </c>
-      <c r="P3" s="195" t="inlineStr">
-        <is>
-          <t>2020-11-27</t>
-        </is>
-      </c>
-      <c r="Q3" s="195" t="inlineStr">
-        <is>
-          <t>2020-11-27</t>
-        </is>
-      </c>
-      <c r="R3" s="195" t="inlineStr">
-        <is>
-          <t>2020-12-03</t>
-        </is>
-      </c>
-      <c r="S3" s="195" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U3" s="195" t="inlineStr">
-        <is>
-          <t>10.96</t>
-        </is>
-      </c>
-      <c r="W3" s="195" t="inlineStr">
-        <is>
-          <t>Financial Letter of Credit</t>
-        </is>
-      </c>
-      <c r="X3" s="195" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
       <c r="Y3" s="195" t="inlineStr">
         <is>
-          <t>2020-11-27</t>
+          <t>2020-08-08</t>
         </is>
       </c>
       <c r="Z3" s="195" t="inlineStr">
@@ -7907,7 +7907,7 @@
       </c>
       <c r="AB3" s="195" t="inlineStr">
         <is>
-          <t>2021-11-29</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AC3" s="200" t="inlineStr">
@@ -7934,20 +7934,20 @@
       <c r="AH3" s="207" t="n"/>
       <c r="AQ3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC3_22092020152332</t>
-        </is>
-      </c>
-      <c r="AR3" s="204" t="inlineStr">
+          <t>COMSEE_SC3_29102020212151</t>
+        </is>
+      </c>
+      <c r="AR3" s="195" t="inlineStr">
         <is>
           <t>SBLC/Guarantee</t>
         </is>
       </c>
       <c r="AS3" s="195" t="inlineStr">
         <is>
-          <t>COMSEEFACBG_22092020153120</t>
-        </is>
-      </c>
-      <c r="AT3" s="204" t="inlineStr">
+          <t>COMSEEFACBG_29102020213046</t>
+        </is>
+      </c>
+      <c r="AT3" s="195" t="inlineStr">
         <is>
           <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
         </is>
@@ -7955,7 +7955,7 @@
       <c r="AU3" s="204" t="n">
         <v>1000</v>
       </c>
-      <c r="AV3" s="204" t="inlineStr">
+      <c r="AV3" s="195" t="inlineStr">
         <is>
           <t>Outstandings  X Rate (4%)</t>
         </is>
@@ -7970,32 +7970,32 @@
           <t>Weekly</t>
         </is>
       </c>
-      <c r="AY3" s="195" t="inlineStr">
-        <is>
-          <t>27-Nov-2021</t>
-        </is>
-      </c>
-      <c r="AZ3" s="195" t="inlineStr">
+      <c r="AY3" s="204" t="inlineStr">
+        <is>
+          <t>08-Aug-2021</t>
+        </is>
+      </c>
+      <c r="AZ3" s="204" t="inlineStr">
         <is>
           <t>ESPS11112500003</t>
         </is>
       </c>
-      <c r="BA3" s="195" t="inlineStr">
+      <c r="BA3" s="204" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="BB3" s="204" t="inlineStr">
+      <c r="BB3" s="195" t="inlineStr">
         <is>
           <t>Outstandings</t>
         </is>
       </c>
-      <c r="BC3" s="204" t="inlineStr">
+      <c r="BC3" s="195" t="inlineStr">
         <is>
           <t>SBLC/Guarantee Issuance</t>
         </is>
       </c>
-      <c r="BD3" s="204" t="inlineStr">
+      <c r="BD3" s="195" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
@@ -8011,6 +8011,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="AX5" s="196" t="n"/>
     </row>
@@ -8030,8 +8031,8 @@
   <dimension ref="A1:ES3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B37" sqref="B37"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -8555,7 +8556,7 @@
       </c>
       <c r="D2" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_PAY_03_V1</t>
+          <t>EU_COM_RES_PAY_03_V1</t>
         </is>
       </c>
       <c r="E2" s="195" t="inlineStr">
@@ -8874,17 +8875,17 @@
       </c>
       <c r="D3" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_PAY_03_V2</t>
+          <t>EU_COM_RES_PAY_03_V2</t>
         </is>
       </c>
       <c r="E3" s="195" t="inlineStr">
         <is>
-          <t>3000735</t>
+          <t>3000597</t>
         </is>
       </c>
       <c r="F3" s="195" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0913539</t>
         </is>
       </c>
       <c r="G3" s="195" t="inlineStr">
@@ -8894,7 +8895,7 @@
       </c>
       <c r="H3" s="195" t="inlineStr">
         <is>
-          <t>60000956</t>
+          <t>60000584</t>
         </is>
       </c>
       <c r="K3" s="195" t="inlineStr">
@@ -8941,7 +8942,7 @@
       </c>
       <c r="U3" s="195" t="inlineStr">
         <is>
-          <t>60000956</t>
+          <t>60000584</t>
         </is>
       </c>
       <c r="V3" s="195" t="inlineStr">
@@ -8996,12 +8997,12 @@
       </c>
       <c r="AN3" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC3_22092020152332</t>
+          <t>COMSEE_SC3_29102020212151</t>
         </is>
       </c>
       <c r="AO3" s="195" t="inlineStr">
         <is>
-          <t>COMSEEFACBG_22092020153120</t>
+          <t>COMSEEFACBG_29102020213046</t>
         </is>
       </c>
       <c r="AP3" s="195" t="inlineStr">
@@ -9122,8 +9123,8 @@
   <dimension ref="A1:DB5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S2" sqref="S2"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -9767,7 +9768,7 @@
       </c>
       <c r="F2" s="203" t="inlineStr">
         <is>
-          <t>COM_RES_04</t>
+          <t>EU_COM_RES_04</t>
         </is>
       </c>
       <c r="G2" s="25" t="inlineStr">
@@ -10264,10 +10265,10 @@
   <dimension ref="A1:CE36"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="BB8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="BG20" sqref="BG20"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -17485,10 +17486,10 @@
   <dimension ref="A1:BK2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AI2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="AN1" sqref="AN1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -17863,7 +17864,7 @@
       </c>
       <c r="E2" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_04</t>
+          <t>EU_COM_RES_04</t>
         </is>
       </c>
       <c r="F2" s="195" t="inlineStr">
@@ -21722,8 +21723,8 @@
   </sheetPr>
   <dimension ref="A1:CE3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -22247,7 +22248,7 @@
       </c>
       <c r="F2" s="203" t="inlineStr">
         <is>
-          <t>COM_RES_01_V1</t>
+          <t>EU_COM_RES_01_V1</t>
         </is>
       </c>
       <c r="G2" s="203" t="inlineStr">
@@ -22650,7 +22651,7 @@
       </c>
       <c r="F3" s="203" t="inlineStr">
         <is>
-          <t>COM_RES_01_V2</t>
+          <t>EU_COM_RES_01_V2</t>
         </is>
       </c>
       <c r="G3" s="203" t="inlineStr">
@@ -23040,8 +23041,8 @@
   </sheetPr>
   <dimension ref="A1:CC2"/>
   <sheetViews>
-    <sheetView topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ1" sqref="BQ1"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -24066,9 +24067,9 @@
   <dimension ref="A1:DB7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection activeCell="CV15" sqref="CV15"/>
-      <selection pane="topRight" activeCell="AM2" sqref="AM2"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -24077,7 +24078,8 @@
     <col width="21.6640625" customWidth="1" style="170" min="2" max="2"/>
     <col width="8.33203125" customWidth="1" style="170" min="3" max="4"/>
     <col width="35.88671875" customWidth="1" style="170" min="5" max="5"/>
-    <col width="13.5546875" customWidth="1" style="170" min="6" max="7"/>
+    <col width="15.5546875" bestFit="1" customWidth="1" style="170" min="6" max="6"/>
+    <col width="13.5546875" customWidth="1" style="170" min="7" max="7"/>
     <col width="29.33203125" customWidth="1" style="170" min="8" max="8"/>
     <col width="20.88671875" customWidth="1" style="170" min="9" max="9"/>
     <col width="16.33203125" customWidth="1" style="170" min="10" max="10"/>
@@ -24177,8 +24179,8 @@
     <col width="19.33203125" customWidth="1" style="170" min="104" max="104"/>
     <col width="28.44140625" customWidth="1" style="170" min="105" max="105"/>
     <col width="39.88671875" bestFit="1" customWidth="1" style="170" min="106" max="106"/>
-    <col width="8.88671875" customWidth="1" style="170" min="107" max="113"/>
-    <col width="8.88671875" customWidth="1" style="170" min="114" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="107" max="115"/>
+    <col width="8.88671875" customWidth="1" style="170" min="116" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="163" thickBot="1">
@@ -24741,7 +24743,7 @@
       </c>
       <c r="F2" s="172" t="inlineStr">
         <is>
-          <t>COM_RES_07</t>
+          <t>EU_COM_RES_07</t>
         </is>
       </c>
       <c r="G2" s="170" t="inlineStr">
@@ -25248,9 +25250,9 @@
           <t>\DataSet\API_DataSet\Input\ComSee\</t>
         </is>
       </c>
-      <c r="F3" s="203" t="inlineStr">
-        <is>
-          <t>COM_RES_07</t>
+      <c r="F3" s="172" t="inlineStr">
+        <is>
+          <t>EU_COM_RES_07</t>
         </is>
       </c>
       <c r="G3" s="195" t="inlineStr">
@@ -25748,7 +25750,7 @@
       </c>
       <c r="F4" s="172" t="inlineStr">
         <is>
-          <t>COM_RES_07</t>
+          <t>EU_COM_RES_07</t>
         </is>
       </c>
       <c r="G4" s="170" t="inlineStr">
@@ -26257,7 +26259,7 @@
       </c>
       <c r="F5" s="172" t="inlineStr">
         <is>
-          <t>COM_RES_07</t>
+          <t>EU_COM_RES_07</t>
         </is>
       </c>
       <c r="G5" s="170" t="inlineStr">
@@ -26766,7 +26768,7 @@
       </c>
       <c r="F6" s="172" t="inlineStr">
         <is>
-          <t>COM_RES_07</t>
+          <t>EU_COM_RES_07</t>
         </is>
       </c>
       <c r="G6" s="170" t="inlineStr">
@@ -27275,7 +27277,7 @@
       </c>
       <c r="F7" s="172" t="inlineStr">
         <is>
-          <t>COM_RES_07</t>
+          <t>EU_COM_RES_07</t>
         </is>
       </c>
       <c r="G7" s="170" t="inlineStr">
@@ -27804,8 +27806,8 @@
     <col width="24.6640625" customWidth="1" style="170" min="49" max="49"/>
     <col width="25.5546875" customWidth="1" style="170" min="50" max="50"/>
     <col width="24.44140625" customWidth="1" style="170" min="51" max="51"/>
-    <col width="8.88671875" customWidth="1" style="170" min="52" max="58"/>
-    <col width="8.88671875" customWidth="1" style="170" min="59" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="52" max="60"/>
+    <col width="8.88671875" customWidth="1" style="170" min="61" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="182" thickBot="1">
@@ -29539,11 +29541,11 @@
   </sheetPr>
   <dimension ref="A1:AO7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -29569,8 +29571,8 @@
     <col width="22" customWidth="1" style="170" min="39" max="39"/>
     <col width="25.44140625" customWidth="1" style="170" min="40" max="40"/>
     <col width="26.5546875" bestFit="1" customWidth="1" style="170" min="41" max="41"/>
-    <col width="8.88671875" customWidth="1" style="170" min="42" max="48"/>
-    <col width="8.88671875" customWidth="1" style="170" min="49" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="42" max="50"/>
+    <col width="8.88671875" customWidth="1" style="170" min="51" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="188">
@@ -29798,7 +29800,7 @@
       </c>
       <c r="D2" s="190" t="inlineStr">
         <is>
-          <t>COM_RES_07_V1</t>
+          <t>EU_COM_RES_07_V1</t>
         </is>
       </c>
       <c r="E2" s="170" t="inlineStr">
@@ -30005,7 +30007,7 @@
       </c>
       <c r="D3" s="190" t="inlineStr">
         <is>
-          <t>COM_RES_07_V2</t>
+          <t>EU_COM_RES_07_V2</t>
         </is>
       </c>
       <c r="E3" s="170" t="inlineStr">
@@ -30212,7 +30214,7 @@
       </c>
       <c r="D4" s="190" t="inlineStr">
         <is>
-          <t>COM_RES_07_V2</t>
+          <t>EU_COM_RES_07_V2</t>
         </is>
       </c>
       <c r="E4" s="170" t="inlineStr">
@@ -30414,7 +30416,7 @@
       </c>
       <c r="D5" s="190" t="inlineStr">
         <is>
-          <t>COM_RES_07_V2</t>
+          <t>EU_COM_RES_07_V2</t>
         </is>
       </c>
       <c r="E5" s="170" t="inlineStr">
@@ -30616,7 +30618,7 @@
       </c>
       <c r="D6" s="190" t="inlineStr">
         <is>
-          <t>COM_RES_07_V1</t>
+          <t>EU_COM_RES_07_V1</t>
         </is>
       </c>
       <c r="E6" s="170" t="inlineStr">
@@ -30818,7 +30820,7 @@
       </c>
       <c r="D7" s="190" t="inlineStr">
         <is>
-          <t>COM_RES_07_V2</t>
+          <t>EU_COM_RES_07_V2</t>
         </is>
       </c>
       <c r="E7" s="170" t="inlineStr">
@@ -31022,8 +31024,8 @@
   </sheetPr>
   <dimension ref="A1:BN7"/>
   <sheetViews>
-    <sheetView topLeftCell="BD1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -31419,7 +31421,7 @@
       </c>
       <c r="D2" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_07_V1</t>
+          <t>EU_COM_RES_07_V1</t>
         </is>
       </c>
       <c r="E2" s="195" t="inlineStr">
@@ -31670,7 +31672,7 @@
       </c>
       <c r="D3" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_07_V2</t>
+          <t>EU_COM_RES_07_V2</t>
         </is>
       </c>
       <c r="E3" s="195" t="inlineStr">
@@ -31916,7 +31918,7 @@
       </c>
       <c r="D4" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_07_V2</t>
+          <t>EU_COM_RES_07_V2</t>
         </is>
       </c>
       <c r="E4" s="195" t="inlineStr">
@@ -32162,7 +32164,7 @@
       </c>
       <c r="D5" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_07_V2</t>
+          <t>EU_COM_RES_07_V2</t>
         </is>
       </c>
       <c r="E5" s="195" t="inlineStr">
@@ -32408,7 +32410,7 @@
       </c>
       <c r="D6" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_07_V1</t>
+          <t>EU_COM_RES_07_V1</t>
         </is>
       </c>
       <c r="E6" s="195" t="inlineStr">
@@ -32715,7 +32717,7 @@
       </c>
       <c r="D7" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_07_V2</t>
+          <t>EU_COM_RES_07_V2</t>
         </is>
       </c>
       <c r="E7" s="195" t="inlineStr">
@@ -34486,8 +34488,8 @@
     <col width="32.6640625" customWidth="1" style="195" min="22" max="22"/>
     <col width="18" customWidth="1" style="195" min="23" max="23"/>
     <col width="16.88671875" customWidth="1" style="195" min="24" max="24"/>
-    <col width="9.109375" customWidth="1" style="202" min="25" max="34"/>
-    <col width="9.109375" customWidth="1" style="202" min="35" max="16384"/>
+    <col width="9.109375" customWidth="1" style="202" min="25" max="36"/>
+    <col width="9.109375" customWidth="1" style="202" min="37" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="118" thickBot="1">
@@ -37576,8 +37578,8 @@
   <dimension ref="A1:HA6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BR1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -38269,7 +38271,7 @@
       </c>
       <c r="C2" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_SAPWUL</t>
+          <t>EU_COM_RES_SAPWUL</t>
         </is>
       </c>
       <c r="D2" s="203" t="inlineStr">
@@ -41814,7 +41816,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D2" sqref="D2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -42468,7 +42470,7 @@
       </c>
       <c r="C2" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_DFO1</t>
+          <t>EU_COM_RES_DFO1</t>
         </is>
       </c>
       <c r="D2" s="203" t="inlineStr">
@@ -46061,8 +46063,8 @@
   </sheetPr>
   <dimension ref="A1:BC15"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -46402,7 +46404,7 @@
       </c>
       <c r="D2" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_DFO1</t>
+          <t>EU_COM_RES_DFO1</t>
         </is>
       </c>
       <c r="E2" s="195" t="inlineStr">
@@ -47068,7 +47070,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -47311,7 +47313,7 @@
       </c>
       <c r="D2" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_DFO1</t>
+          <t>EU_COM_RES_DFO1</t>
         </is>
       </c>
       <c r="E2" s="195" t="n">
@@ -47502,8 +47504,8 @@
   <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V15" sqref="V15"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -47690,7 +47692,7 @@
       </c>
       <c r="D2" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_DFO1</t>
+          <t>EU_COM_RES_DFO1</t>
         </is>
       </c>
       <c r="E2" s="195" t="inlineStr">
@@ -47840,8 +47842,8 @@
   <dimension ref="A1:FG7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AN1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN27" sqref="AN27"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -48736,7 +48738,7 @@
       </c>
       <c r="E2" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_02</t>
+          <t>EU_COM_RES_02</t>
         </is>
       </c>
       <c r="F2" s="195" t="inlineStr">
@@ -49447,7 +49449,7 @@
       </c>
       <c r="E3" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_03</t>
+          <t>EU_COM_RES_03</t>
         </is>
       </c>
       <c r="F3" s="195" t="inlineStr">
@@ -50162,7 +50164,7 @@
       </c>
       <c r="E4" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_04</t>
+          <t>EU_COM_RES_04</t>
         </is>
       </c>
       <c r="F4" s="145" t="inlineStr">
@@ -50877,7 +50879,7 @@
       </c>
       <c r="E5" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_04</t>
+          <t>EU_COM_RES_04</t>
         </is>
       </c>
       <c r="F5" s="145" t="inlineStr">
@@ -51592,7 +51594,7 @@
       </c>
       <c r="E6" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_10</t>
+          <t>EU_COM_RES_10</t>
         </is>
       </c>
       <c r="F6" s="145" t="inlineStr">
@@ -52308,7 +52310,7 @@
       </c>
       <c r="E7" s="132" t="inlineStr">
         <is>
-          <t>COM_RES_11</t>
+          <t>EU_COM_RES_11</t>
         </is>
       </c>
       <c r="F7" s="145" t="inlineStr">
@@ -53017,8 +53019,8 @@
   <dimension ref="A1:CN2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -53496,7 +53498,7 @@
       </c>
       <c r="F2" s="203" t="inlineStr">
         <is>
-          <t>COM_RES_DFO2</t>
+          <t>EU_COM_RES_DFO2</t>
         </is>
       </c>
       <c r="G2" s="195" t="inlineStr">
@@ -55178,7 +55180,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D30" sqref="D30"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -58345,7 +58347,7 @@
       </c>
       <c r="D2" s="96" t="inlineStr">
         <is>
-          <t>COM_RES_01</t>
+          <t>EU_COM_RES_01</t>
         </is>
       </c>
       <c r="E2" s="99" t="inlineStr">
@@ -58549,7 +58551,7 @@
       </c>
       <c r="D3" s="96" t="inlineStr">
         <is>
-          <t>COM_RES_02</t>
+          <t>EU_COM_RES_02</t>
         </is>
       </c>
       <c r="E3" s="100" t="inlineStr">
@@ -58749,7 +58751,7 @@
       </c>
       <c r="D4" s="96" t="inlineStr">
         <is>
-          <t>COM_RES_01</t>
+          <t>EU_COM_RES_01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -58790,7 +58792,7 @@
       </c>
       <c r="D5" s="96" t="inlineStr">
         <is>
-          <t>COM_RES_02</t>
+          <t>EU_COM_RES_02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -58823,7 +58825,7 @@
       </c>
       <c r="D6" s="96" t="inlineStr">
         <is>
-          <t>COM_RES_10</t>
+          <t>EU_COM_RES_10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -58865,7 +58867,7 @@
       </c>
       <c r="D7" s="96" t="inlineStr">
         <is>
-          <t>COM_RES_11</t>
+          <t>EU_COM_RES_11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">

--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="16" activeTab="16" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" firstSheet="13" activeTab="17" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -5475,9 +5475,9 @@
   <dimension ref="A1:BQ7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="BL1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="V3" sqref="V3"/>
-      <selection pane="topRight" activeCell="BO3" sqref="BO3"/>
+      <selection pane="topRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -5547,8 +5547,8 @@
     <col width="22.6640625" bestFit="1" customWidth="1" style="195" min="67" max="67"/>
     <col width="25.33203125" customWidth="1" style="195" min="68" max="68"/>
     <col width="30.6640625" customWidth="1" style="195" min="69" max="69"/>
-    <col width="8.88671875" customWidth="1" style="202" min="70" max="76"/>
-    <col width="8.88671875" customWidth="1" style="202" min="77" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="70" max="79"/>
+    <col width="8.88671875" customWidth="1" style="202" min="80" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="110" thickBot="1">
@@ -6603,11 +6603,11 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="V3" sqref="V3"/>
       <selection pane="topRight" activeCell="V3" sqref="V3"/>
       <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -6629,8 +6629,8 @@
     <col width="21.44140625" customWidth="1" style="195" min="16" max="16"/>
     <col width="22" customWidth="1" style="195" min="17" max="17"/>
     <col width="18" customWidth="1" style="195" min="18" max="19"/>
-    <col width="8.88671875" customWidth="1" style="202" min="20" max="26"/>
-    <col width="8.88671875" customWidth="1" style="202" min="27" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="20" max="29"/>
+    <col width="8.88671875" customWidth="1" style="202" min="30" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
@@ -6940,11 +6940,11 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="V3" sqref="V3"/>
       <selection pane="topRight" activeCell="V3" sqref="V3"/>
       <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
-      <selection pane="bottomRight" activeCell="R3" sqref="R3"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -6964,8 +6964,8 @@
     <col width="21.44140625" customWidth="1" style="195" min="13" max="13"/>
     <col width="17.88671875" customWidth="1" style="195" min="14" max="14"/>
     <col width="22" customWidth="1" style="195" min="15" max="16"/>
-    <col width="8.88671875" customWidth="1" style="202" min="17" max="23"/>
-    <col width="8.88671875" customWidth="1" style="202" min="24" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="17" max="26"/>
+    <col width="8.88671875" customWidth="1" style="202" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="127">
@@ -7229,10 +7229,10 @@
   </sheetPr>
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
       <selection activeCell="V3" sqref="V3"/>
-      <selection pane="topRight" activeCell="T3" sqref="T3"/>
+      <selection pane="topRight" activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -7281,8 +7281,8 @@
     <col width="36.6640625" customWidth="1" style="195" min="55" max="55"/>
     <col width="35.88671875" customWidth="1" style="195" min="56" max="56"/>
     <col width="26.5546875" customWidth="1" style="195" min="57" max="58"/>
-    <col width="8.88671875" customWidth="1" style="202" min="59" max="65"/>
-    <col width="8.88671875" customWidth="1" style="202" min="66" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="59" max="68"/>
+    <col width="8.88671875" customWidth="1" style="202" min="69" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="120">
@@ -8011,7 +8011,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="AX5" s="196" t="n"/>
     </row>
@@ -8030,9 +8029,9 @@
   </sheetPr>
   <dimension ref="A1:ES3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -8049,7 +8048,9 @@
     <col width="18" customWidth="1" style="25" min="13" max="13"/>
     <col width="17.5546875" customWidth="1" style="25" min="14" max="14"/>
     <col width="15.44140625" customWidth="1" style="25" min="15" max="15"/>
-    <col width="13.33203125" customWidth="1" style="25" min="16" max="18"/>
+    <col width="13.33203125" customWidth="1" style="25" min="16" max="16"/>
+    <col width="18.44140625" bestFit="1" customWidth="1" style="25" min="17" max="17"/>
+    <col width="19.33203125" bestFit="1" customWidth="1" style="25" min="18" max="18"/>
     <col width="19.5546875" customWidth="1" style="25" min="19" max="21"/>
     <col width="21.44140625" customWidth="1" style="25" min="22" max="23"/>
     <col width="25.109375" customWidth="1" style="25" min="24" max="24"/>
@@ -8089,7 +8090,7 @@
     <col width="23.44140625" customWidth="1" style="25" min="59" max="59"/>
     <col width="29.109375" customWidth="1" style="25" min="60" max="60"/>
     <col width="39.6640625" customWidth="1" style="25" min="61" max="61"/>
-    <col width="19" customWidth="1" style="25" min="62" max="62"/>
+    <col width="25" bestFit="1" customWidth="1" style="25" min="62" max="62"/>
     <col width="32.44140625" customWidth="1" style="25" min="63" max="63"/>
     <col width="17.33203125" customWidth="1" style="25" min="64" max="64"/>
     <col width="28.6640625" customWidth="1" style="25" min="65" max="65"/>
@@ -8484,6 +8485,11 @@
           <t>AccrualRule_PayInAdvance</t>
         </is>
       </c>
+      <c r="BK1" s="127" t="inlineStr">
+        <is>
+          <t>Fee_CycleDue</t>
+        </is>
+      </c>
       <c r="BL1" s="120" t="n"/>
       <c r="CT1" s="43" t="n"/>
       <c r="CU1" s="43" t="n"/>
@@ -8699,7 +8705,7 @@
       </c>
       <c r="AQ2" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AR2" s="195" t="n">
@@ -8747,12 +8753,12 @@
       </c>
       <c r="BA2" s="195" t="inlineStr">
         <is>
-          <t>RTGS1</t>
+          <t>IMT</t>
         </is>
       </c>
       <c r="BB2" s="195" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>IMT</t>
         </is>
       </c>
       <c r="BC2" s="25" t="inlineStr">
@@ -8765,27 +8771,27 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="BE2" s="25" t="inlineStr">
-        <is>
-          <t>JJ</t>
-        </is>
-      </c>
-      <c r="BF2" s="25" t="inlineStr">
-        <is>
-          <t>BLOGGS</t>
-        </is>
-      </c>
-      <c r="BG2" s="25" t="inlineStr">
-        <is>
-          <t>Melbourne, VIC,Australia</t>
+      <c r="BE2" s="200" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="BF2" s="205" t="inlineStr">
+        <is>
+          <t>CAMPOMANES</t>
+        </is>
+      </c>
+      <c r="BG2" s="145" t="inlineStr">
+        <is>
+          <t>Amsterdam, Netherlands</t>
         </is>
       </c>
       <c r="BH2" s="25" t="n">
         <v>0.33</v>
       </c>
-      <c r="BI2" s="25" t="inlineStr">
-        <is>
-          <t>CB001/Hold for Investment - Australia/IT_AKD</t>
+      <c r="BI2" s="195" t="inlineStr">
+        <is>
+          <t>CG852/Hold for Investment - Europe/IT_AKD</t>
         </is>
       </c>
       <c r="BJ2" s="46" t="n"/>
@@ -8915,29 +8921,37 @@
       </c>
       <c r="N3" s="195" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>2020-08-08</t>
         </is>
       </c>
       <c r="O3" s="195" t="inlineStr">
         <is>
-          <t>2020-11-26</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="P3" s="195" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
-        </is>
-      </c>
-      <c r="Q3" s="195" t="n"/>
-      <c r="R3" s="195" t="n"/>
+          <t>2020-08-10</t>
+        </is>
+      </c>
+      <c r="Q3" s="195" t="inlineStr">
+        <is>
+          <t>2020-08-08</t>
+        </is>
+      </c>
+      <c r="R3" s="195" t="inlineStr">
+        <is>
+          <t>2020-08-14</t>
+        </is>
+      </c>
       <c r="S3" s="195" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T3" s="195" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="U3" s="195" t="inlineStr">
@@ -8957,7 +8971,7 @@
       </c>
       <c r="X3" s="195" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-08-08</t>
         </is>
       </c>
       <c r="Y3" s="195" t="inlineStr">
@@ -8972,7 +8986,7 @@
       </c>
       <c r="AA3" s="195" t="inlineStr">
         <is>
-          <t>2021-10-18</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="AB3" s="200" t="inlineStr">
@@ -9012,7 +9026,7 @@
       </c>
       <c r="AQ3" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AR3" s="195" t="n">
@@ -9060,12 +9074,12 @@
       </c>
       <c r="BA3" s="195" t="inlineStr">
         <is>
-          <t>RTGS1</t>
+          <t>IMT</t>
         </is>
       </c>
       <c r="BB3" s="195" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>IMT</t>
         </is>
       </c>
       <c r="BC3" s="25" t="inlineStr">
@@ -9078,32 +9092,32 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="BE3" s="25" t="inlineStr">
-        <is>
-          <t>JJ</t>
-        </is>
-      </c>
-      <c r="BF3" s="25" t="inlineStr">
-        <is>
-          <t>BLOGGS</t>
-        </is>
-      </c>
-      <c r="BG3" s="25" t="inlineStr">
-        <is>
-          <t>Melbourne, VIC,Australia</t>
+      <c r="BE3" s="200" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="BF3" s="205" t="inlineStr">
+        <is>
+          <t>CAMPOMANES</t>
+        </is>
+      </c>
+      <c r="BG3" s="145" t="inlineStr">
+        <is>
+          <t>Amsterdam, Netherlands</t>
         </is>
       </c>
       <c r="BH3" s="25" t="n">
         <v>0.33</v>
       </c>
-      <c r="BI3" s="25" t="inlineStr">
-        <is>
-          <t>CB001/Hold for Investment - Australia/IT_AKD</t>
+      <c r="BI3" s="195" t="inlineStr">
+        <is>
+          <t>CG852/Hold for Investment - Europe/IT_AKD</t>
         </is>
       </c>
       <c r="BJ3" s="204" t="inlineStr">
         <is>
-          <t>Pay In Advance</t>
+          <t>Pay in Advance</t>
         </is>
       </c>
     </row>
@@ -22760,7 +22774,7 @@
       </c>
       <c r="AC3" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AD3" s="195" t="inlineStr">
@@ -24179,8 +24193,8 @@
     <col width="19.33203125" customWidth="1" style="170" min="104" max="104"/>
     <col width="28.44140625" customWidth="1" style="170" min="105" max="105"/>
     <col width="39.88671875" bestFit="1" customWidth="1" style="170" min="106" max="106"/>
-    <col width="8.88671875" customWidth="1" style="170" min="107" max="115"/>
-    <col width="8.88671875" customWidth="1" style="170" min="116" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="107" max="118"/>
+    <col width="8.88671875" customWidth="1" style="170" min="119" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="163" thickBot="1">
@@ -25864,7 +25878,7 @@
       </c>
       <c r="AD4" s="170" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AE4" s="170" t="inlineStr">
@@ -26373,7 +26387,7 @@
       </c>
       <c r="AD5" s="170" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AE5" s="170" t="inlineStr">
@@ -26882,7 +26896,7 @@
       </c>
       <c r="AD6" s="170" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AE6" s="170" t="inlineStr">
@@ -27391,7 +27405,7 @@
       </c>
       <c r="AD7" s="170" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AE7" s="170" t="inlineStr">
@@ -27806,8 +27820,8 @@
     <col width="24.6640625" customWidth="1" style="170" min="49" max="49"/>
     <col width="25.5546875" customWidth="1" style="170" min="50" max="50"/>
     <col width="24.44140625" customWidth="1" style="170" min="51" max="51"/>
-    <col width="8.88671875" customWidth="1" style="170" min="52" max="60"/>
-    <col width="8.88671875" customWidth="1" style="170" min="61" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="52" max="63"/>
+    <col width="8.88671875" customWidth="1" style="170" min="64" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="182" thickBot="1">
@@ -28775,7 +28789,7 @@
       </c>
       <c r="AV4" s="170" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AW4" s="170" t="inlineStr">
@@ -29019,7 +29033,7 @@
       </c>
       <c r="AV5" s="170" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AW5" s="170" t="inlineStr">
@@ -29263,7 +29277,7 @@
       </c>
       <c r="AV6" s="170" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AW6" s="170" t="inlineStr">
@@ -29507,7 +29521,7 @@
       </c>
       <c r="AV7" s="170" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AW7" s="170" t="inlineStr">
@@ -29571,8 +29585,8 @@
     <col width="22" customWidth="1" style="170" min="39" max="39"/>
     <col width="25.44140625" customWidth="1" style="170" min="40" max="40"/>
     <col width="26.5546875" bestFit="1" customWidth="1" style="170" min="41" max="41"/>
-    <col width="8.88671875" customWidth="1" style="170" min="42" max="50"/>
-    <col width="8.88671875" customWidth="1" style="170" min="51" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="42" max="53"/>
+    <col width="8.88671875" customWidth="1" style="170" min="54" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="188">
@@ -32460,7 +32474,7 @@
       </c>
       <c r="N6" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="O6" s="206" t="inlineStr">
@@ -32767,7 +32781,7 @@
       </c>
       <c r="N7" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="O7" s="206" t="inlineStr">
@@ -34488,8 +34502,8 @@
     <col width="32.6640625" customWidth="1" style="195" min="22" max="22"/>
     <col width="18" customWidth="1" style="195" min="23" max="23"/>
     <col width="16.88671875" customWidth="1" style="195" min="24" max="24"/>
-    <col width="9.109375" customWidth="1" style="202" min="25" max="36"/>
-    <col width="9.109375" customWidth="1" style="202" min="37" max="16384"/>
+    <col width="9.109375" customWidth="1" style="202" min="25" max="39"/>
+    <col width="9.109375" customWidth="1" style="202" min="40" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="118" thickBot="1">
@@ -35675,7 +35689,7 @@
       </c>
       <c r="L4" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="M4" s="195" t="inlineStr">
@@ -35825,7 +35839,7 @@
       </c>
       <c r="L5" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="M5" s="195" t="inlineStr">
@@ -35970,7 +35984,7 @@
       </c>
       <c r="L6" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="M6" s="25" t="inlineStr">
@@ -36115,7 +36129,7 @@
       </c>
       <c r="L7" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="M7" s="25" t="inlineStr">
@@ -37334,7 +37348,7 @@
       </c>
       <c r="AP3" s="195" t="inlineStr">
         <is>
-          <t>SHORTNME1144 1914811</t>
+          <t>SE LTD 0913539</t>
         </is>
       </c>
       <c r="AQ3" s="195" t="inlineStr">

--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -5547,8 +5547,8 @@
     <col width="22.6640625" bestFit="1" customWidth="1" style="195" min="67" max="67"/>
     <col width="25.33203125" customWidth="1" style="195" min="68" max="68"/>
     <col width="30.6640625" customWidth="1" style="195" min="69" max="69"/>
-    <col width="8.88671875" customWidth="1" style="202" min="70" max="79"/>
-    <col width="8.88671875" customWidth="1" style="202" min="80" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="70" max="80"/>
+    <col width="8.88671875" customWidth="1" style="202" min="81" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="110" thickBot="1">
@@ -6629,8 +6629,8 @@
     <col width="21.44140625" customWidth="1" style="195" min="16" max="16"/>
     <col width="22" customWidth="1" style="195" min="17" max="17"/>
     <col width="18" customWidth="1" style="195" min="18" max="19"/>
-    <col width="8.88671875" customWidth="1" style="202" min="20" max="29"/>
-    <col width="8.88671875" customWidth="1" style="202" min="30" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="20" max="30"/>
+    <col width="8.88671875" customWidth="1" style="202" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
@@ -6964,8 +6964,8 @@
     <col width="21.44140625" customWidth="1" style="195" min="13" max="13"/>
     <col width="17.88671875" customWidth="1" style="195" min="14" max="14"/>
     <col width="22" customWidth="1" style="195" min="15" max="16"/>
-    <col width="8.88671875" customWidth="1" style="202" min="17" max="26"/>
-    <col width="8.88671875" customWidth="1" style="202" min="27" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="17" max="27"/>
+    <col width="8.88671875" customWidth="1" style="202" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="127">
@@ -7230,9 +7230,9 @@
   <dimension ref="A1:BF5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection activeCell="V3" sqref="V3"/>
-      <selection pane="topRight" activeCell="AB17" sqref="AB17"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -7281,8 +7281,8 @@
     <col width="36.6640625" customWidth="1" style="195" min="55" max="55"/>
     <col width="35.88671875" customWidth="1" style="195" min="56" max="56"/>
     <col width="26.5546875" customWidth="1" style="195" min="57" max="58"/>
-    <col width="8.88671875" customWidth="1" style="202" min="59" max="68"/>
-    <col width="8.88671875" customWidth="1" style="202" min="69" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="59" max="69"/>
+    <col width="8.88671875" customWidth="1" style="202" min="70" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="120">
@@ -7875,9 +7875,14 @@
           <t>0.22</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W3" s="195" t="inlineStr">
@@ -8011,6 +8016,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="AX5" s="196" t="n"/>
     </row>
@@ -8031,7 +8037,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T15" sqref="T15"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -9118,6 +9124,11 @@
       <c r="BJ3" s="204" t="inlineStr">
         <is>
           <t>Pay in Advance</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>0.00</t>
         </is>
       </c>
     </row>
@@ -24193,8 +24204,8 @@
     <col width="19.33203125" customWidth="1" style="170" min="104" max="104"/>
     <col width="28.44140625" customWidth="1" style="170" min="105" max="105"/>
     <col width="39.88671875" bestFit="1" customWidth="1" style="170" min="106" max="106"/>
-    <col width="8.88671875" customWidth="1" style="170" min="107" max="118"/>
-    <col width="8.88671875" customWidth="1" style="170" min="119" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="107" max="119"/>
+    <col width="8.88671875" customWidth="1" style="170" min="120" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="163" thickBot="1">
@@ -27820,8 +27831,8 @@
     <col width="24.6640625" customWidth="1" style="170" min="49" max="49"/>
     <col width="25.5546875" customWidth="1" style="170" min="50" max="50"/>
     <col width="24.44140625" customWidth="1" style="170" min="51" max="51"/>
-    <col width="8.88671875" customWidth="1" style="170" min="52" max="63"/>
-    <col width="8.88671875" customWidth="1" style="170" min="64" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="52" max="64"/>
+    <col width="8.88671875" customWidth="1" style="170" min="65" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="182" thickBot="1">
@@ -29585,8 +29596,8 @@
     <col width="22" customWidth="1" style="170" min="39" max="39"/>
     <col width="25.44140625" customWidth="1" style="170" min="40" max="40"/>
     <col width="26.5546875" bestFit="1" customWidth="1" style="170" min="41" max="41"/>
-    <col width="8.88671875" customWidth="1" style="170" min="42" max="53"/>
-    <col width="8.88671875" customWidth="1" style="170" min="54" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="42" max="54"/>
+    <col width="8.88671875" customWidth="1" style="170" min="55" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="188">
@@ -34502,8 +34513,8 @@
     <col width="32.6640625" customWidth="1" style="195" min="22" max="22"/>
     <col width="18" customWidth="1" style="195" min="23" max="23"/>
     <col width="16.88671875" customWidth="1" style="195" min="24" max="24"/>
-    <col width="9.109375" customWidth="1" style="202" min="25" max="39"/>
-    <col width="9.109375" customWidth="1" style="202" min="40" max="16384"/>
+    <col width="9.109375" customWidth="1" style="202" min="25" max="40"/>
+    <col width="9.109375" customWidth="1" style="202" min="41" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="118" thickBot="1">

--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" firstSheet="13" activeTab="17" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" firstSheet="31" activeTab="34" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComSee_DFO2_Loan" sheetId="63" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -200,7 +200,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill/>
     </fill>
@@ -276,6 +276,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +403,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -745,6 +751,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5547,8 +5555,8 @@
     <col width="22.6640625" bestFit="1" customWidth="1" style="195" min="67" max="67"/>
     <col width="25.33203125" customWidth="1" style="195" min="68" max="68"/>
     <col width="30.6640625" customWidth="1" style="195" min="69" max="69"/>
-    <col width="8.88671875" customWidth="1" style="202" min="70" max="80"/>
-    <col width="8.88671875" customWidth="1" style="202" min="81" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="70" max="83"/>
+    <col width="8.88671875" customWidth="1" style="202" min="84" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="110" thickBot="1">
@@ -6629,8 +6637,8 @@
     <col width="21.44140625" customWidth="1" style="195" min="16" max="16"/>
     <col width="22" customWidth="1" style="195" min="17" max="17"/>
     <col width="18" customWidth="1" style="195" min="18" max="19"/>
-    <col width="8.88671875" customWidth="1" style="202" min="20" max="30"/>
-    <col width="8.88671875" customWidth="1" style="202" min="31" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="20" max="33"/>
+    <col width="8.88671875" customWidth="1" style="202" min="34" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
@@ -6964,8 +6972,8 @@
     <col width="21.44140625" customWidth="1" style="195" min="13" max="13"/>
     <col width="17.88671875" customWidth="1" style="195" min="14" max="14"/>
     <col width="22" customWidth="1" style="195" min="15" max="16"/>
-    <col width="8.88671875" customWidth="1" style="202" min="17" max="27"/>
-    <col width="8.88671875" customWidth="1" style="202" min="28" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="17" max="30"/>
+    <col width="8.88671875" customWidth="1" style="202" min="31" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="127">
@@ -7281,8 +7289,8 @@
     <col width="36.6640625" customWidth="1" style="195" min="55" max="55"/>
     <col width="35.88671875" customWidth="1" style="195" min="56" max="56"/>
     <col width="26.5546875" customWidth="1" style="195" min="57" max="58"/>
-    <col width="8.88671875" customWidth="1" style="202" min="59" max="69"/>
-    <col width="8.88671875" customWidth="1" style="202" min="70" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="202" min="59" max="72"/>
+    <col width="8.88671875" customWidth="1" style="202" min="73" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="120">
@@ -8016,7 +8024,6 @@
         </is>
       </c>
     </row>
-    <row r="4"/>
     <row r="5">
       <c r="AX5" s="196" t="n"/>
     </row>
@@ -8035,7 +8042,7 @@
   </sheetPr>
   <dimension ref="A1:ES3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="S1" sqref="S1"/>
     </sheetView>
@@ -10290,10 +10297,10 @@
   <dimension ref="A1:CE36"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="AW2" sqref="AW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -24092,9 +24099,9 @@
   <dimension ref="A1:DB7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="CV15" sqref="CV15"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="topRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -24169,14 +24176,14 @@
     <col width="21.109375" customWidth="1" style="170" min="69" max="69"/>
     <col width="18.109375" customWidth="1" style="170" min="70" max="70"/>
     <col width="32.44140625" customWidth="1" style="170" min="71" max="71"/>
-    <col width="17.5546875" customWidth="1" style="170" min="72" max="72"/>
+    <col width="39.88671875" bestFit="1" customWidth="1" style="170" min="72" max="72"/>
     <col width="26.33203125" customWidth="1" style="170" min="73" max="73"/>
     <col width="35" customWidth="1" style="170" min="74" max="74"/>
     <col width="26.5546875" customWidth="1" style="170" min="75" max="75"/>
     <col width="26.44140625" customWidth="1" style="170" min="76" max="76"/>
     <col width="27.33203125" customWidth="1" style="170" min="77" max="77"/>
     <col width="20" customWidth="1" style="170" min="78" max="78"/>
-    <col width="11.88671875" customWidth="1" style="170" min="79" max="79"/>
+    <col width="31.77734375" bestFit="1" customWidth="1" style="170" min="79" max="79"/>
     <col width="36.6640625" customWidth="1" style="177" min="80" max="80"/>
     <col width="18.109375" customWidth="1" style="177" min="81" max="81"/>
     <col width="15.5546875" customWidth="1" style="177" min="82" max="82"/>
@@ -24185,9 +24192,9 @@
     <col width="8.6640625" customWidth="1" style="177" min="85" max="85"/>
     <col width="16.33203125" customWidth="1" style="177" min="86" max="86"/>
     <col width="34.44140625" customWidth="1" style="177" min="87" max="87"/>
-    <col width="18.5546875" customWidth="1" style="179" min="88" max="88"/>
-    <col width="18" customWidth="1" style="179" min="89" max="89"/>
-    <col width="18.5546875" customWidth="1" style="179" min="90" max="90"/>
+    <col width="29.109375" bestFit="1" customWidth="1" style="179" min="88" max="88"/>
+    <col width="39.88671875" bestFit="1" customWidth="1" style="179" min="89" max="89"/>
+    <col width="43.88671875" bestFit="1" customWidth="1" style="179" min="90" max="90"/>
     <col width="16.5546875" customWidth="1" style="170" min="91" max="91"/>
     <col width="18.5546875" customWidth="1" style="179" min="92" max="92"/>
     <col width="16.5546875" customWidth="1" style="170" min="93" max="93"/>
@@ -24204,8 +24211,8 @@
     <col width="19.33203125" customWidth="1" style="170" min="104" max="104"/>
     <col width="28.44140625" customWidth="1" style="170" min="105" max="105"/>
     <col width="39.88671875" bestFit="1" customWidth="1" style="170" min="106" max="106"/>
-    <col width="8.88671875" customWidth="1" style="170" min="107" max="119"/>
-    <col width="8.88671875" customWidth="1" style="170" min="120" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="107" max="122"/>
+    <col width="8.88671875" customWidth="1" style="170" min="123" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="163" thickBot="1">
@@ -25716,15 +25723,21 @@
           <t>IMT</t>
         </is>
       </c>
-      <c r="CU3" s="196" t="n">
-        <v>43979</v>
-      </c>
-      <c r="CV3" s="196" t="n">
-        <v>43979</v>
+      <c r="CU3" s="198" t="inlineStr">
+        <is>
+          <t>28-May-20</t>
+        </is>
+      </c>
+      <c r="CV3" s="198" t="inlineStr">
+        <is>
+          <t>28-May-20</t>
+        </is>
       </c>
       <c r="CW3" s="198" t="n"/>
-      <c r="CX3" s="196" t="n">
-        <v>43979</v>
+      <c r="CX3" s="198" t="inlineStr">
+        <is>
+          <t>28-May-20</t>
+        </is>
       </c>
       <c r="CY3" s="205" t="inlineStr">
         <is>
@@ -27287,7 +27300,7 @@
       </c>
       <c r="C7" s="170" t="inlineStr">
         <is>
-          <t>3000864</t>
+          <t>3000634</t>
         </is>
       </c>
       <c r="D7" s="171" t="inlineStr">
@@ -27312,17 +27325,17 @@
       </c>
       <c r="H7" s="170" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_12102020154722</t>
+          <t>COMSEE_SC7_03112020184524</t>
         </is>
       </c>
       <c r="I7" s="170" t="inlineStr">
         <is>
-          <t>1001075</t>
+          <t>1000736</t>
         </is>
       </c>
       <c r="J7" s="170" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="K7" s="170" t="inlineStr">
@@ -27342,7 +27355,7 @@
       </c>
       <c r="N7" s="170" t="inlineStr">
         <is>
-          <t>Non-Agency Australia</t>
+          <t>Team Amsterdam</t>
         </is>
       </c>
       <c r="O7" s="173" t="inlineStr">
@@ -27362,7 +27375,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T7" s="170" t="inlineStr">
         <is>
@@ -27406,7 +27419,7 @@
       </c>
       <c r="AB7" s="170" t="inlineStr">
         <is>
-          <t>CSSC7_TERM12102020155623</t>
+          <t>CSSC7_TERM03112020185807</t>
         </is>
       </c>
       <c r="AC7" s="173" t="inlineStr">
@@ -27419,14 +27432,14 @@
           <t>SE LTD 0913539</t>
         </is>
       </c>
-      <c r="AE7" s="170" t="inlineStr">
-        <is>
-          <t>Melbourne, VIC,Australia</t>
-        </is>
-      </c>
-      <c r="AF7" s="173" t="inlineStr">
-        <is>
-          <t>JJ</t>
+      <c r="AE7" s="195" t="inlineStr">
+        <is>
+          <t>Amsterdam, Netherlands</t>
+        </is>
+      </c>
+      <c r="AF7" s="200" t="inlineStr">
+        <is>
+          <t>MC</t>
         </is>
       </c>
       <c r="AG7" s="173" t="inlineStr">
@@ -27449,24 +27462,24 @@
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="AK7" s="173" t="inlineStr">
-        <is>
-          <t>BUSINESS VERIFICATION</t>
-        </is>
-      </c>
-      <c r="AL7" s="173" t="inlineStr">
-        <is>
-          <t>Lending,${SPACE}${SPACE}Operations</t>
+      <c r="AK7" s="200" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="AL7" s="200" t="inlineStr">
+        <is>
+          <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
       <c r="AM7" s="173" t="inlineStr">
         <is>
-          <t>BUSINESS VERIFICATION</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="AN7" s="173" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>IMT</t>
         </is>
       </c>
       <c r="AO7" s="173" t="inlineStr">
@@ -27476,7 +27489,7 @@
       </c>
       <c r="AP7" s="173" t="inlineStr">
         <is>
-          <t>Sydney, Australia</t>
+          <t>Amsterdam, Netherlands</t>
         </is>
       </c>
       <c r="AQ7" s="176" t="inlineStr">
@@ -27573,7 +27586,7 @@
       </c>
       <c r="BK7" s="173" t="inlineStr">
         <is>
-          <t>Business Verification,${SPACE}${SPACE}BVT</t>
+          <t>Loan,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
       <c r="BL7" s="170" t="inlineStr">
@@ -27581,14 +27594,14 @@
           <t>LENDING</t>
         </is>
       </c>
-      <c r="BM7" s="173" t="inlineStr">
-        <is>
-          <t>Hold for Investment - Australia</t>
-        </is>
-      </c>
-      <c r="BN7" s="173" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia - DBU</t>
+      <c r="BM7" s="200" t="inlineStr">
+        <is>
+          <t>Hold for Investment - Europe</t>
+        </is>
+      </c>
+      <c r="BN7" s="200" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
       <c r="BO7" s="173" t="inlineStr">
@@ -27603,7 +27616,7 @@
       </c>
       <c r="BQ7" s="170" t="inlineStr">
         <is>
-          <t>28-Feb-2022</t>
+          <t>03-Nov-2021</t>
         </is>
       </c>
       <c r="BR7" s="170" t="inlineStr">
@@ -27611,9 +27624,9 @@
           <t>27-Dec-2018</t>
         </is>
       </c>
-      <c r="BT7" s="177" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia -DBU</t>
+      <c r="BT7" s="173" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
       <c r="BU7" s="177" t="inlineStr">
@@ -27646,9 +27659,9 @@
           <t>100.000000%</t>
         </is>
       </c>
-      <c r="CA7" s="177" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank Australia - DBU</t>
+      <c r="CA7" s="205" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank Australia - AMS</t>
         </is>
       </c>
       <c r="CB7" s="178" t="inlineStr">
@@ -27691,14 +27704,14 @@
           <t>27-Dec-2018</t>
         </is>
       </c>
-      <c r="CJ7" s="177" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH% DBU</t>
-        </is>
-      </c>
-      <c r="CK7" s="177" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK OF AUSTRALIA - DBU</t>
+      <c r="CJ7" s="205" t="inlineStr">
+        <is>
+          <t>COMMONWEALTH%AMSTERDAM</t>
+        </is>
+      </c>
+      <c r="CK7" s="205" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
       <c r="CL7" s="177" t="inlineStr">
@@ -27731,14 +27744,14 @@
           <t>2</t>
         </is>
       </c>
-      <c r="CR7" s="177" t="inlineStr">
-        <is>
-          <t>BLOGGS</t>
-        </is>
-      </c>
-      <c r="CS7" s="177" t="inlineStr">
-        <is>
-          <t>Bloggs,  John</t>
+      <c r="CR7" s="205" t="inlineStr">
+        <is>
+          <t>CAMPOMANES</t>
+        </is>
+      </c>
+      <c r="CS7" s="205" t="inlineStr">
+        <is>
+          <t>Campomanes,  Makee</t>
         </is>
       </c>
       <c r="CT7" s="177" t="inlineStr">
@@ -27764,7 +27777,7 @@
       </c>
       <c r="CY7" s="177" t="inlineStr">
         <is>
-          <t>JJ</t>
+          <t>MC</t>
         </is>
       </c>
       <c r="CZ7" s="177" t="inlineStr">
@@ -27779,7 +27792,7 @@
       </c>
       <c r="DB7" s="177" t="inlineStr">
         <is>
-          <t>COMMONWEALTH BANK AUST -DBU</t>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
     </row>
@@ -27799,11 +27812,11 @@
   <dimension ref="A1:AY7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CV15" sqref="CV15"/>
       <selection pane="topRight" activeCell="CV15" sqref="CV15"/>
       <selection pane="bottomLeft" activeCell="CV15" sqref="CV15"/>
-      <selection pane="bottomRight" activeCell="AU27" sqref="AU27"/>
+      <selection pane="bottomRight" activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -27831,8 +27844,8 @@
     <col width="24.6640625" customWidth="1" style="170" min="49" max="49"/>
     <col width="25.5546875" customWidth="1" style="170" min="50" max="50"/>
     <col width="24.44140625" customWidth="1" style="170" min="51" max="51"/>
-    <col width="8.88671875" customWidth="1" style="170" min="52" max="64"/>
-    <col width="8.88671875" customWidth="1" style="170" min="65" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="52" max="67"/>
+    <col width="8.88671875" customWidth="1" style="170" min="68" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="182" thickBot="1">
@@ -28505,14 +28518,20 @@
         </is>
       </c>
       <c r="AJ3" s="195" t="n"/>
-      <c r="AK3" s="196" t="n">
-        <v>43980</v>
-      </c>
-      <c r="AL3" s="196" t="n">
-        <v>44345</v>
-      </c>
-      <c r="AM3" s="196" t="n">
-        <v>44454</v>
+      <c r="AK3" s="198" t="inlineStr">
+        <is>
+          <t>29-May-20</t>
+        </is>
+      </c>
+      <c r="AL3" s="198" t="inlineStr">
+        <is>
+          <t>29-May-20</t>
+        </is>
+      </c>
+      <c r="AM3" s="198" t="inlineStr">
+        <is>
+          <t>15-Sep-21</t>
+        </is>
       </c>
       <c r="AN3" s="200" t="inlineStr">
         <is>
@@ -29320,22 +29339,22 @@
       </c>
       <c r="C7" s="170" t="inlineStr">
         <is>
-          <t>CSSC7_TERM12102020155623</t>
+          <t>CSSC7_TERM03112020185807</t>
         </is>
       </c>
       <c r="D7" s="170" t="inlineStr">
         <is>
-          <t>3000864</t>
+          <t>3000634</t>
         </is>
       </c>
       <c r="E7" s="170" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="F7" s="170" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2021-12-03</t>
         </is>
       </c>
       <c r="G7" s="170" t="inlineStr">
@@ -29376,16 +29395,16 @@
           <t>EUOPS</t>
         </is>
       </c>
-      <c r="O7" s="170" t="inlineStr">
-        <is>
-          <t>Non-Agency Australia</t>
+      <c r="O7" s="195" t="inlineStr">
+        <is>
+          <t>Team Amsterdam</t>
         </is>
       </c>
       <c r="P7" s="170" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R7" s="170" t="n">
         <v>1</v>
@@ -29417,22 +29436,22 @@
       </c>
       <c r="X7" s="170" t="inlineStr">
         <is>
-          <t>HFIAU</t>
-        </is>
-      </c>
-      <c r="Y7" s="170" t="inlineStr">
-        <is>
-          <t>Hold for Investment - Australia</t>
-        </is>
-      </c>
-      <c r="Z7" s="170" t="inlineStr">
-        <is>
-          <t>CB001</t>
-        </is>
-      </c>
-      <c r="AA7" s="170" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia - DBU</t>
+          <t>HFIEU</t>
+        </is>
+      </c>
+      <c r="Y7" s="195" t="inlineStr">
+        <is>
+          <t>Hold for Investment - Europe</t>
+        </is>
+      </c>
+      <c r="Z7" s="195" t="inlineStr">
+        <is>
+          <t>CG852</t>
+        </is>
+      </c>
+      <c r="AA7" s="195" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
       <c r="AB7" s="170" t="inlineStr">
@@ -29440,14 +29459,14 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="AC7" s="170" t="inlineStr">
-        <is>
-          <t>Australian (Sydney)</t>
+      <c r="AC7" s="195" t="inlineStr">
+        <is>
+          <t>Europe (Amsterdam)</t>
         </is>
       </c>
       <c r="AD7" s="170" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="AE7" s="174" t="inlineStr">
@@ -29457,7 +29476,7 @@
       </c>
       <c r="AF7" s="170" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_12102020154722</t>
+          <t>COMSEE_SC7_03112020184524</t>
         </is>
       </c>
       <c r="AG7" s="170" t="inlineStr">
@@ -29490,12 +29509,12 @@
           <t>15-Sep-2019</t>
         </is>
       </c>
-      <c r="AN7" s="173" t="inlineStr">
-        <is>
-          <t>BUSINESS VERIFICATION</t>
-        </is>
-      </c>
-      <c r="AO7" s="173" t="inlineStr">
+      <c r="AN7" s="200" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="AO7" s="200" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
@@ -29520,12 +29539,12 @@
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AT7" s="170" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia</t>
-        </is>
-      </c>
-      <c r="AU7" s="170" t="inlineStr">
+      <c r="AT7" s="195" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
+        </is>
+      </c>
+      <c r="AU7" s="195" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
@@ -29540,9 +29559,9 @@
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AX7" s="170" t="inlineStr">
-        <is>
-          <t>BLOGGS</t>
+      <c r="AX7" s="195" t="inlineStr">
+        <is>
+          <t>CAMPOMANES</t>
         </is>
       </c>
       <c r="AY7" s="185" t="inlineStr">
@@ -29567,10 +29586,10 @@
   <dimension ref="A1:AO7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="AR7" sqref="AR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -29596,8 +29615,8 @@
     <col width="22" customWidth="1" style="170" min="39" max="39"/>
     <col width="25.44140625" customWidth="1" style="170" min="40" max="40"/>
     <col width="26.5546875" bestFit="1" customWidth="1" style="170" min="41" max="41"/>
-    <col width="8.88671875" customWidth="1" style="170" min="42" max="54"/>
-    <col width="8.88671875" customWidth="1" style="170" min="55" max="16384"/>
+    <col width="8.88671875" customWidth="1" style="170" min="42" max="57"/>
+    <col width="8.88671875" customWidth="1" style="170" min="58" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="188">
@@ -30850,72 +30869,72 @@
       </c>
       <c r="E7" s="170" t="inlineStr">
         <is>
-          <t>3000864</t>
+          <t>3000634</t>
         </is>
       </c>
       <c r="F7" s="170" t="inlineStr">
         <is>
+          <t>0913539</t>
+        </is>
+      </c>
+      <c r="G7" s="170" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="H7" s="170" t="inlineStr">
+        <is>
+          <t>CSSC7_TERM03112020185807</t>
+        </is>
+      </c>
+      <c r="I7" s="170" t="inlineStr">
+        <is>
+          <t>ONG000000000568</t>
+        </is>
+      </c>
+      <c r="J7" s="170" t="inlineStr">
+        <is>
+          <t>Released</t>
+        </is>
+      </c>
+      <c r="K7" s="170" t="inlineStr">
+        <is>
+          <t>Line Fee</t>
+        </is>
+      </c>
+      <c r="L7" s="170" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="M7" s="170" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G7" s="170" t="inlineStr">
-        <is>
-          <t>V2</t>
-        </is>
-      </c>
-      <c r="H7" s="170" t="inlineStr">
-        <is>
-          <t>CSSC7_TERM12102020155623</t>
-        </is>
-      </c>
-      <c r="I7" s="170" t="inlineStr">
-        <is>
-          <t>ONG000000000618</t>
-        </is>
-      </c>
-      <c r="J7" s="170" t="inlineStr">
-        <is>
-          <t>Released</t>
-        </is>
-      </c>
-      <c r="K7" s="170" t="inlineStr">
-        <is>
-          <t>Line Fee</t>
-        </is>
-      </c>
-      <c r="L7" s="170" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="M7" s="170" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="N7" s="170" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="O7" s="170" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2021-12-03</t>
         </is>
       </c>
       <c r="P7" s="170" t="inlineStr">
         <is>
-          <t>2021-05-28</t>
+          <t>2021-02-03</t>
         </is>
       </c>
       <c r="Q7" s="170" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="R7" s="170" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="S7" s="170" t="inlineStr">
@@ -30935,7 +30954,7 @@
       </c>
       <c r="V7" s="170" t="inlineStr">
         <is>
-          <t>CSSC7_TERM12102020155623</t>
+          <t>CSSC7_TERM03112020185807</t>
         </is>
       </c>
       <c r="W7" s="184" t="inlineStr">
@@ -31047,10 +31066,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BN7"/>
+  <dimension ref="A1:BO7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BO10" sqref="BO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -31094,6 +31113,7 @@
     <col width="21.88671875" bestFit="1" customWidth="1" style="202" min="62" max="62"/>
     <col width="31.88671875" bestFit="1" customWidth="1" style="202" min="63" max="63"/>
     <col width="23.6640625" bestFit="1" customWidth="1" style="202" min="66" max="66"/>
+    <col width="19.21875" bestFit="1" customWidth="1" style="202" min="67" max="67"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="64" thickBot="1">
@@ -31357,7 +31377,7 @@
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="BA1" s="64" t="inlineStr">
+      <c r="BA1" s="209" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
@@ -31425,6 +31445,11 @@
       <c r="BN1" s="110" t="inlineStr">
         <is>
           <t>Outstanding_paidToDate</t>
+        </is>
+      </c>
+      <c r="BO1" s="210" t="inlineStr">
+        <is>
+          <t>Facility_BranchCode</t>
         </is>
       </c>
     </row>
@@ -31670,7 +31695,7 @@
       </c>
       <c r="BE2" s="195" t="inlineStr">
         <is>
-          <t>CB001/Hold for Investment - Australia/IT_COL</t>
+          <t>CB001/Hold for Investment - Europe/IT_COL</t>
         </is>
       </c>
       <c r="BF2" s="25" t="inlineStr">
@@ -32747,7 +32772,7 @@
       </c>
       <c r="E7" s="195" t="inlineStr">
         <is>
-          <t>3000864</t>
+          <t>3000634</t>
         </is>
       </c>
       <c r="F7" s="195" t="inlineStr">
@@ -32762,7 +32787,7 @@
       </c>
       <c r="H7" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_12102020154722</t>
+          <t>COMSEE_SC7_03112020184524</t>
         </is>
       </c>
       <c r="I7" s="206" t="inlineStr">
@@ -32772,7 +32797,7 @@
       </c>
       <c r="J7" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM12102020155623</t>
+          <t>CSSC7_TERM03112020185807</t>
         </is>
       </c>
       <c r="K7" s="206" t="inlineStr">
@@ -32812,12 +32837,12 @@
       </c>
       <c r="R7" s="195" t="inlineStr">
         <is>
-          <t>60001177</t>
+          <t>60000686</t>
         </is>
       </c>
       <c r="S7" s="195" t="inlineStr">
         <is>
-          <t>60001177</t>
+          <t>60000686</t>
         </is>
       </c>
       <c r="T7" s="206" t="inlineStr">
@@ -32882,17 +32907,17 @@
       </c>
       <c r="AF7" s="25" t="inlineStr">
         <is>
-          <t>2021-02-28</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="AG7" s="195" t="inlineStr">
         <is>
-          <t>30-Mar-2022</t>
+          <t>03-Dec-2021</t>
         </is>
       </c>
       <c r="AH7" s="195" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2021-12-03</t>
         </is>
       </c>
       <c r="AI7" s="195" t="inlineStr">
@@ -32977,7 +33002,7 @@
       </c>
       <c r="AY7" s="206" t="inlineStr">
         <is>
-          <t>RTGS</t>
+          <t>IMT</t>
         </is>
       </c>
       <c r="AZ7" s="25" t="inlineStr">
@@ -32992,7 +33017,7 @@
       </c>
       <c r="BB7" s="195" t="inlineStr">
         <is>
-          <t>RTGS1</t>
+          <t>IMTEUR1-0735</t>
         </is>
       </c>
       <c r="BC7" s="67" t="inlineStr">
@@ -33007,7 +33032,7 @@
       </c>
       <c r="BE7" s="195" t="inlineStr">
         <is>
-          <t>CB001/Hold for Investment - Australia/IT_COL</t>
+          <t>CG852/Hold for Investment - Europe/IT_COL</t>
         </is>
       </c>
       <c r="BF7" s="25" t="inlineStr">
@@ -33038,6 +33063,11 @@
       <c r="BN7" t="inlineStr">
         <is>
           <t>0.00</t>
+        </is>
+      </c>
+      <c r="BO7" s="195" t="inlineStr">
+        <is>
+          <t>CG852</t>
         </is>
       </c>
     </row>
@@ -33057,8 +33087,8 @@
   <dimension ref="A1:CI7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B7" sqref="B7:O7"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -33667,12 +33697,12 @@
       </c>
       <c r="C7" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_12102020154722</t>
+          <t>COMSEE_SC7_03112020184524</t>
         </is>
       </c>
       <c r="D7" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM12102020155623</t>
+          <t>CSSC7_TERM03112020185807</t>
         </is>
       </c>
       <c r="E7" s="25" t="inlineStr">
@@ -33692,7 +33722,7 @@
       </c>
       <c r="H7" s="195" t="inlineStr">
         <is>
-          <t>60001177</t>
+          <t>60000686</t>
         </is>
       </c>
       <c r="I7" s="25" t="inlineStr">
@@ -34381,22 +34411,22 @@
       </c>
       <c r="C7" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_12102020154722</t>
+          <t>COMSEE_SC7_03112020184524</t>
         </is>
       </c>
       <c r="D7" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM12102020155623</t>
+          <t>CSSC7_TERM03112020185807</t>
         </is>
       </c>
       <c r="E7" s="195" t="inlineStr">
         <is>
-          <t>60001177</t>
+          <t>60000686</t>
         </is>
       </c>
       <c r="F7" s="195" t="inlineStr">
         <is>
-          <t>08-Mar-2021</t>
+          <t>10-Nov-2020</t>
         </is>
       </c>
       <c r="G7" s="206" t="inlineStr">
@@ -34513,8 +34543,8 @@
     <col width="32.6640625" customWidth="1" style="195" min="22" max="22"/>
     <col width="18" customWidth="1" style="195" min="23" max="23"/>
     <col width="16.88671875" customWidth="1" style="195" min="24" max="24"/>
-    <col width="9.109375" customWidth="1" style="202" min="25" max="40"/>
-    <col width="9.109375" customWidth="1" style="202" min="41" max="16384"/>
+    <col width="9.109375" customWidth="1" style="202" min="25" max="43"/>
+    <col width="9.109375" customWidth="1" style="202" min="44" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="118" thickBot="1">
@@ -35028,12 +35058,12 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>COMSEE_SC2_14102020185206VIH</t>
+          <t>COMSEE_SC7_03112020184524</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>CSTERM_14102020190932STS</t>
+          <t>CSSC7_TERM03112020185807</t>
         </is>
       </c>
     </row>
@@ -35159,8 +35189,8 @@
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V7" sqref="V7"/>
+      <pane xSplit="2" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AI7" sqref="AI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>
@@ -36095,12 +36125,12 @@
       </c>
       <c r="C7" s="195" t="inlineStr">
         <is>
-          <t>06-Feb-2021</t>
+          <t>11-Oct-2020</t>
         </is>
       </c>
       <c r="D7" s="195" t="inlineStr">
         <is>
-          <t>07-Apr-2021</t>
+          <t>10-Dec-2020</t>
         </is>
       </c>
       <c r="E7" s="204" t="inlineStr">
@@ -36110,17 +36140,17 @@
       </c>
       <c r="F7" s="204" t="inlineStr">
         <is>
-          <t>Commonwealth Bank of Australia - DBU</t>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
       <c r="G7" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_12102020154722</t>
+          <t>COMSEE_SC7_03112020184524</t>
         </is>
       </c>
       <c r="H7" s="195" t="inlineStr">
         <is>
-          <t>RTGS1</t>
+          <t>IMTEUR1-0735</t>
         </is>
       </c>
       <c r="I7" s="25" t="inlineStr">
@@ -36128,9 +36158,9 @@
           <t>06000505</t>
         </is>
       </c>
-      <c r="J7" s="25" t="inlineStr">
-        <is>
-          <t>RTGS</t>
+      <c r="J7" s="195" t="inlineStr">
+        <is>
+          <t>IMT</t>
         </is>
       </c>
       <c r="K7" s="25" t="inlineStr">
@@ -36143,9 +36173,9 @@
           <t>SE LTD 0913539</t>
         </is>
       </c>
-      <c r="M7" s="25" t="inlineStr">
-        <is>
-          <t>CB001/Hold for Investment - Australia/BP_CML</t>
+      <c r="M7" s="195" t="inlineStr">
+        <is>
+          <t>CB001/Hold for Investment - Europe/BP_CML</t>
         </is>
       </c>
       <c r="N7" s="25" t="inlineStr">
@@ -36155,12 +36185,12 @@
       </c>
       <c r="O7" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM12102020155623</t>
+          <t>CSSC7_TERM03112020185807</t>
         </is>
       </c>
       <c r="P7" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_12102020154722</t>
+          <t>COMSEE_SC7_03112020184524</t>
         </is>
       </c>
       <c r="Q7" s="25" t="inlineStr">
@@ -36185,7 +36215,7 @@
       </c>
       <c r="U7" s="195" t="inlineStr">
         <is>
-          <t>28-Feb-2021</t>
+          <t>03-Nov-2020</t>
         </is>
       </c>
       <c r="V7" s="25" t="inlineStr">
@@ -36223,7 +36253,7 @@
       </c>
       <c r="AD7" s="195" t="inlineStr">
         <is>
-          <t>08-Mar-2021</t>
+          <t>10-Nov-2020</t>
         </is>
       </c>
     </row>
@@ -36242,8 +36272,8 @@
   </sheetPr>
   <dimension ref="A1:IT3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.2"/>

--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u723925\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\Integration_DataSet\CommSee\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93EB9BE-B5F4-4C7F-81AB-45937A830453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A35DCA-3679-449B-9B9E-B5CAD85612D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" firstSheet="36" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="731" firstSheet="35" activeTab="38" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9864" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9883" uniqueCount="1651">
   <si>
     <t>@</t>
   </si>
@@ -5380,7 +5380,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5731,45 +5731,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -21415,7 +21394,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="CY1" activePane="topRight" state="frozen"/>
       <selection activeCell="CV15" sqref="CV15"/>
-      <selection pane="topRight" activeCell="CR7" sqref="CR7"/>
+      <selection pane="topRight" activeCell="CX6" sqref="CX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23110,29 +23089,29 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="6" spans="1:106" s="221" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A6" s="145">
         <v>5</v>
       </c>
-      <c r="B6" s="212" t="s">
+      <c r="B6" s="209" t="s">
         <v>1324</v>
       </c>
-      <c r="C6" s="145">
+      <c r="C6" s="195">
         <v>3000665</v>
       </c>
-      <c r="D6" s="212" t="s">
+      <c r="D6" s="209" t="s">
         <v>481</v>
       </c>
-      <c r="E6" s="212" t="s">
+      <c r="E6" s="209" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="212" t="s">
+      <c r="F6" s="209" t="s">
         <v>174</v>
       </c>
       <c r="G6" s="213">
         <v>43750</v>
       </c>
-      <c r="H6" s="145" t="s">
+      <c r="H6" s="195" t="s">
         <v>1645</v>
       </c>
       <c r="I6" s="145">
@@ -23141,288 +23120,288 @@
       <c r="J6" s="213">
         <v>44138</v>
       </c>
-      <c r="K6" s="145">
-        <v>100000</v>
-      </c>
-      <c r="L6" s="212" t="s">
+      <c r="K6" s="170" t="s">
+        <v>489</v>
+      </c>
+      <c r="L6" s="209" t="s">
         <v>98</v>
       </c>
-      <c r="M6" s="145" t="s">
+      <c r="M6" s="195" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="145" t="s">
+      <c r="N6" s="195" t="s">
         <v>490</v>
       </c>
-      <c r="O6" s="214" t="s">
+      <c r="O6" s="210" t="s">
         <v>102</v>
       </c>
-      <c r="P6" s="145" t="s">
+      <c r="P6" s="195" t="s">
         <v>103</v>
       </c>
-      <c r="Q6" s="222">
+      <c r="Q6" s="195">
         <v>1</v>
       </c>
-      <c r="R6" s="222">
+      <c r="R6" s="195">
         <v>1</v>
       </c>
-      <c r="S6" s="222">
+      <c r="S6" s="195">
         <v>3</v>
       </c>
-      <c r="T6" s="145">
-        <v>100000</v>
-      </c>
-      <c r="U6" s="145">
-        <v>100000</v>
-      </c>
-      <c r="V6" s="145">
-        <v>100000</v>
-      </c>
-      <c r="W6" s="145" t="s">
+      <c r="T6" s="170" t="s">
+        <v>489</v>
+      </c>
+      <c r="U6" s="170" t="s">
+        <v>489</v>
+      </c>
+      <c r="V6" s="170" t="s">
+        <v>489</v>
+      </c>
+      <c r="W6" s="195" t="s">
         <v>106</v>
       </c>
-      <c r="X6" s="214" t="s">
+      <c r="X6" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="Y6" s="145" t="s">
+      <c r="Y6" s="195" t="s">
         <v>1330</v>
       </c>
-      <c r="Z6" s="145" t="s">
+      <c r="Z6" s="195" t="s">
         <v>1331</v>
       </c>
-      <c r="AA6" s="145" t="s">
+      <c r="AA6" s="195" t="s">
         <v>1332</v>
       </c>
-      <c r="AB6" s="145" t="s">
+      <c r="AB6" s="195" t="s">
         <v>1646</v>
       </c>
-      <c r="AC6" s="214" t="s">
+      <c r="AC6" s="210" t="s">
         <v>493</v>
       </c>
-      <c r="AD6" s="145" t="s">
+      <c r="AD6" s="195" t="s">
         <v>494</v>
       </c>
-      <c r="AE6" s="145" t="s">
+      <c r="AE6" s="195" t="s">
         <v>495</v>
       </c>
-      <c r="AF6" s="214" t="s">
+      <c r="AF6" s="210" t="s">
         <v>496</v>
       </c>
-      <c r="AG6" s="214" t="s">
+      <c r="AG6" s="210" t="s">
         <v>497</v>
       </c>
-      <c r="AH6" s="214" t="s">
+      <c r="AH6" s="210" t="s">
         <v>498</v>
       </c>
-      <c r="AI6" s="214" t="s">
+      <c r="AI6" s="210" t="s">
         <v>499</v>
       </c>
-      <c r="AJ6" s="214" t="s">
+      <c r="AJ6" s="210" t="s">
         <v>495</v>
       </c>
-      <c r="AK6" s="214" t="s">
+      <c r="AK6" s="210" t="s">
         <v>500</v>
       </c>
-      <c r="AL6" s="214" t="s">
+      <c r="AL6" s="210" t="s">
         <v>1334</v>
       </c>
-      <c r="AM6" s="214" t="s">
+      <c r="AM6" s="210" t="s">
         <v>501</v>
       </c>
-      <c r="AN6" s="214" t="s">
+      <c r="AN6" s="210" t="s">
         <v>502</v>
       </c>
-      <c r="AO6" s="215">
-        <v>10000000</v>
-      </c>
-      <c r="AP6" s="214" t="s">
+      <c r="AO6" s="173" t="s">
+        <v>503</v>
+      </c>
+      <c r="AP6" s="210" t="s">
         <v>495</v>
       </c>
-      <c r="AQ6" s="214" t="s">
+      <c r="AQ6" s="210" t="s">
         <v>230</v>
       </c>
-      <c r="AR6" s="214" t="s">
+      <c r="AR6" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="AS6" s="214" t="s">
+      <c r="AS6" s="210" t="s">
         <v>504</v>
       </c>
-      <c r="AT6" s="214" t="s">
+      <c r="AT6" s="210" t="s">
         <v>504</v>
       </c>
-      <c r="AU6" s="214" t="s">
+      <c r="AU6" s="210" t="s">
         <v>505</v>
       </c>
-      <c r="AV6" s="214" t="s">
+      <c r="AV6" s="210" t="s">
         <v>506</v>
       </c>
-      <c r="AW6" s="145" t="s">
+      <c r="AW6" s="195" t="s">
         <v>507</v>
       </c>
-      <c r="AX6" s="222">
+      <c r="AX6" s="195">
         <v>2</v>
       </c>
-      <c r="AY6" s="214" t="s">
+      <c r="AY6" s="210" t="s">
         <v>372</v>
       </c>
-      <c r="AZ6" s="214" t="s">
+      <c r="AZ6" s="210" t="s">
         <v>508</v>
       </c>
-      <c r="BA6" s="214" t="s">
+      <c r="BA6" s="210" t="s">
         <v>505</v>
       </c>
-      <c r="BB6" s="222">
+      <c r="BB6" s="195">
         <v>2</v>
       </c>
-      <c r="BC6" s="145" t="s">
+      <c r="BC6" s="195" t="s">
         <v>509</v>
       </c>
-      <c r="BD6" s="214" t="s">
+      <c r="BD6" s="210" t="s">
         <v>499</v>
       </c>
-      <c r="BE6" s="214" t="s">
+      <c r="BE6" s="210" t="s">
         <v>495</v>
       </c>
-      <c r="BF6" s="214" t="s">
+      <c r="BF6" s="210" t="s">
         <v>510</v>
       </c>
-      <c r="BG6" s="145" t="s">
+      <c r="BG6" s="195" t="s">
         <v>511</v>
       </c>
-      <c r="BH6" s="222">
+      <c r="BH6" s="195">
         <v>100</v>
       </c>
-      <c r="BI6" s="222">
+      <c r="BI6" s="195">
         <v>100</v>
       </c>
-      <c r="BJ6" s="145" t="s">
+      <c r="BJ6" s="195" t="s">
         <v>1191</v>
       </c>
-      <c r="BK6" s="214" t="s">
+      <c r="BK6" s="210" t="s">
         <v>513</v>
       </c>
-      <c r="BL6" s="145" t="s">
+      <c r="BL6" s="195" t="s">
         <v>514</v>
       </c>
-      <c r="BM6" s="214" t="s">
+      <c r="BM6" s="210" t="s">
         <v>515</v>
       </c>
-      <c r="BN6" s="214" t="s">
+      <c r="BN6" s="210" t="s">
         <v>516</v>
       </c>
-      <c r="BO6" s="215">
-        <v>100000</v>
-      </c>
-      <c r="BP6" s="214">
-        <v>100</v>
-      </c>
-      <c r="BQ6" s="216">
+      <c r="BO6" s="173" t="s">
+        <v>517</v>
+      </c>
+      <c r="BP6" s="173" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BQ6" s="214">
         <v>44503</v>
       </c>
-      <c r="BR6" s="216">
+      <c r="BR6" s="214">
         <v>43461</v>
       </c>
-      <c r="BS6" s="145"/>
-      <c r="BT6" s="217" t="s">
+      <c r="BS6" s="195"/>
+      <c r="BT6" s="211" t="s">
         <v>516</v>
       </c>
-      <c r="BU6" s="218">
-        <v>100000</v>
-      </c>
-      <c r="BV6" s="217" t="s">
+      <c r="BU6" s="177" t="s">
+        <v>517</v>
+      </c>
+      <c r="BV6" s="211" t="s">
         <v>98</v>
       </c>
-      <c r="BW6" s="217" t="s">
+      <c r="BW6" s="211" t="s">
         <v>700</v>
       </c>
-      <c r="BX6" s="217" t="s">
+      <c r="BX6" s="211" t="s">
         <v>566</v>
       </c>
-      <c r="BY6" s="217" t="s">
+      <c r="BY6" s="211" t="s">
         <v>566</v>
       </c>
-      <c r="BZ6" s="219">
-        <v>1</v>
-      </c>
-      <c r="CA6" s="217" t="s">
+      <c r="BZ6" s="177" t="s">
+        <v>568</v>
+      </c>
+      <c r="CA6" s="211" t="s">
         <v>1348</v>
       </c>
-      <c r="CB6" s="220" t="s">
+      <c r="CB6" s="212" t="s">
         <v>1647</v>
       </c>
-      <c r="CC6" s="217" t="s">
+      <c r="CC6" s="211" t="s">
         <v>702</v>
       </c>
-      <c r="CD6" s="220" t="s">
+      <c r="CD6" s="212" t="s">
         <v>1648</v>
       </c>
-      <c r="CE6" s="217" t="s">
+      <c r="CE6" s="211" t="s">
         <v>702</v>
       </c>
-      <c r="CF6" s="220" t="s">
+      <c r="CF6" s="212" t="s">
         <v>1649</v>
       </c>
-      <c r="CG6" s="220" t="s">
+      <c r="CG6" s="212" t="s">
         <v>702</v>
       </c>
-      <c r="CH6" s="216">
+      <c r="CH6" s="214">
         <v>43461</v>
       </c>
-      <c r="CI6" s="216">
+      <c r="CI6" s="214">
         <v>43461</v>
       </c>
-      <c r="CJ6" s="217" t="s">
+      <c r="CJ6" s="211" t="s">
         <v>1341</v>
       </c>
-      <c r="CK6" s="217" t="s">
+      <c r="CK6" s="211" t="s">
         <v>516</v>
       </c>
-      <c r="CL6" s="217" t="s">
+      <c r="CL6" s="211" t="s">
         <v>520</v>
       </c>
-      <c r="CM6" s="217" t="s">
+      <c r="CM6" s="211" t="s">
         <v>504</v>
       </c>
-      <c r="CN6" s="217" t="s">
+      <c r="CN6" s="211" t="s">
         <v>504</v>
       </c>
-      <c r="CO6" s="217" t="s">
+      <c r="CO6" s="211" t="s">
         <v>505</v>
       </c>
-      <c r="CP6" s="217" t="s">
+      <c r="CP6" s="211" t="s">
         <v>98</v>
       </c>
-      <c r="CQ6" s="217">
-        <v>2</v>
-      </c>
-      <c r="CR6" s="217" t="s">
+      <c r="CQ6" s="177" t="s">
+        <v>118</v>
+      </c>
+      <c r="CR6" s="211" t="s">
         <v>521</v>
       </c>
-      <c r="CS6" s="217" t="s">
+      <c r="CS6" s="211" t="s">
         <v>522</v>
       </c>
-      <c r="CT6" s="217" t="s">
+      <c r="CT6" s="211" t="s">
         <v>502</v>
       </c>
-      <c r="CU6" s="216">
+      <c r="CU6" s="214">
         <v>43461</v>
       </c>
-      <c r="CV6" s="216">
+      <c r="CV6" s="214">
         <v>43461</v>
       </c>
-      <c r="CW6" s="145"/>
-      <c r="CX6" s="216">
+      <c r="CW6" s="195"/>
+      <c r="CX6" s="214">
         <v>43461</v>
       </c>
-      <c r="CY6" s="217" t="s">
+      <c r="CY6" s="211" t="s">
         <v>533</v>
       </c>
-      <c r="CZ6" s="217" t="s">
+      <c r="CZ6" s="211" t="s">
         <v>511</v>
       </c>
-      <c r="DA6" s="217" t="s">
+      <c r="DA6" s="211" t="s">
         <v>499</v>
       </c>
-      <c r="DB6" s="217" t="s">
+      <c r="DB6" s="211" t="s">
         <v>516</v>
       </c>
     </row>
@@ -23760,7 +23739,7 @@
       <selection activeCell="CV15" sqref="CV15"/>
       <selection pane="topRight" activeCell="CV15" sqref="CV15"/>
       <selection pane="bottomLeft" activeCell="CV15" sqref="CV15"/>
-      <selection pane="bottomRight" activeCell="AY12" sqref="AY12"/>
+      <selection pane="bottomRight" activeCell="AY6" sqref="AY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -24557,7 +24536,7 @@
       </c>
     </row>
     <row r="6" spans="1:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="145">
+      <c r="A6" s="195">
         <v>5</v>
       </c>
       <c r="B6" s="209" t="s">
@@ -24584,8 +24563,8 @@
       <c r="I6" s="195" t="s">
         <v>184</v>
       </c>
-      <c r="J6" s="145">
-        <v>100000</v>
+      <c r="J6" s="170" t="s">
+        <v>489</v>
       </c>
       <c r="K6" s="145">
         <v>10000</v>
@@ -24611,17 +24590,17 @@
       <c r="R6" s="195">
         <v>1</v>
       </c>
-      <c r="S6" s="145">
-        <v>100000</v>
-      </c>
-      <c r="T6" s="145">
-        <v>100000</v>
-      </c>
-      <c r="U6" s="145">
-        <v>100000</v>
-      </c>
-      <c r="V6" s="145">
-        <v>10000</v>
+      <c r="S6" s="170" t="s">
+        <v>489</v>
+      </c>
+      <c r="T6" s="170" t="s">
+        <v>489</v>
+      </c>
+      <c r="U6" s="170" t="s">
+        <v>489</v>
+      </c>
+      <c r="V6" s="170" t="s">
+        <v>489</v>
       </c>
       <c r="W6" s="145">
         <v>90000</v>
@@ -24659,17 +24638,17 @@
       <c r="AH6" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="AI6" s="215">
-        <v>100000</v>
+      <c r="AI6" s="184" t="s">
+        <v>517</v>
       </c>
       <c r="AJ6" s="195"/>
-      <c r="AK6" s="216">
+      <c r="AK6" s="214">
         <v>43461</v>
       </c>
-      <c r="AL6" s="216">
+      <c r="AL6" s="214">
         <v>43693</v>
       </c>
-      <c r="AM6" s="216">
+      <c r="AM6" s="214">
         <v>43723</v>
       </c>
       <c r="AN6" s="210" t="s">
@@ -24934,7 +24913,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AR6" sqref="AR6"/>
+      <selection pane="bottomRight" activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -25599,7 +25578,7 @@
       <c r="E6" s="145">
         <v>3000665</v>
       </c>
-      <c r="F6" s="170" t="s">
+      <c r="F6" s="217" t="s">
         <v>1028</v>
       </c>
       <c r="G6" s="195" t="s">
@@ -25638,14 +25617,14 @@
       <c r="R6" s="213">
         <v>44229</v>
       </c>
-      <c r="S6" s="145">
-        <v>0</v>
-      </c>
-      <c r="T6" s="137">
-        <v>0</v>
-      </c>
-      <c r="U6" s="145">
-        <v>0</v>
+      <c r="S6" s="170" t="s">
+        <v>559</v>
+      </c>
+      <c r="T6" s="170" t="s">
+        <v>559</v>
+      </c>
+      <c r="U6" s="170" t="s">
+        <v>559</v>
       </c>
       <c r="V6" s="195" t="s">
         <v>1646</v>
@@ -25656,7 +25635,7 @@
       <c r="X6" s="210" t="s">
         <v>372</v>
       </c>
-      <c r="Y6" s="223" t="s">
+      <c r="Y6" s="215" t="s">
         <v>588</v>
       </c>
       <c r="Z6" s="210" t="s">
@@ -25683,7 +25662,7 @@
       <c r="AG6" s="210" t="s">
         <v>230</v>
       </c>
-      <c r="AH6" s="224" t="s">
+      <c r="AH6" s="216" t="s">
         <v>588</v>
       </c>
       <c r="AI6" s="210" t="s">
@@ -25912,8 +25891,8 @@
   </sheetPr>
   <dimension ref="A1:DB7"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BN29" sqref="BN29"/>
+    <sheetView topLeftCell="BH1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BN6" sqref="BN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26765,7 +26744,7 @@
       </c>
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.3">
-      <c r="A6" s="225">
+      <c r="A6" s="218">
         <v>5</v>
       </c>
       <c r="B6" s="209" t="s">
@@ -26780,7 +26759,7 @@
       <c r="E6" s="145">
         <v>3000665</v>
       </c>
-      <c r="F6" s="226" t="s">
+      <c r="F6" s="219" t="s">
         <v>1028</v>
       </c>
       <c r="G6" s="195" t="s">
@@ -26855,13 +26834,13 @@
       <c r="AD6" s="206" t="s">
         <v>1066</v>
       </c>
-      <c r="AE6" s="216">
+      <c r="AE6" s="214">
         <v>43461</v>
       </c>
       <c r="AF6" s="213">
         <v>44138</v>
       </c>
-      <c r="AG6" s="216">
+      <c r="AG6" s="214">
         <v>44533</v>
       </c>
       <c r="AH6" s="213">
@@ -26888,7 +26867,7 @@
       <c r="AO6" s="206" t="s">
         <v>87</v>
       </c>
-      <c r="AP6" s="216">
+      <c r="AP6" s="214">
         <v>43461</v>
       </c>
       <c r="AQ6" s="211" t="s">
@@ -27202,9 +27181,9 @@
   </sheetPr>
   <dimension ref="A1:DB7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27584,7 +27563,7 @@
       </c>
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.3">
-      <c r="A6" s="225">
+      <c r="A6" s="218">
         <v>5</v>
       </c>
       <c r="B6" s="209" t="s">
@@ -27623,7 +27602,7 @@
       <c r="M6" s="76" t="s">
         <v>1438</v>
       </c>
-      <c r="N6" s="195">
+      <c r="N6" s="67">
         <v>100</v>
       </c>
       <c r="O6" s="195" t="s">
@@ -27782,8 +27761,8 @@
   </sheetPr>
   <dimension ref="A1:DB8"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28120,149 +28099,149 @@
       <c r="A6" s="145">
         <v>5</v>
       </c>
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="220" t="s">
         <v>1324</v>
       </c>
-      <c r="C6" s="195" t="s">
+      <c r="C6" s="145" t="s">
         <v>1645</v>
       </c>
-      <c r="D6" s="195" t="s">
+      <c r="D6" s="145" t="s">
         <v>1646</v>
       </c>
       <c r="E6" s="145">
         <v>60000762</v>
       </c>
-      <c r="F6" s="216">
+      <c r="F6" s="214">
         <v>44145</v>
       </c>
-      <c r="G6" s="211" t="s">
+      <c r="G6" s="221" t="s">
         <v>1445</v>
       </c>
-      <c r="H6" s="195" t="s">
+      <c r="H6" s="145" t="s">
         <v>861</v>
       </c>
       <c r="I6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="J6" s="195" t="s">
+      <c r="J6" s="145" t="s">
         <v>1446</v>
       </c>
       <c r="K6" s="195" t="s">
         <v>1447</v>
       </c>
-      <c r="L6" s="195" t="s">
+      <c r="L6" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="M6" s="195" t="s">
+      <c r="M6" s="145" t="s">
         <v>1448</v>
       </c>
-      <c r="N6" s="195" t="s">
+      <c r="N6" s="145" t="s">
         <v>817</v>
       </c>
-      <c r="O6" s="195" t="s">
+      <c r="O6" s="145" t="s">
         <v>1449</v>
       </c>
-      <c r="P6" s="211" t="s">
+      <c r="P6" s="221" t="s">
         <v>675</v>
       </c>
-      <c r="Q6" s="195" t="s">
+      <c r="Q6" s="145" t="s">
         <v>1313</v>
       </c>
-      <c r="R6" s="195">
+      <c r="R6" s="67">
         <v>100</v>
       </c>
-      <c r="S6" s="195" t="s">
+      <c r="S6" s="145" t="s">
         <v>1490</v>
       </c>
-      <c r="T6" s="195" t="s">
+      <c r="T6" s="145" t="s">
         <v>1450</v>
       </c>
-      <c r="U6" s="211"/>
-      <c r="V6" s="211"/>
-      <c r="W6" s="211"/>
-      <c r="X6" s="211"/>
-      <c r="Y6" s="211"/>
-      <c r="Z6" s="211"/>
-      <c r="AA6" s="211"/>
-      <c r="AB6" s="211"/>
-      <c r="AC6" s="211"/>
-      <c r="AD6" s="211"/>
-      <c r="AE6" s="211"/>
-      <c r="AF6" s="211"/>
-      <c r="AG6" s="211"/>
-      <c r="AH6" s="211"/>
-      <c r="AI6" s="211"/>
-      <c r="AJ6" s="211"/>
-      <c r="AK6" s="211"/>
-      <c r="AL6" s="211"/>
-      <c r="AM6" s="211"/>
-      <c r="AN6" s="211"/>
-      <c r="AO6" s="211"/>
-      <c r="AP6" s="211"/>
-      <c r="AQ6" s="211"/>
-      <c r="AR6" s="211"/>
-      <c r="AS6" s="211"/>
-      <c r="AT6" s="211"/>
-      <c r="AU6" s="211"/>
-      <c r="AV6" s="211"/>
-      <c r="AW6" s="211"/>
-      <c r="AX6" s="211"/>
-      <c r="AY6" s="211"/>
-      <c r="AZ6" s="211"/>
-      <c r="BA6" s="211"/>
-      <c r="BB6" s="211"/>
-      <c r="BC6" s="211"/>
-      <c r="BD6" s="211"/>
-      <c r="BE6" s="211"/>
-      <c r="BF6" s="211"/>
-      <c r="BG6" s="211"/>
-      <c r="BH6" s="211"/>
-      <c r="BI6" s="211"/>
-      <c r="BJ6" s="211"/>
-      <c r="BK6" s="211"/>
-      <c r="BL6" s="211"/>
-      <c r="BM6" s="211"/>
-      <c r="BN6" s="211"/>
-      <c r="BO6" s="211"/>
-      <c r="BP6" s="211"/>
-      <c r="BQ6" s="211"/>
-      <c r="BR6" s="211"/>
-      <c r="BS6" s="211"/>
-      <c r="BT6" s="211"/>
-      <c r="BU6" s="211"/>
-      <c r="BV6" s="211"/>
-      <c r="BW6" s="211"/>
-      <c r="BX6" s="211"/>
-      <c r="BY6" s="211"/>
-      <c r="BZ6" s="211"/>
-      <c r="CA6" s="211"/>
-      <c r="CB6" s="211"/>
-      <c r="CC6" s="211"/>
-      <c r="CD6" s="211"/>
-      <c r="CE6" s="211"/>
-      <c r="CF6" s="211"/>
-      <c r="CG6" s="211"/>
-      <c r="CH6" s="211"/>
-      <c r="CI6" s="211"/>
-      <c r="CJ6" s="211"/>
-      <c r="CK6" s="211"/>
-      <c r="CL6" s="211"/>
-      <c r="CM6" s="211"/>
-      <c r="CN6" s="211"/>
-      <c r="CO6" s="211"/>
-      <c r="CP6" s="211"/>
-      <c r="CQ6" s="211"/>
-      <c r="CR6" s="211"/>
-      <c r="CS6" s="211"/>
-      <c r="CT6" s="211"/>
-      <c r="CU6" s="211"/>
-      <c r="CV6" s="211"/>
-      <c r="CW6" s="211"/>
-      <c r="CX6" s="211"/>
-      <c r="CY6" s="211"/>
-      <c r="CZ6" s="211"/>
-      <c r="DA6" s="211"/>
-      <c r="DB6" s="211"/>
+      <c r="U6" s="221"/>
+      <c r="V6" s="221"/>
+      <c r="W6" s="221"/>
+      <c r="X6" s="221"/>
+      <c r="Y6" s="221"/>
+      <c r="Z6" s="221"/>
+      <c r="AA6" s="221"/>
+      <c r="AB6" s="221"/>
+      <c r="AC6" s="221"/>
+      <c r="AD6" s="221"/>
+      <c r="AE6" s="221"/>
+      <c r="AF6" s="221"/>
+      <c r="AG6" s="221"/>
+      <c r="AH6" s="221"/>
+      <c r="AI6" s="221"/>
+      <c r="AJ6" s="221"/>
+      <c r="AK6" s="221"/>
+      <c r="AL6" s="221"/>
+      <c r="AM6" s="221"/>
+      <c r="AN6" s="221"/>
+      <c r="AO6" s="221"/>
+      <c r="AP6" s="221"/>
+      <c r="AQ6" s="221"/>
+      <c r="AR6" s="221"/>
+      <c r="AS6" s="221"/>
+      <c r="AT6" s="221"/>
+      <c r="AU6" s="221"/>
+      <c r="AV6" s="221"/>
+      <c r="AW6" s="221"/>
+      <c r="AX6" s="221"/>
+      <c r="AY6" s="221"/>
+      <c r="AZ6" s="221"/>
+      <c r="BA6" s="221"/>
+      <c r="BB6" s="221"/>
+      <c r="BC6" s="221"/>
+      <c r="BD6" s="221"/>
+      <c r="BE6" s="221"/>
+      <c r="BF6" s="221"/>
+      <c r="BG6" s="221"/>
+      <c r="BH6" s="221"/>
+      <c r="BI6" s="221"/>
+      <c r="BJ6" s="221"/>
+      <c r="BK6" s="221"/>
+      <c r="BL6" s="221"/>
+      <c r="BM6" s="221"/>
+      <c r="BN6" s="221"/>
+      <c r="BO6" s="221"/>
+      <c r="BP6" s="221"/>
+      <c r="BQ6" s="221"/>
+      <c r="BR6" s="221"/>
+      <c r="BS6" s="221"/>
+      <c r="BT6" s="221"/>
+      <c r="BU6" s="221"/>
+      <c r="BV6" s="221"/>
+      <c r="BW6" s="221"/>
+      <c r="BX6" s="221"/>
+      <c r="BY6" s="221"/>
+      <c r="BZ6" s="221"/>
+      <c r="CA6" s="221"/>
+      <c r="CB6" s="221"/>
+      <c r="CC6" s="221"/>
+      <c r="CD6" s="221"/>
+      <c r="CE6" s="221"/>
+      <c r="CF6" s="221"/>
+      <c r="CG6" s="221"/>
+      <c r="CH6" s="221"/>
+      <c r="CI6" s="221"/>
+      <c r="CJ6" s="221"/>
+      <c r="CK6" s="221"/>
+      <c r="CL6" s="221"/>
+      <c r="CM6" s="221"/>
+      <c r="CN6" s="221"/>
+      <c r="CO6" s="221"/>
+      <c r="CP6" s="221"/>
+      <c r="CQ6" s="221"/>
+      <c r="CR6" s="221"/>
+      <c r="CS6" s="221"/>
+      <c r="CT6" s="221"/>
+      <c r="CU6" s="221"/>
+      <c r="CV6" s="221"/>
+      <c r="CW6" s="221"/>
+      <c r="CX6" s="221"/>
+      <c r="CY6" s="221"/>
+      <c r="CZ6" s="221"/>
+      <c r="DA6" s="221"/>
+      <c r="DB6" s="221"/>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.3">
       <c r="A7" s="193" t="s">
@@ -28789,8 +28768,8 @@
   <dimension ref="A1:DB7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D8" sqref="D8"/>
+      <pane xSplit="2" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -29280,16 +29259,16 @@
       </c>
     </row>
     <row r="6" spans="1:106" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="225">
+      <c r="A6" s="218">
         <v>5</v>
       </c>
       <c r="B6" s="209" t="s">
         <v>1324</v>
       </c>
-      <c r="C6" s="216">
+      <c r="C6" s="196">
         <v>44115</v>
       </c>
-      <c r="D6" s="216">
+      <c r="D6" s="196">
         <v>44175</v>
       </c>
       <c r="E6" s="210" t="s">
@@ -29340,10 +29319,10 @@
       <c r="T6" s="195" t="s">
         <v>1491</v>
       </c>
-      <c r="U6" s="216">
+      <c r="U6" s="214">
         <v>44138</v>
       </c>
-      <c r="V6" s="216">
+      <c r="V6" s="214">
         <v>43255</v>
       </c>
       <c r="W6" s="195" t="s">
@@ -29365,7 +29344,7 @@
       <c r="AC6" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AD6" s="216">
+      <c r="AD6" s="214">
         <v>44145</v>
       </c>
       <c r="AF6" s="211"/>

--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6780" yWindow="10425" windowWidth="21600" windowHeight="5415" tabRatio="731" firstSheet="36" activeTab="38" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" firstSheet="34" activeTab="39" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -203,13 +203,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF505050"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -781,7 +774,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -823,7 +815,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="9"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1521,10 +1514,10 @@
         </is>
       </c>
       <c r="Y2" s="210" t="n"/>
-      <c r="Z2" s="230" t="n">
+      <c r="Z2" s="229" t="n">
         <v>2</v>
       </c>
-      <c r="AA2" s="230" t="n">
+      <c r="AA2" s="229" t="n">
         <v>3</v>
       </c>
       <c r="AB2" s="210" t="inlineStr">
@@ -3088,7 +3081,7 @@
       <c r="G2" s="145" t="n">
         <v>3000749</v>
       </c>
-      <c r="H2" s="230" t="n">
+      <c r="H2" s="229" t="n">
         <v>60001099</v>
       </c>
       <c r="I2" s="195" t="inlineStr">
@@ -3181,7 +3174,7 @@
           <t>Euro LIBOR Option</t>
         </is>
       </c>
-      <c r="AE2" s="226" t="n">
+      <c r="AE2" s="225" t="n">
         <v>1000000</v>
       </c>
       <c r="AF2" s="213" t="n">
@@ -3197,7 +3190,7 @@
           <t>Weekly</t>
         </is>
       </c>
-      <c r="AI2" s="228" t="n">
+      <c r="AI2" s="227" t="n">
         <v>2</v>
       </c>
       <c r="AJ2" s="211" t="inlineStr">
@@ -3205,7 +3198,7 @@
           <t>Weeks</t>
         </is>
       </c>
-      <c r="AK2" s="228" t="n">
+      <c r="AK2" s="227" t="n">
         <v>10</v>
       </c>
       <c r="AL2" s="213" t="n">
@@ -5791,8 +5784,8 @@
     <col width="22.7109375" bestFit="1" customWidth="1" style="195" min="67" max="67"/>
     <col width="25.28515625" customWidth="1" style="195" min="68" max="68"/>
     <col width="30.7109375" customWidth="1" style="195" min="69" max="69"/>
-    <col width="8.85546875" customWidth="1" style="202" min="70" max="81"/>
-    <col width="8.85546875" customWidth="1" style="202" min="82" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="202" min="70" max="85"/>
+    <col width="8.85546875" customWidth="1" style="202" min="86" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="110" thickBot="1">
@@ -6873,8 +6866,8 @@
     <col width="21.42578125" customWidth="1" style="195" min="16" max="16"/>
     <col width="22" customWidth="1" style="195" min="17" max="17"/>
     <col width="18" customWidth="1" style="195" min="18" max="19"/>
-    <col width="8.85546875" customWidth="1" style="202" min="20" max="31"/>
-    <col width="8.85546875" customWidth="1" style="202" min="32" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="202" min="20" max="35"/>
+    <col width="8.85546875" customWidth="1" style="202" min="36" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
@@ -7208,8 +7201,8 @@
     <col width="21.42578125" customWidth="1" style="195" min="13" max="13"/>
     <col width="17.85546875" customWidth="1" style="195" min="14" max="14"/>
     <col width="22" customWidth="1" style="195" min="15" max="16"/>
-    <col width="8.85546875" customWidth="1" style="202" min="17" max="28"/>
-    <col width="8.85546875" customWidth="1" style="202" min="29" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="202" min="17" max="32"/>
+    <col width="8.85546875" customWidth="1" style="202" min="33" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="127">
@@ -7525,8 +7518,8 @@
     <col width="36.7109375" customWidth="1" style="195" min="55" max="55"/>
     <col width="35.85546875" customWidth="1" style="195" min="56" max="56"/>
     <col width="26.5703125" customWidth="1" style="195" min="57" max="58"/>
-    <col width="8.85546875" customWidth="1" style="202" min="59" max="70"/>
-    <col width="8.85546875" customWidth="1" style="202" min="71" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="202" min="59" max="74"/>
+    <col width="8.85546875" customWidth="1" style="202" min="75" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="120">
@@ -24335,9 +24328,9 @@
   <dimension ref="A1:DB7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="CU1" activePane="topRight" state="frozen"/>
       <selection activeCell="CV15" sqref="CV15"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="topRight" activeCell="CY3" sqref="CY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -24447,8 +24440,8 @@
     <col width="25.28515625" bestFit="1" customWidth="1" style="170" min="104" max="104"/>
     <col width="27.5703125" bestFit="1" customWidth="1" style="170" min="105" max="105"/>
     <col width="43.42578125" bestFit="1" customWidth="1" style="170" min="106" max="106"/>
-    <col width="8.85546875" customWidth="1" style="170" min="107" max="120"/>
-    <col width="8.85546875" customWidth="1" style="170" min="121" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="170" min="107" max="124"/>
+    <col width="8.85546875" customWidth="1" style="170" min="125" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="163" thickBot="1">
@@ -25969,9 +25962,9 @@
       <c r="CX3" s="196" t="n">
         <v>43979</v>
       </c>
-      <c r="CY3" s="205" t="inlineStr">
-        <is>
-          <t>JJ</t>
+      <c r="CY3" s="177" t="inlineStr">
+        <is>
+          <t>MC</t>
         </is>
       </c>
       <c r="CZ3" s="205" t="inlineStr">
@@ -25991,27 +25984,27 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="180" t="inlineStr">
+      <c r="A4" s="193" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="171" t="inlineStr">
+      <c r="B4" s="194" t="inlineStr">
         <is>
           <t>COMSEE_SCENARIO_07</t>
         </is>
       </c>
-      <c r="C4" s="170" t="inlineStr">
-        <is>
-          <t>3000790</t>
-        </is>
-      </c>
-      <c r="D4" s="171" t="inlineStr">
+      <c r="C4" s="195" t="inlineStr">
+        <is>
+          <t>3000584</t>
+        </is>
+      </c>
+      <c r="D4" s="194" t="inlineStr">
         <is>
           <t>rodel</t>
         </is>
       </c>
-      <c r="E4" s="172" t="inlineStr">
+      <c r="E4" s="203" t="inlineStr">
         <is>
           <t>\DataSet\API_DataSet\Input\ComSee\</t>
         </is>
@@ -26021,481 +26014,470 @@
           <t>EU_COM_RES_07</t>
         </is>
       </c>
-      <c r="G4" s="170" t="inlineStr">
+      <c r="G4" s="195" t="inlineStr">
         <is>
           <t>2019-10-12</t>
         </is>
       </c>
-      <c r="H4" s="170" t="inlineStr">
-        <is>
-          <t>COMSEE_SC7_02102020203942</t>
-        </is>
-      </c>
-      <c r="I4" s="170" t="inlineStr">
-        <is>
-          <t>1000951</t>
-        </is>
-      </c>
-      <c r="J4" s="170" t="inlineStr">
-        <is>
-          <t>2021-01-18</t>
-        </is>
-      </c>
-      <c r="K4" s="170" t="inlineStr">
+      <c r="H4" s="195" t="inlineStr">
+        <is>
+          <t>COMSEE_SC7_28102020183419</t>
+        </is>
+      </c>
+      <c r="I4" s="195" t="inlineStr">
+        <is>
+          <t>1000679</t>
+        </is>
+      </c>
+      <c r="J4" s="197" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="K4" s="195" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="L4" s="171" t="inlineStr">
+      <c r="L4" s="194" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="M4" s="170" t="inlineStr">
+      <c r="M4" s="195" t="inlineStr">
         <is>
           <t>EUOPS</t>
         </is>
       </c>
-      <c r="N4" s="170" t="inlineStr">
-        <is>
-          <t>Non-Agency Australia</t>
-        </is>
-      </c>
-      <c r="O4" s="173" t="inlineStr">
+      <c r="N4" s="195" t="inlineStr">
+        <is>
+          <t>Team Amsterdam</t>
+        </is>
+      </c>
+      <c r="O4" s="200" t="inlineStr">
         <is>
           <t>BP_CML</t>
         </is>
       </c>
-      <c r="P4" s="170" t="inlineStr">
+      <c r="P4" s="195" t="inlineStr">
         <is>
           <t>Commercial Lending</t>
         </is>
       </c>
-      <c r="Q4" s="170" t="n">
+      <c r="Q4" s="195" t="n">
         <v>1</v>
       </c>
-      <c r="R4" s="170" t="n">
+      <c r="R4" s="195" t="n">
         <v>1</v>
       </c>
-      <c r="S4" s="170" t="n">
-        <v>1</v>
-      </c>
-      <c r="T4" s="170" t="inlineStr">
+      <c r="S4" s="195" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" s="195" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="U4" s="170" t="inlineStr">
+      <c r="U4" s="195" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="V4" s="170" t="inlineStr">
+      <c r="V4" s="195" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="W4" s="170" t="inlineStr">
+      <c r="W4" s="195" t="inlineStr">
         <is>
           <t>GLB</t>
         </is>
       </c>
-      <c r="X4" s="173" t="inlineStr">
+      <c r="X4" s="200" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
       </c>
-      <c r="Y4" s="174" t="inlineStr">
+      <c r="Y4" s="198" t="inlineStr">
         <is>
           <t>COMSEE_SC7_</t>
         </is>
       </c>
-      <c r="Z4" s="174" t="inlineStr">
+      <c r="Z4" s="198" t="inlineStr">
         <is>
           <t>CS7</t>
         </is>
       </c>
-      <c r="AA4" s="170" t="inlineStr">
+      <c r="AA4" s="195" t="inlineStr">
         <is>
           <t>S724062019190029CNO</t>
         </is>
       </c>
-      <c r="AB4" s="170" t="inlineStr">
-        <is>
-          <t>CSSC7_TERM02102020204739</t>
-        </is>
-      </c>
-      <c r="AC4" s="173" t="inlineStr">
+      <c r="AB4" s="195" t="inlineStr">
+        <is>
+          <t>CSSC7_TERM28102020184955</t>
+        </is>
+      </c>
+      <c r="AC4" s="200" t="inlineStr">
         <is>
           <t>Sales Group 1</t>
         </is>
       </c>
-      <c r="AD4" s="170" t="inlineStr">
+      <c r="AD4" s="195" t="inlineStr">
         <is>
           <t>SE LTD 0913539</t>
         </is>
       </c>
-      <c r="AE4" s="170" t="inlineStr">
-        <is>
-          <t>Melbourne, VIC,Australia</t>
-        </is>
-      </c>
-      <c r="AF4" s="173" t="inlineStr">
-        <is>
-          <t>JJ</t>
-        </is>
-      </c>
-      <c r="AG4" s="173" t="inlineStr">
+      <c r="AE4" s="195" t="inlineStr">
+        <is>
+          <t>Amsterdam, Netherlands</t>
+        </is>
+      </c>
+      <c r="AF4" s="200" t="inlineStr">
+        <is>
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="AG4" s="200" t="inlineStr">
         <is>
           <t>GCP</t>
         </is>
       </c>
-      <c r="AH4" s="173" t="inlineStr">
+      <c r="AH4" s="200" t="inlineStr">
         <is>
           <t>General Corp Purpose</t>
         </is>
       </c>
-      <c r="AI4" s="173" t="inlineStr">
+      <c r="AI4" s="200" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="AJ4" s="173" t="inlineStr">
+      <c r="AJ4" s="200" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="AK4" s="173" t="inlineStr">
-        <is>
-          <t>BUSINESS VERIFICATION</t>
-        </is>
-      </c>
-      <c r="AL4" s="173" t="inlineStr">
+      <c r="AK4" s="200" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="AL4" s="210" t="inlineStr">
         <is>
           <t>Lending,${SPACE}${SPACE}Operations</t>
         </is>
       </c>
-      <c r="AM4" s="173" t="inlineStr">
-        <is>
-          <t>BUSINESS VERIFICATION</t>
-        </is>
-      </c>
-      <c r="AN4" s="173" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="AO4" s="173" t="inlineStr">
+      <c r="AM4" s="200" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="AN4" s="200" t="inlineStr">
+        <is>
+          <t>IMT</t>
+        </is>
+      </c>
+      <c r="AO4" s="200" t="inlineStr">
         <is>
           <t>10,000,000.00</t>
         </is>
       </c>
-      <c r="AP4" s="173" t="inlineStr">
-        <is>
-          <t>Sydney, Australia</t>
-        </is>
-      </c>
-      <c r="AQ4" s="176" t="inlineStr">
+      <c r="AP4" s="200" t="inlineStr">
+        <is>
+          <t>Amsterdam, Netherlands</t>
+        </is>
+      </c>
+      <c r="AQ4" s="204" t="inlineStr">
         <is>
           <t>Fixed Rate Option</t>
         </is>
       </c>
-      <c r="AR4" s="173" t="inlineStr">
+      <c r="AR4" s="200" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="AS4" s="173" t="inlineStr">
+      <c r="AS4" s="200" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AT4" s="173" t="inlineStr">
+      <c r="AT4" s="200" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="AU4" s="173" t="inlineStr">
+      <c r="AU4" s="200" t="inlineStr">
         <is>
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="AV4" s="173" t="inlineStr">
+      <c r="AV4" s="200" t="inlineStr">
         <is>
           <t>Start of current cycle</t>
         </is>
       </c>
-      <c r="AW4" s="170" t="inlineStr">
+      <c r="AW4" s="195" t="inlineStr">
         <is>
           <t>Start of next interest cycle</t>
         </is>
       </c>
-      <c r="AX4" s="170" t="n">
+      <c r="AX4" s="195" t="n">
         <v>2</v>
       </c>
-      <c r="AY4" s="173" t="inlineStr">
+      <c r="AY4" s="200" t="inlineStr">
         <is>
           <t>Line Fee</t>
         </is>
       </c>
-      <c r="AZ4" s="173" t="inlineStr">
+      <c r="AZ4" s="200" t="inlineStr">
         <is>
           <t>Effective date of change</t>
         </is>
       </c>
-      <c r="BA4" s="173" t="inlineStr">
+      <c r="BA4" s="200" t="inlineStr">
         <is>
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="BB4" s="170" t="n">
+      <c r="BB4" s="195" t="n">
         <v>2</v>
       </c>
-      <c r="BC4" s="170" t="inlineStr">
+      <c r="BC4" s="195" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="BD4" s="173" t="inlineStr">
+      <c r="BD4" s="200" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="BE4" s="173" t="inlineStr">
+      <c r="BE4" s="200" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="BF4" s="173" t="inlineStr">
+      <c r="BF4" s="200" t="inlineStr">
         <is>
           <t>IT_COL</t>
         </is>
       </c>
-      <c r="BG4" s="170" t="inlineStr">
+      <c r="BG4" s="195" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="BH4" s="170" t="n">
+      <c r="BH4" s="195" t="n">
         <v>100</v>
       </c>
-      <c r="BI4" s="170" t="n">
+      <c r="BI4" s="195" t="n">
         <v>100</v>
       </c>
-      <c r="BJ4" s="170" t="inlineStr">
+      <c r="BJ4" s="195" t="inlineStr">
         <is>
           <t>Add Comment</t>
         </is>
       </c>
-      <c r="BK4" s="173" t="inlineStr">
-        <is>
-          <t>Business Verification,${SPACE}${SPACE}BVT</t>
-        </is>
-      </c>
-      <c r="BL4" s="170" t="inlineStr">
+      <c r="BK4" s="200" t="inlineStr">
+        <is>
+          <t>Loan,${SPACE}${SPACE}Operations</t>
+        </is>
+      </c>
+      <c r="BL4" s="195" t="inlineStr">
         <is>
           <t>LENDING</t>
         </is>
       </c>
-      <c r="BM4" s="173" t="inlineStr">
-        <is>
-          <t>Hold for Investment - Australia</t>
-        </is>
-      </c>
-      <c r="BN4" s="173" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia - DBU</t>
-        </is>
-      </c>
-      <c r="BO4" s="173" t="inlineStr">
+      <c r="BM4" s="200" t="inlineStr">
+        <is>
+          <t>Hold for Investment - Europe</t>
+        </is>
+      </c>
+      <c r="BN4" s="200" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
+        </is>
+      </c>
+      <c r="BO4" s="200" t="inlineStr">
         <is>
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="BP4" s="173" t="inlineStr">
+      <c r="BP4" s="200" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="BQ4" s="170" t="inlineStr">
-        <is>
-          <t>18-Jan-2022</t>
-        </is>
-      </c>
-      <c r="BR4" s="170" t="inlineStr">
-        <is>
-          <t>27-Dec-2018</t>
-        </is>
-      </c>
-      <c r="BT4" s="177" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia -DBU</t>
-        </is>
-      </c>
-      <c r="BU4" s="177" t="inlineStr">
+      <c r="BQ4" s="196" t="inlineStr">
+        <is>
+          <t>07-Jul-2021</t>
+        </is>
+      </c>
+      <c r="BR4" s="196" t="n">
+        <v>44192</v>
+      </c>
+      <c r="BS4" s="195" t="n"/>
+      <c r="BT4" s="205" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
+        </is>
+      </c>
+      <c r="BU4" s="205" t="inlineStr">
         <is>
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="BV4" s="177" t="inlineStr">
+      <c r="BV4" s="205" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="BW4" s="177" t="inlineStr">
+      <c r="BW4" s="205" t="inlineStr">
         <is>
           <t>ZOE</t>
         </is>
       </c>
-      <c r="BX4" s="177" t="inlineStr">
+      <c r="BX4" s="205" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="BY4" s="177" t="inlineStr">
+      <c r="BY4" s="205" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="BZ4" s="177" t="inlineStr">
+      <c r="BZ4" s="205" t="inlineStr">
         <is>
           <t>100.000000%</t>
         </is>
       </c>
-      <c r="CA4" s="177" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank Australia - DBU</t>
+      <c r="CA4" s="205" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank Australia - AMS</t>
         </is>
       </c>
       <c r="CB4" s="178" t="inlineStr">
         <is>
-          <t>FJAPR01</t>
+          <t>ARFELS02</t>
         </is>
       </c>
       <c r="CC4" s="179" t="inlineStr">
         <is>
-          <t>password1</t>
+          <t>ARFEL_20</t>
         </is>
       </c>
       <c r="CD4" s="178" t="inlineStr">
         <is>
-          <t>FJUSR01</t>
+          <t>ARFELI02</t>
         </is>
       </c>
       <c r="CE4" s="179" t="inlineStr">
         <is>
-          <t>password1</t>
+          <t>ARFEL_20</t>
         </is>
       </c>
       <c r="CF4" s="178" t="inlineStr">
         <is>
-          <t>FJMGR01</t>
+          <t>ARFELM02</t>
         </is>
       </c>
       <c r="CG4" s="178" t="inlineStr">
         <is>
-          <t>password1</t>
-        </is>
-      </c>
-      <c r="CH4" s="170" t="inlineStr">
-        <is>
-          <t>27-Dec-2018</t>
-        </is>
-      </c>
-      <c r="CI4" s="170" t="inlineStr">
-        <is>
-          <t>27-Dec-2018</t>
-        </is>
+          <t>ARFEL_20</t>
+        </is>
+      </c>
+      <c r="CH4" s="196" t="n">
+        <v>43980</v>
+      </c>
+      <c r="CI4" s="196" t="n">
+        <v>43980</v>
       </c>
       <c r="CJ4" s="177" t="inlineStr">
         <is>
-          <t>COMMONWEALTH% DBU</t>
+          <t>COMMONWEALTH%AMSTERDAM</t>
         </is>
       </c>
       <c r="CK4" s="177" t="inlineStr">
         <is>
-          <t>COMMONWEALTH BANK OF AUSTRALIA - DBU</t>
-        </is>
-      </c>
-      <c r="CL4" s="177" t="inlineStr">
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
+        </is>
+      </c>
+      <c r="CL4" s="205" t="inlineStr">
         <is>
           <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
         </is>
       </c>
-      <c r="CM4" s="177" t="inlineStr">
+      <c r="CM4" s="205" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="CN4" s="177" t="inlineStr">
+      <c r="CN4" s="205" t="inlineStr">
         <is>
           <t>Actual</t>
         </is>
       </c>
-      <c r="CO4" s="177" t="inlineStr">
+      <c r="CO4" s="205" t="inlineStr">
         <is>
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="CP4" s="177" t="inlineStr">
+      <c r="CP4" s="205" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="CQ4" s="177" t="inlineStr">
+      <c r="CQ4" s="205" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="CR4" s="177" t="inlineStr">
-        <is>
-          <t>BLOGGS</t>
-        </is>
-      </c>
-      <c r="CS4" s="177" t="inlineStr">
-        <is>
-          <t>Bloggs,  John</t>
-        </is>
-      </c>
-      <c r="CT4" s="177" t="inlineStr">
+      <c r="CR4" s="205" t="inlineStr">
+        <is>
+          <t>CAMPOMANES</t>
+        </is>
+      </c>
+      <c r="CS4" s="205" t="inlineStr">
+        <is>
+          <t>Campomanes,  Makee</t>
+        </is>
+      </c>
+      <c r="CT4" s="205" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="CU4" s="170" t="inlineStr">
-        <is>
-          <t>27-Dec-2018</t>
-        </is>
-      </c>
-      <c r="CV4" s="170" t="inlineStr">
-        <is>
-          <t>27-Dec-2018</t>
-        </is>
-      </c>
-      <c r="CW4" s="174" t="n"/>
-      <c r="CX4" s="170" t="inlineStr">
-        <is>
-          <t>27-Dec-2018</t>
-        </is>
+      <c r="CU4" s="196" t="n">
+        <v>43979</v>
+      </c>
+      <c r="CV4" s="196" t="n">
+        <v>43979</v>
+      </c>
+      <c r="CW4" s="198" t="n"/>
+      <c r="CX4" s="196" t="n">
+        <v>43979</v>
       </c>
       <c r="CY4" s="177" t="inlineStr">
         <is>
-          <t>JJ</t>
-        </is>
-      </c>
-      <c r="CZ4" s="177" t="inlineStr">
+          <t>MC</t>
+        </is>
+      </c>
+      <c r="CZ4" s="205" t="inlineStr">
         <is>
           <t>Origination</t>
         </is>
       </c>
-      <c r="DA4" s="177" t="inlineStr">
+      <c r="DA4" s="205" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
       <c r="DB4" s="177" t="inlineStr">
         <is>
-          <t>COMMONWEALTH BANK AUST -DBU</t>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
     </row>
@@ -26510,7 +26492,7 @@
           <t>COMSEE_SCENARIO_07</t>
         </is>
       </c>
-      <c r="C5" s="234" t="inlineStr">
+      <c r="C5" s="233" t="inlineStr">
         <is>
           <t>3000735</t>
         </is>
@@ -27474,9 +27456,9 @@
       <c r="CX6" s="215" t="n">
         <v>43461</v>
       </c>
-      <c r="CY6" s="211" t="inlineStr">
-        <is>
-          <t>JJ</t>
+      <c r="CY6" s="177" t="inlineStr">
+        <is>
+          <t>MC</t>
         </is>
       </c>
       <c r="CZ6" s="211" t="inlineStr">
@@ -28020,11 +28002,11 @@
   <dimension ref="A1:DB7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AJ2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="CV15" sqref="CV15"/>
       <selection pane="topRight" activeCell="CV15" sqref="CV15"/>
       <selection pane="bottomLeft" activeCell="CV15" sqref="CV15"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -28079,8 +28061,8 @@
     <col width="24.7109375" customWidth="1" style="170" min="49" max="49"/>
     <col width="25.5703125" customWidth="1" style="170" min="50" max="50"/>
     <col width="24.42578125" customWidth="1" style="170" min="51" max="51"/>
-    <col width="8.85546875" customWidth="1" style="170" min="52" max="65"/>
-    <col width="8.85546875" customWidth="1" style="170" min="66" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="170" min="52" max="69"/>
+    <col width="8.85546875" customWidth="1" style="170" min="70" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="182" thickBot="1">
@@ -28824,244 +28806,239 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" s="202">
-      <c r="A4" s="180" t="inlineStr">
+      <c r="A4" s="193" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B4" s="171" t="inlineStr">
+      <c r="B4" s="194" t="inlineStr">
         <is>
           <t>COMSEE_SCENARIO_07</t>
         </is>
       </c>
-      <c r="C4" s="170" t="inlineStr">
-        <is>
-          <t>CSSC7_TERM02102020204739</t>
-        </is>
-      </c>
-      <c r="D4" s="170" t="inlineStr">
-        <is>
-          <t>3000790</t>
-        </is>
-      </c>
-      <c r="E4" s="170" t="inlineStr">
-        <is>
-          <t>2021-01-18</t>
-        </is>
-      </c>
-      <c r="F4" s="170" t="inlineStr">
-        <is>
-          <t>2022-02-17</t>
-        </is>
-      </c>
-      <c r="G4" s="170" t="inlineStr">
+      <c r="C4" s="195" t="inlineStr">
+        <is>
+          <t>CSSC7_TERM28102020184955</t>
+        </is>
+      </c>
+      <c r="D4" s="195" t="inlineStr">
+        <is>
+          <t>3000584</t>
+        </is>
+      </c>
+      <c r="E4" s="196" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="F4" s="196" t="inlineStr">
+        <is>
+          <t>2021-08-06</t>
+        </is>
+      </c>
+      <c r="G4" s="195" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="H4" s="170" t="b">
+      <c r="H4" s="195" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="170" t="inlineStr">
+      <c r="I4" s="195" t="inlineStr">
         <is>
           <t>Term</t>
         </is>
       </c>
-      <c r="J4" s="170" t="inlineStr">
+      <c r="J4" s="195" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="K4" s="170" t="inlineStr">
+      <c r="K4" s="195" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="L4" s="170" t="inlineStr">
+      <c r="L4" s="195" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="M4" s="170" t="inlineStr">
+      <c r="M4" s="195" t="inlineStr">
         <is>
           <t>IT_COL|Corporate Lending</t>
         </is>
       </c>
-      <c r="N4" s="170" t="inlineStr">
+      <c r="N4" s="195" t="inlineStr">
         <is>
           <t>EUOPS</t>
         </is>
       </c>
-      <c r="O4" s="170" t="inlineStr">
-        <is>
-          <t>Non-Agency Australia</t>
-        </is>
-      </c>
-      <c r="P4" s="170" t="n">
+      <c r="O4" s="195" t="inlineStr">
+        <is>
+          <t>Team Amsterdam</t>
+        </is>
+      </c>
+      <c r="P4" s="195" t="n">
         <v>1</v>
       </c>
-      <c r="Q4" s="170" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="170" t="n">
+      <c r="Q4" s="195" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" s="195" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="170" t="inlineStr">
+      <c r="S4" s="195" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="T4" s="170" t="inlineStr">
+      <c r="T4" s="195" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="U4" s="170" t="inlineStr">
+      <c r="U4" s="195" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="V4" s="170" t="inlineStr">
+      <c r="V4" s="195" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="W4" s="170" t="inlineStr">
+      <c r="W4" s="195" t="inlineStr">
         <is>
           <t>100000.00</t>
         </is>
       </c>
-      <c r="X4" s="170" t="inlineStr">
-        <is>
-          <t>HFIAU</t>
-        </is>
-      </c>
-      <c r="Y4" s="170" t="inlineStr">
-        <is>
-          <t>Hold for Investment - Australia</t>
-        </is>
-      </c>
-      <c r="Z4" s="170" t="inlineStr">
-        <is>
-          <t>CB001</t>
-        </is>
-      </c>
-      <c r="AA4" s="170" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia - DBU</t>
-        </is>
-      </c>
-      <c r="AB4" s="170" t="inlineStr">
+      <c r="X4" s="195" t="inlineStr">
+        <is>
+          <t>HFIEU</t>
+        </is>
+      </c>
+      <c r="Y4" s="195" t="inlineStr">
+        <is>
+          <t>Hold for Investment - Europe</t>
+        </is>
+      </c>
+      <c r="Z4" s="195" t="inlineStr">
+        <is>
+          <t>CG852</t>
+        </is>
+      </c>
+      <c r="AA4" s="195" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
+        </is>
+      </c>
+      <c r="AB4" s="195" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="AC4" s="170" t="inlineStr">
-        <is>
-          <t>Australian (Sydney)</t>
-        </is>
-      </c>
-      <c r="AD4" s="170" t="inlineStr">
-        <is>
-          <t>2022-01-18</t>
-        </is>
-      </c>
-      <c r="AE4" s="174" t="inlineStr">
+      <c r="AC4" s="195" t="inlineStr">
+        <is>
+          <t>Europe (Amsterdam)</t>
+        </is>
+      </c>
+      <c r="AD4" s="197" t="inlineStr">
+        <is>
+          <t>2021-07-07</t>
+        </is>
+      </c>
+      <c r="AE4" s="198" t="inlineStr">
         <is>
           <t>CSSC7_TERM</t>
         </is>
       </c>
-      <c r="AF4" s="170" t="inlineStr">
-        <is>
-          <t>COMSEE_SC7_02102020203942</t>
-        </is>
-      </c>
-      <c r="AG4" s="170" t="inlineStr">
+      <c r="AF4" s="195" t="inlineStr">
+        <is>
+          <t>COMSEE_SC7_28102020183419</t>
+        </is>
+      </c>
+      <c r="AG4" s="195" t="inlineStr">
         <is>
           <t>S124062019191047FMB</t>
         </is>
       </c>
-      <c r="AH4" s="184" t="inlineStr">
+      <c r="AH4" s="199" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="AI4" s="184" t="inlineStr">
+      <c r="AI4" s="199" t="inlineStr">
         <is>
           <t>100,000.00</t>
         </is>
       </c>
-      <c r="AK4" s="170" t="inlineStr">
-        <is>
-          <t>27-Dec-2018</t>
-        </is>
-      </c>
-      <c r="AL4" s="170" t="inlineStr">
-        <is>
-          <t>16-Aug-2019</t>
-        </is>
-      </c>
-      <c r="AM4" s="170" t="inlineStr">
-        <is>
-          <t>15-Sep-2019</t>
-        </is>
-      </c>
-      <c r="AN4" s="173" t="inlineStr">
-        <is>
-          <t>BUSINESS VERIFICATION</t>
-        </is>
-      </c>
-      <c r="AO4" s="173" t="inlineStr">
+      <c r="AJ4" s="195" t="n"/>
+      <c r="AK4" s="196" t="n">
+        <v>43980</v>
+      </c>
+      <c r="AL4" s="196" t="n">
+        <v>44345</v>
+      </c>
+      <c r="AM4" s="196" t="n">
+        <v>44454</v>
+      </c>
+      <c r="AN4" s="200" t="inlineStr">
+        <is>
+          <t>LOAN</t>
+        </is>
+      </c>
+      <c r="AO4" s="200" t="inlineStr">
         <is>
           <t>CBA AMSTERDAM</t>
         </is>
       </c>
-      <c r="AP4" s="184" t="inlineStr">
+      <c r="AP4" s="199" t="inlineStr">
         <is>
           <t>Fixed Rate Loan</t>
         </is>
       </c>
-      <c r="AQ4" s="184" t="inlineStr">
+      <c r="AQ4" s="199" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AR4" s="184" t="inlineStr">
+      <c r="AR4" s="199" t="inlineStr">
         <is>
           <t>Acquisitions</t>
         </is>
       </c>
-      <c r="AS4" s="170" t="inlineStr">
+      <c r="AS4" s="195" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AT4" s="170" t="inlineStr">
-        <is>
-          <t>Commonwealth Bank of Australia</t>
-        </is>
-      </c>
-      <c r="AU4" s="170" t="inlineStr">
+      <c r="AT4" s="195" t="inlineStr">
+        <is>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
+        </is>
+      </c>
+      <c r="AU4" s="195" t="inlineStr">
         <is>
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="AV4" s="170" t="inlineStr">
+      <c r="AV4" s="195" t="inlineStr">
         <is>
           <t>SE LTD 0913539</t>
         </is>
       </c>
-      <c r="AW4" s="170" t="inlineStr">
+      <c r="AW4" s="195" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AX4" s="170" t="inlineStr">
-        <is>
-          <t>BLOGGS</t>
-        </is>
-      </c>
-      <c r="AY4" s="185" t="inlineStr">
+      <c r="AX4" s="195" t="inlineStr">
+        <is>
+          <t>CAMPOMANES</t>
+        </is>
+      </c>
+      <c r="AY4" s="201" t="inlineStr">
         <is>
           <t>100.000000%</t>
         </is>
@@ -29250,7 +29227,7 @@
           <t>15-Sep-2019</t>
         </is>
       </c>
-      <c r="AN5" s="235" t="inlineStr">
+      <c r="AN5" s="234" t="inlineStr">
         <is>
           <t>LOAN</t>
         </is>
@@ -29325,14 +29302,20 @@
           <t>CSSC7_TERM06112020101111</t>
         </is>
       </c>
-      <c r="D6" s="195" t="n">
-        <v>3000665</v>
-      </c>
-      <c r="E6" s="197" t="n">
-        <v>44138</v>
-      </c>
-      <c r="F6" s="197" t="n">
-        <v>44533</v>
+      <c r="D6" s="218" t="inlineStr">
+        <is>
+          <t>3000665</t>
+        </is>
+      </c>
+      <c r="E6" s="235" t="inlineStr">
+        <is>
+          <t>2020-11-03</t>
+        </is>
+      </c>
+      <c r="F6" s="235" t="inlineStr">
+        <is>
+          <t>2021-12-03</t>
+        </is>
       </c>
       <c r="G6" s="195" t="inlineStr">
         <is>
@@ -29855,10 +29838,10 @@
   <dimension ref="A1:DB7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -29902,8 +29885,8 @@
     <col width="23.42578125" bestFit="1" customWidth="1" style="170" min="39" max="39"/>
     <col width="26.7109375" bestFit="1" customWidth="1" style="170" min="40" max="40"/>
     <col width="26.5703125" bestFit="1" customWidth="1" style="170" min="41" max="41"/>
-    <col width="8.85546875" customWidth="1" style="170" min="42" max="55"/>
-    <col width="8.85546875" customWidth="1" style="170" min="56" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="170" min="42" max="59"/>
+    <col width="8.85546875" customWidth="1" style="170" min="60" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="188">
@@ -30231,7 +30214,7 @@
       </c>
       <c r="X2" s="184" t="inlineStr">
         <is>
-          <t>Line Fee</t>
+          <t>Line Fee In Arrears</t>
         </is>
       </c>
       <c r="Y2" s="191" t="inlineStr">
@@ -30438,7 +30421,7 @@
       </c>
       <c r="X3" s="184" t="inlineStr">
         <is>
-          <t>Line Fee</t>
+          <t>Line Fee In Arrears</t>
         </is>
       </c>
       <c r="Y3" s="191" t="inlineStr">
@@ -30550,87 +30533,92 @@
       </c>
       <c r="E4" s="170" t="inlineStr">
         <is>
-          <t>3000790</t>
+          <t>3000584</t>
         </is>
       </c>
       <c r="F4" s="170" t="inlineStr">
         <is>
+          <t>0913539</t>
+        </is>
+      </c>
+      <c r="G4" s="170" t="inlineStr">
+        <is>
+          <t>V2</t>
+        </is>
+      </c>
+      <c r="H4" s="170" t="inlineStr">
+        <is>
+          <t>CSSC7_TERM28102020184955</t>
+        </is>
+      </c>
+      <c r="I4" s="170" t="inlineStr">
+        <is>
+          <t>ONG000000000494</t>
+        </is>
+      </c>
+      <c r="J4" s="170" t="inlineStr">
+        <is>
+          <t>Released</t>
+        </is>
+      </c>
+      <c r="K4" s="170" t="inlineStr">
+        <is>
+          <t>Line Fee In Arrears</t>
+        </is>
+      </c>
+      <c r="L4" s="170" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="M4" s="170" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G4" s="170" t="inlineStr">
-        <is>
-          <t>V2</t>
-        </is>
-      </c>
-      <c r="H4" s="170" t="inlineStr">
-        <is>
-          <t>CSSC7_TERM02102020204739</t>
-        </is>
-      </c>
-      <c r="I4" s="170" t="inlineStr">
-        <is>
-          <t>ONG000000000538</t>
-        </is>
-      </c>
-      <c r="J4" s="170" t="inlineStr">
-        <is>
-          <t>Released</t>
-        </is>
-      </c>
-      <c r="K4" s="170" t="inlineStr">
-        <is>
-          <t>Line Fee</t>
-        </is>
-      </c>
-      <c r="L4" s="170" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
-      <c r="M4" s="170" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="N4" s="170" t="inlineStr">
         <is>
-          <t>2021-01-18</t>
+          <t>2020-07-07</t>
         </is>
       </c>
       <c r="O4" s="170" t="inlineStr">
         <is>
-          <t>2022-02-17</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="P4" s="170" t="inlineStr">
         <is>
-          <t>2021-01-25</t>
+          <t>2020-12-15</t>
         </is>
       </c>
       <c r="Q4" s="170" t="inlineStr">
         <is>
-          <t>2021-01-18</t>
+          <t>2020-12-08</t>
         </is>
       </c>
       <c r="R4" s="170" t="inlineStr">
         <is>
-          <t>2021-01-24</t>
+          <t>2020-12-14</t>
         </is>
       </c>
       <c r="S4" s="170" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>1720.51</t>
+        </is>
+      </c>
+      <c r="T4" s="170" t="inlineStr">
+        <is>
+          <t>3414.88</t>
         </is>
       </c>
       <c r="U4" s="170" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>76.71</t>
         </is>
       </c>
       <c r="V4" s="170" t="inlineStr">
         <is>
-          <t>CSSC7_TERM02102020204739</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="W4" s="184" t="inlineStr">
@@ -30640,7 +30628,7 @@
       </c>
       <c r="X4" s="184" t="inlineStr">
         <is>
-          <t>Line Fee</t>
+          <t>Line Fee In Arrears</t>
         </is>
       </c>
       <c r="Y4" s="191" t="inlineStr">
@@ -30750,7 +30738,7 @@
           <t>EU_COM_RES_07_V2</t>
         </is>
       </c>
-      <c r="E5" s="234" t="inlineStr">
+      <c r="E5" s="233" t="inlineStr">
         <is>
           <t>3000735</t>
         </is>
@@ -30847,7 +30835,7 @@
       </c>
       <c r="X5" s="184" t="inlineStr">
         <is>
-          <t>Line Fee</t>
+          <t>Line Fee In Arrears</t>
         </is>
       </c>
       <c r="Y5" s="191" t="inlineStr">
@@ -31038,9 +31026,9 @@
           <t>Facility Ongoing Fee</t>
         </is>
       </c>
-      <c r="X6" s="210" t="inlineStr">
-        <is>
-          <t>Line Fee</t>
+      <c r="X6" s="184" t="inlineStr">
+        <is>
+          <t>Line Fee In Arrears</t>
         </is>
       </c>
       <c r="Y6" s="216" t="inlineStr">
@@ -31312,7 +31300,7 @@
       </c>
       <c r="X7" s="184" t="inlineStr">
         <is>
-          <t>Line Fee</t>
+          <t>Line Fee In Arrears</t>
         </is>
       </c>
       <c r="Y7" s="191" t="inlineStr">
@@ -31416,8 +31404,8 @@
   </sheetPr>
   <dimension ref="A1:DC7"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N4"/>
+    <sheetView topLeftCell="AP1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -31854,9 +31842,9 @@
           <t>3000565</t>
         </is>
       </c>
-      <c r="F2" s="195" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="F2" s="218" t="inlineStr">
+        <is>
+          <t>0913539</t>
         </is>
       </c>
       <c r="G2" s="195" t="inlineStr">
@@ -32110,9 +32098,9 @@
           <t>3000584</t>
         </is>
       </c>
-      <c r="F3" s="195" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="F3" s="218" t="inlineStr">
+        <is>
+          <t>0913539</t>
         </is>
       </c>
       <c r="G3" s="195" t="inlineStr">
@@ -32335,10 +32323,10 @@
         </is>
       </c>
     </row>
-    <row r="4" s="202">
+    <row r="4">
       <c r="A4" s="193" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" s="194" t="inlineStr">
@@ -32358,12 +32346,12 @@
       </c>
       <c r="E4" s="195" t="inlineStr">
         <is>
-          <t>3000806</t>
-        </is>
-      </c>
-      <c r="F4" s="195" t="inlineStr">
-        <is>
-          <t>4</t>
+          <t>3000584</t>
+        </is>
+      </c>
+      <c r="F4" s="218" t="inlineStr">
+        <is>
+          <t>0913539</t>
         </is>
       </c>
       <c r="G4" s="195" t="inlineStr">
@@ -32373,7 +32361,7 @@
       </c>
       <c r="H4" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_16112020121627</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="I4" s="206" t="inlineStr">
@@ -32383,7 +32371,7 @@
       </c>
       <c r="J4" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM16112020123516</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="K4" s="206" t="inlineStr">
@@ -32406,7 +32394,7 @@
           <t>CG852</t>
         </is>
       </c>
-      <c r="O4" s="195" t="inlineStr">
+      <c r="O4" s="25" t="inlineStr">
         <is>
           <t>ESPS11810226</t>
         </is>
@@ -32441,7 +32429,6 @@
           <t>Fixed Rate Option</t>
         </is>
       </c>
-      <c r="V4" s="206" t="n"/>
       <c r="W4" s="206" t="inlineStr">
         <is>
           <t>EUR</t>
@@ -32457,25 +32444,20 @@
           <t>10000.00</t>
         </is>
       </c>
-      <c r="Z4" s="206" t="n"/>
-      <c r="AA4" s="206" t="n"/>
-      <c r="AB4" s="206" t="n"/>
-      <c r="AC4" s="206" t="n"/>
-      <c r="AD4" s="206" t="n"/>
       <c r="AE4" s="206" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="AF4" s="195" t="inlineStr">
+      <c r="AF4" s="25" t="inlineStr">
         <is>
           <t>27-Dec-2018</t>
         </is>
       </c>
-      <c r="AG4" s="195" t="n"/>
+      <c r="AG4" s="25" t="n"/>
       <c r="AH4" s="195" t="inlineStr">
         <is>
-          <t>06-Dec-2020</t>
+          <t>06-Aug-2021</t>
         </is>
       </c>
       <c r="AI4" s="195" t="n"/>
@@ -32506,7 +32488,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="AQ4" s="195" t="inlineStr">
+      <c r="AQ4" s="25" t="inlineStr">
         <is>
           <t>27-Dec-2018</t>
         </is>
@@ -32516,17 +32498,17 @@
           <t>Next Business Day</t>
         </is>
       </c>
-      <c r="AS4" s="195" t="inlineStr">
+      <c r="AS4" s="25" t="inlineStr">
         <is>
           <t>Outstandings</t>
         </is>
       </c>
-      <c r="AT4" s="195" t="inlineStr">
+      <c r="AT4" s="25" t="inlineStr">
         <is>
           <t>Awaiting Approval</t>
         </is>
       </c>
-      <c r="AU4" s="195" t="inlineStr">
+      <c r="AU4" s="25" t="inlineStr">
         <is>
           <t>Loan Initial Drawdown</t>
         </is>
@@ -32546,7 +32528,7 @@
           <t>Borrower</t>
         </is>
       </c>
-      <c r="AY4" s="195" t="inlineStr">
+      <c r="AY4" s="25" t="inlineStr">
         <is>
           <t>195</t>
         </is>
@@ -32556,27 +32538,27 @@
           <t>RTGS</t>
         </is>
       </c>
-      <c r="BA4" s="195" t="inlineStr">
+      <c r="BA4" s="25" t="inlineStr">
         <is>
           <t>DOIT</t>
         </is>
       </c>
-      <c r="BB4" s="195" t="inlineStr">
+      <c r="BB4" s="25" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="BC4" s="195" t="inlineStr">
+      <c r="BC4" s="25" t="inlineStr">
         <is>
           <t>RTGSAUD1-0736</t>
         </is>
       </c>
-      <c r="BD4" s="236" t="inlineStr">
+      <c r="BD4" s="67" t="inlineStr">
         <is>
           <t>12001001836</t>
         </is>
       </c>
-      <c r="BE4" s="236" t="inlineStr">
+      <c r="BE4" s="67" t="inlineStr">
         <is>
           <t>18567000000</t>
         </is>
@@ -32586,7 +32568,7 @@
           <t>CB001/Hold for Investment - Australia/IT_COL</t>
         </is>
       </c>
-      <c r="BG4" s="195" t="inlineStr">
+      <c r="BG4" s="25" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
@@ -32618,9 +32600,9 @@
           <t>3000806</t>
         </is>
       </c>
-      <c r="F5" s="195" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="F5" s="218" t="inlineStr">
+        <is>
+          <t>0913539</t>
         </is>
       </c>
       <c r="G5" s="195" t="inlineStr">
@@ -32865,7 +32847,7 @@
       <c r="E6" s="145" t="n">
         <v>3000665</v>
       </c>
-      <c r="F6" s="220" t="inlineStr">
+      <c r="F6" s="218" t="inlineStr">
         <is>
           <t>0913539</t>
         </is>
@@ -33213,9 +33195,9 @@
           <t>3000864</t>
         </is>
       </c>
-      <c r="F7" s="195" t="inlineStr">
-        <is>
-          <t>4</t>
+      <c r="F7" s="218" t="inlineStr">
+        <is>
+          <t>0913539</t>
         </is>
       </c>
       <c r="G7" s="195" t="inlineStr">
@@ -33525,8 +33507,8 @@
   <dimension ref="A1:CI7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:XFD5"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -33897,8 +33879,8 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="193" t="inlineStr">
+    <row r="4" s="202">
+      <c r="A4" s="236" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -33910,12 +33892,12 @@
       </c>
       <c r="C4" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_02102020203942</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="D4" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM02102020204739</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="E4" s="25" t="inlineStr">
@@ -33971,6 +33953,78 @@
           <t>CB001/Hold for Investment - Australia/BP_CML</t>
         </is>
       </c>
+      <c r="P4" s="25" t="n"/>
+      <c r="Q4" s="25" t="n"/>
+      <c r="R4" s="25" t="n"/>
+      <c r="S4" s="25" t="n"/>
+      <c r="T4" s="25" t="n"/>
+      <c r="U4" s="25" t="n"/>
+      <c r="V4" s="25" t="n"/>
+      <c r="W4" s="25" t="n"/>
+      <c r="X4" s="25" t="n"/>
+      <c r="Y4" s="25" t="n"/>
+      <c r="Z4" s="25" t="n"/>
+      <c r="AA4" s="25" t="n"/>
+      <c r="AB4" s="25" t="n"/>
+      <c r="AC4" s="25" t="n"/>
+      <c r="AD4" s="25" t="n"/>
+      <c r="AE4" s="25" t="n"/>
+      <c r="AF4" s="25" t="n"/>
+      <c r="AG4" s="25" t="n"/>
+      <c r="AH4" s="25" t="n"/>
+      <c r="AI4" s="25" t="n"/>
+      <c r="AJ4" s="25" t="n"/>
+      <c r="AK4" s="25" t="n"/>
+      <c r="AL4" s="25" t="n"/>
+      <c r="AM4" s="25" t="n"/>
+      <c r="AN4" s="25" t="n"/>
+      <c r="AO4" s="25" t="n"/>
+      <c r="AP4" s="25" t="n"/>
+      <c r="AQ4" s="25" t="n"/>
+      <c r="AR4" s="25" t="n"/>
+      <c r="AS4" s="25" t="n"/>
+      <c r="AT4" s="25" t="n"/>
+      <c r="AU4" s="25" t="n"/>
+      <c r="AV4" s="25" t="n"/>
+      <c r="AW4" s="25" t="n"/>
+      <c r="AX4" s="25" t="n"/>
+      <c r="AY4" s="25" t="n"/>
+      <c r="AZ4" s="25" t="n"/>
+      <c r="BA4" s="25" t="n"/>
+      <c r="BB4" s="25" t="n"/>
+      <c r="BC4" s="25" t="n"/>
+      <c r="BD4" s="25" t="n"/>
+      <c r="BE4" s="25" t="n"/>
+      <c r="BF4" s="25" t="n"/>
+      <c r="BG4" s="25" t="n"/>
+      <c r="BH4" s="25" t="n"/>
+      <c r="BI4" s="25" t="n"/>
+      <c r="BJ4" s="25" t="n"/>
+      <c r="BK4" s="25" t="n"/>
+      <c r="BL4" s="25" t="n"/>
+      <c r="BM4" s="25" t="n"/>
+      <c r="BN4" s="25" t="n"/>
+      <c r="BO4" s="25" t="n"/>
+      <c r="BP4" s="25" t="n"/>
+      <c r="BQ4" s="25" t="n"/>
+      <c r="BR4" s="25" t="n"/>
+      <c r="BS4" s="25" t="n"/>
+      <c r="BT4" s="25" t="n"/>
+      <c r="BU4" s="25" t="n"/>
+      <c r="BV4" s="25" t="n"/>
+      <c r="BW4" s="25" t="n"/>
+      <c r="BX4" s="25" t="n"/>
+      <c r="BY4" s="25" t="n"/>
+      <c r="BZ4" s="25" t="n"/>
+      <c r="CA4" s="25" t="n"/>
+      <c r="CB4" s="25" t="n"/>
+      <c r="CC4" s="25" t="n"/>
+      <c r="CD4" s="25" t="n"/>
+      <c r="CE4" s="25" t="n"/>
+      <c r="CF4" s="25" t="n"/>
+      <c r="CG4" s="25" t="n"/>
+      <c r="CH4" s="25" t="n"/>
+      <c r="CI4" s="25" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="193" t="inlineStr">
@@ -34213,7 +34267,7 @@
   <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -34537,8 +34591,8 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="193" t="inlineStr">
+    <row r="4" s="202">
+      <c r="A4" s="236" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -34550,12 +34604,12 @@
       </c>
       <c r="C4" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_02102020203942</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="D4" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM02102020204739</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="E4" s="195" t="inlineStr">
@@ -34956,7 +35010,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34986,8 +35040,8 @@
     <col width="23.140625" bestFit="1" customWidth="1" style="195" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" style="195" min="24" max="24"/>
     <col width="16.85546875" bestFit="1" customWidth="1" style="202" min="25" max="25"/>
-    <col width="9.140625" customWidth="1" style="202" min="26" max="41"/>
-    <col width="9.140625" customWidth="1" style="202" min="42" max="16384"/>
+    <col width="9.140625" customWidth="1" style="202" min="26" max="45"/>
+    <col width="9.140625" customWidth="1" style="202" min="46" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="118" thickBot="1">
@@ -35391,7 +35445,7 @@
       </c>
       <c r="H4" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC2_20092020131224BGE</t>
+          <t>COMSEE_SC7_20112020112355</t>
         </is>
       </c>
       <c r="I4" s="195" t="inlineStr">
@@ -35631,9 +35685,9 @@
   </sheetPr>
   <dimension ref="A1:DB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF4" sqref="AF4:AG5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -36162,12 +36216,12 @@
       </c>
       <c r="C4" s="195" t="inlineStr">
         <is>
-          <t>26-Dec-2020</t>
+          <t>15-Nov-2020</t>
         </is>
       </c>
       <c r="D4" s="195" t="inlineStr">
         <is>
-          <t>24-Feb-2021</t>
+          <t>14-Jan-2021</t>
         </is>
       </c>
       <c r="E4" s="204" t="inlineStr">
@@ -36177,30 +36231,30 @@
       </c>
       <c r="F4" s="204" t="inlineStr">
         <is>
-          <t>Commonwealth Bank of Australia - DBU</t>
+          <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
       <c r="G4" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_02102020203942</t>
+          <t>COMSEE_SC7_28102020183419</t>
         </is>
       </c>
       <c r="H4" s="195" t="inlineStr">
         <is>
-          <t>RTGS1</t>
-        </is>
-      </c>
-      <c r="I4" s="25" t="inlineStr">
+          <t>IMTEUR1-0735</t>
+        </is>
+      </c>
+      <c r="I4" s="195" t="inlineStr">
         <is>
           <t>06000505</t>
         </is>
       </c>
-      <c r="J4" s="25" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="K4" s="25" t="inlineStr">
+      <c r="J4" s="195" t="inlineStr">
+        <is>
+          <t>IMT</t>
+        </is>
+      </c>
+      <c r="K4" s="195" t="inlineStr">
         <is>
           <t>DOIT</t>
         </is>
@@ -36212,25 +36266,25 @@
       </c>
       <c r="M4" s="195" t="inlineStr">
         <is>
-          <t>CB001/Hold for Investment - Australia/IT_COL</t>
-        </is>
-      </c>
-      <c r="N4" s="25" t="inlineStr">
+          <t>CG852/Hold for Investment - Europe/IT_COL</t>
+        </is>
+      </c>
+      <c r="N4" s="195" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
       <c r="O4" s="195" t="inlineStr">
         <is>
-          <t>CSSC7_TERM02102020204739</t>
+          <t>CSSC7_TERM28102020184955</t>
         </is>
       </c>
       <c r="P4" s="195" t="inlineStr">
         <is>
-          <t>COMSEE_SC7_02102020203942</t>
-        </is>
-      </c>
-      <c r="Q4" s="25" t="inlineStr">
+          <t>COMSEE_SC7_28102020183419</t>
+        </is>
+      </c>
+      <c r="Q4" s="195" t="inlineStr">
         <is>
           <t>ONG000000000213</t>
         </is>
@@ -36252,50 +36306,46 @@
       </c>
       <c r="U4" s="195" t="inlineStr">
         <is>
-          <t>19-Jan-2021</t>
-        </is>
-      </c>
-      <c r="V4" s="25" t="inlineStr">
+          <t>11-Dec-2020</t>
+        </is>
+      </c>
+      <c r="V4" s="195" t="inlineStr">
         <is>
           <t>04-Jun-2018</t>
         </is>
       </c>
-      <c r="W4" s="25" t="inlineStr">
+      <c r="W4" s="195" t="inlineStr">
         <is>
           <t>Weekly</t>
         </is>
       </c>
-      <c r="X4" s="25" t="n">
+      <c r="X4" s="195" t="n">
         <v>9.859999999999999</v>
       </c>
-      <c r="Z4" s="38" t="inlineStr">
+      <c r="Y4" s="195" t="n"/>
+      <c r="Z4" s="131" t="inlineStr">
         <is>
           <t>90,000.00</t>
         </is>
       </c>
-      <c r="AA4" s="38" t="inlineStr">
+      <c r="AA4" s="131" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="AB4" s="25" t="inlineStr">
+      <c r="AB4" s="195" t="inlineStr">
         <is>
           <t>Actual/365</t>
         </is>
       </c>
-      <c r="AC4" s="25" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="AC4" s="198" t="inlineStr">
+        <is>
+          <t>20</t>
         </is>
       </c>
       <c r="AD4" s="195" t="inlineStr">
         <is>
-          <t>25-Jan-2021</t>
-        </is>
-      </c>
-      <c r="AE4" s="198" t="inlineStr">
-        <is>
-          <t>200</t>
+          <t>15-Dec-2020</t>
         </is>
       </c>
       <c r="AF4" s="195" t="inlineStr">
@@ -38212,7 +38262,7 @@
   </sheetPr>
   <dimension ref="A1:HA6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
@@ -49369,7 +49419,7 @@
           <t>\DataSet\Integration_DataSet\CommSee\Output\</t>
         </is>
       </c>
-      <c r="E2" s="221" t="inlineStr">
+      <c r="E2" s="220" t="inlineStr">
         <is>
           <t>EU_COM_RES_02</t>
         </is>
@@ -49505,7 +49555,7 @@
           <t>GLB</t>
         </is>
       </c>
-      <c r="AK2" s="222" t="inlineStr">
+      <c r="AK2" s="221" t="inlineStr">
         <is>
           <t>Global</t>
         </is>
@@ -49608,7 +49658,7 @@
           <t>RTGS</t>
         </is>
       </c>
-      <c r="BF2" s="223" t="n">
+      <c r="BF2" s="222" t="n">
         <v>100000000</v>
       </c>
       <c r="BG2" s="210" t="inlineStr">
@@ -49634,7 +49684,7 @@
           <t>Actual/365/366</t>
         </is>
       </c>
-      <c r="BL2" s="224" t="n">
+      <c r="BL2" s="223" t="n">
         <v>3000</v>
       </c>
       <c r="BM2" s="195" t="inlineStr">
@@ -49830,7 +49880,7 @@
           <t>Commonwealth Bank of Australia - Amsterdam</t>
         </is>
       </c>
-      <c r="DD2" s="225" t="n">
+      <c r="DD2" s="224" t="n">
         <v>50000000</v>
       </c>
       <c r="DE2" s="215" t="n">
@@ -49845,7 +49895,7 @@
           <t>Commonwealth Bank of Australia</t>
         </is>
       </c>
-      <c r="DI2" s="226" t="n">
+      <c r="DI2" s="225" t="n">
         <v>100000</v>
       </c>
       <c r="DJ2" s="211" t="inlineStr">
@@ -49868,7 +49918,7 @@
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="DN2" s="227" t="n">
+      <c r="DN2" s="226" t="n">
         <v>1</v>
       </c>
       <c r="DO2" s="211" t="inlineStr">
@@ -49922,7 +49972,7 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="DZ2" s="228" t="n">
+      <c r="DZ2" s="227" t="n">
         <v>2</v>
       </c>
       <c r="EA2" s="211" t="inlineStr">
@@ -59671,7 +59721,7 @@
           <t>Amortize</t>
         </is>
       </c>
-      <c r="F2" s="224" t="n">
+      <c r="F2" s="223" t="n">
         <v>50000</v>
       </c>
       <c r="G2" s="210" t="n"/>
@@ -59686,10 +59736,10 @@
       <c r="J2" s="215" t="n">
         <v>44174</v>
       </c>
-      <c r="K2" s="229" t="n">
+      <c r="K2" s="228" t="n">
         <v>43263</v>
       </c>
-      <c r="L2" s="230" t="n">
+      <c r="L2" s="229" t="n">
         <v>10</v>
       </c>
       <c r="M2" s="210" t="inlineStr">
@@ -59712,7 +59762,7 @@
           <t>BP_CML</t>
         </is>
       </c>
-      <c r="Q2" s="230" t="n">
+      <c r="Q2" s="229" t="n">
         <v>100</v>
       </c>
       <c r="R2" s="210" t="inlineStr">
@@ -60717,12 +60767,12 @@
       <c r="A2" s="145" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="231" t="inlineStr">
+      <c r="B2" s="230" t="inlineStr">
         <is>
           <t>COMMSEE_V1_OS002</t>
         </is>
       </c>
-      <c r="C2" s="231" t="inlineStr">
+      <c r="C2" s="230" t="inlineStr">
         <is>
           <t>V1</t>
         </is>
@@ -60746,7 +60796,7 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="I2" s="232" t="b">
+      <c r="I2" s="231" t="b">
         <v>0</v>
       </c>
       <c r="J2" s="145" t="inlineStr">
@@ -60778,13 +60828,13 @@
           <t>Team Amsterdam</t>
         </is>
       </c>
-      <c r="Q2" s="233" t="n">
+      <c r="Q2" s="232" t="n">
         <v>3</v>
       </c>
-      <c r="R2" s="233" t="n">
+      <c r="R2" s="232" t="n">
         <v>1</v>
       </c>
-      <c r="S2" s="233" t="n">
+      <c r="S2" s="232" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="195" t="inlineStr">
@@ -60858,35 +60908,35 @@
           <t>EUR</t>
         </is>
       </c>
-      <c r="AI2" s="225" t="n">
+      <c r="AI2" s="224" t="n">
         <v>100000000</v>
       </c>
-      <c r="AJ2" s="230" t="inlineStr">
+      <c r="AJ2" s="229" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
       </c>
-      <c r="AK2" s="230" t="inlineStr">
+      <c r="AK2" s="229" t="inlineStr">
         <is>
           <t>Financial Letter of Credit</t>
         </is>
       </c>
-      <c r="AL2" s="230" t="inlineStr">
+      <c r="AL2" s="229" t="inlineStr">
         <is>
           <t>FLOAT</t>
         </is>
       </c>
-      <c r="AM2" s="230" t="inlineStr">
+      <c r="AM2" s="229" t="inlineStr">
         <is>
           <t>Acquisition</t>
         </is>
       </c>
-      <c r="AN2" s="230" t="inlineStr">
+      <c r="AN2" s="229" t="inlineStr">
         <is>
           <t>Euro</t>
         </is>
       </c>
-      <c r="AO2" s="230" t="n"/>
+      <c r="AO2" s="229" t="n"/>
       <c r="AP2" s="145" t="inlineStr">
         <is>
           <t>HENRY</t>
@@ -60979,74 +61029,74 @@
       <c r="CQ2" s="145" t="n">
         <v>0</v>
       </c>
-      <c r="CR2" s="228" t="n"/>
-      <c r="CS2" s="228" t="n"/>
-      <c r="CT2" s="228" t="n"/>
-      <c r="CU2" s="228" t="n"/>
-      <c r="CV2" s="228" t="n"/>
-      <c r="CW2" s="228" t="n"/>
-      <c r="CX2" s="228" t="n"/>
-      <c r="CY2" s="228" t="n"/>
-      <c r="CZ2" s="228" t="n"/>
-      <c r="DA2" s="228" t="n"/>
-      <c r="DB2" s="228" t="n"/>
-      <c r="DC2" s="228" t="n"/>
-      <c r="DD2" s="228" t="n"/>
-      <c r="DE2" s="228" t="n"/>
-      <c r="DF2" s="228" t="n"/>
-      <c r="DG2" s="228" t="n"/>
-      <c r="DH2" s="228" t="n"/>
-      <c r="DI2" s="228" t="n"/>
-      <c r="DJ2" s="228" t="n"/>
-      <c r="DK2" s="228" t="n"/>
-      <c r="DL2" s="228" t="n"/>
-      <c r="DM2" s="228" t="n"/>
-      <c r="DN2" s="228" t="n"/>
-      <c r="DO2" s="228" t="n"/>
-      <c r="DP2" s="228" t="n"/>
-      <c r="DQ2" s="228" t="n"/>
-      <c r="DR2" s="228" t="n"/>
-      <c r="DS2" s="228" t="n"/>
-      <c r="DT2" s="228" t="n"/>
-      <c r="DU2" s="228" t="n"/>
-      <c r="DV2" s="228" t="n"/>
-      <c r="DW2" s="228" t="n"/>
-      <c r="DX2" s="228" t="n"/>
-      <c r="DY2" s="228" t="n"/>
-      <c r="DZ2" s="228" t="n"/>
-      <c r="EA2" s="228" t="n"/>
-      <c r="EB2" s="228" t="n"/>
-      <c r="EC2" s="228" t="n"/>
-      <c r="ED2" s="228" t="n"/>
-      <c r="EE2" s="228" t="n"/>
-      <c r="EF2" s="228" t="n"/>
-      <c r="EG2" s="228" t="n"/>
-      <c r="EH2" s="228" t="n"/>
-      <c r="EI2" s="228" t="n"/>
-      <c r="EJ2" s="228" t="n"/>
-      <c r="EK2" s="228" t="n"/>
-      <c r="EL2" s="228" t="n"/>
-      <c r="EM2" s="228" t="n"/>
-      <c r="EN2" s="228" t="n"/>
-      <c r="EO2" s="228" t="n"/>
-      <c r="EP2" s="228" t="n"/>
-      <c r="EQ2" s="228" t="n"/>
-      <c r="ER2" s="228" t="n"/>
-      <c r="ES2" s="228" t="n"/>
-      <c r="ET2" s="228" t="n"/>
-      <c r="EU2" s="228" t="n"/>
-      <c r="EV2" s="228" t="n"/>
-      <c r="EW2" s="228" t="n"/>
-      <c r="EX2" s="228" t="n"/>
-      <c r="EY2" s="228" t="n"/>
-      <c r="EZ2" s="228" t="n"/>
-      <c r="FA2" s="228" t="n"/>
-      <c r="FB2" s="228" t="n"/>
-      <c r="FC2" s="228" t="n"/>
-      <c r="FD2" s="228" t="n"/>
-      <c r="FE2" s="228" t="n"/>
-      <c r="FF2" s="228" t="n"/>
-      <c r="FG2" s="228" t="n"/>
+      <c r="CR2" s="227" t="n"/>
+      <c r="CS2" s="227" t="n"/>
+      <c r="CT2" s="227" t="n"/>
+      <c r="CU2" s="227" t="n"/>
+      <c r="CV2" s="227" t="n"/>
+      <c r="CW2" s="227" t="n"/>
+      <c r="CX2" s="227" t="n"/>
+      <c r="CY2" s="227" t="n"/>
+      <c r="CZ2" s="227" t="n"/>
+      <c r="DA2" s="227" t="n"/>
+      <c r="DB2" s="227" t="n"/>
+      <c r="DC2" s="227" t="n"/>
+      <c r="DD2" s="227" t="n"/>
+      <c r="DE2" s="227" t="n"/>
+      <c r="DF2" s="227" t="n"/>
+      <c r="DG2" s="227" t="n"/>
+      <c r="DH2" s="227" t="n"/>
+      <c r="DI2" s="227" t="n"/>
+      <c r="DJ2" s="227" t="n"/>
+      <c r="DK2" s="227" t="n"/>
+      <c r="DL2" s="227" t="n"/>
+      <c r="DM2" s="227" t="n"/>
+      <c r="DN2" s="227" t="n"/>
+      <c r="DO2" s="227" t="n"/>
+      <c r="DP2" s="227" t="n"/>
+      <c r="DQ2" s="227" t="n"/>
+      <c r="DR2" s="227" t="n"/>
+      <c r="DS2" s="227" t="n"/>
+      <c r="DT2" s="227" t="n"/>
+      <c r="DU2" s="227" t="n"/>
+      <c r="DV2" s="227" t="n"/>
+      <c r="DW2" s="227" t="n"/>
+      <c r="DX2" s="227" t="n"/>
+      <c r="DY2" s="227" t="n"/>
+      <c r="DZ2" s="227" t="n"/>
+      <c r="EA2" s="227" t="n"/>
+      <c r="EB2" s="227" t="n"/>
+      <c r="EC2" s="227" t="n"/>
+      <c r="ED2" s="227" t="n"/>
+      <c r="EE2" s="227" t="n"/>
+      <c r="EF2" s="227" t="n"/>
+      <c r="EG2" s="227" t="n"/>
+      <c r="EH2" s="227" t="n"/>
+      <c r="EI2" s="227" t="n"/>
+      <c r="EJ2" s="227" t="n"/>
+      <c r="EK2" s="227" t="n"/>
+      <c r="EL2" s="227" t="n"/>
+      <c r="EM2" s="227" t="n"/>
+      <c r="EN2" s="227" t="n"/>
+      <c r="EO2" s="227" t="n"/>
+      <c r="EP2" s="227" t="n"/>
+      <c r="EQ2" s="227" t="n"/>
+      <c r="ER2" s="227" t="n"/>
+      <c r="ES2" s="227" t="n"/>
+      <c r="ET2" s="227" t="n"/>
+      <c r="EU2" s="227" t="n"/>
+      <c r="EV2" s="227" t="n"/>
+      <c r="EW2" s="227" t="n"/>
+      <c r="EX2" s="227" t="n"/>
+      <c r="EY2" s="227" t="n"/>
+      <c r="EZ2" s="227" t="n"/>
+      <c r="FA2" s="227" t="n"/>
+      <c r="FB2" s="227" t="n"/>
+      <c r="FC2" s="227" t="n"/>
+      <c r="FD2" s="227" t="n"/>
+      <c r="FE2" s="227" t="n"/>
+      <c r="FF2" s="227" t="n"/>
+      <c r="FG2" s="227" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="202">
       <c r="A3" s="198" t="inlineStr">

--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" firstSheet="7" activeTab="10" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="6345" windowWidth="28710" windowHeight="6000" tabRatio="731" firstSheet="5" activeTab="10" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1183,10 +1183,10 @@
   <dimension ref="A1:FG7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="BD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -2644,8 +2644,8 @@
   </sheetPr>
   <dimension ref="A1:FG15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BD9" sqref="BD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="Z8" s="142" t="inlineStr">
         <is>
-          <t>109.59</t>
+          <t>3506.85</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -5091,14 +5091,14 @@
       </c>
       <c r="BD8" s="140" t="inlineStr">
         <is>
+          <t>1,753.43</t>
+        </is>
+      </c>
+      <c r="BE8" s="140" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="BE8" s="140" t="inlineStr">
-        <is>
-          <t>54.79</t>
-        </is>
-      </c>
       <c r="BF8" s="140" t="inlineStr">
         <is>
           <t>0</t>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="BK8" s="140" t="inlineStr">
         <is>
-          <t>3,397.26</t>
+          <t>3,506.85</t>
         </is>
       </c>
     </row>
@@ -6355,8 +6355,8 @@
     <col width="22.7109375" bestFit="1" customWidth="1" style="192" min="67" max="67"/>
     <col width="25.28515625" customWidth="1" style="192" min="68" max="68"/>
     <col width="30.7109375" customWidth="1" style="192" min="69" max="69"/>
-    <col width="8.85546875" customWidth="1" style="199" min="70" max="90"/>
-    <col width="8.85546875" customWidth="1" style="199" min="91" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="199" min="70" max="91"/>
+    <col width="8.85546875" customWidth="1" style="199" min="92" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="109" thickBot="1">
@@ -7437,8 +7437,8 @@
     <col width="21.42578125" customWidth="1" style="192" min="16" max="16"/>
     <col width="22" customWidth="1" style="192" min="17" max="17"/>
     <col width="18" customWidth="1" style="192" min="18" max="19"/>
-    <col width="8.85546875" customWidth="1" style="199" min="20" max="40"/>
-    <col width="8.85546875" customWidth="1" style="199" min="41" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="199" min="20" max="41"/>
+    <col width="8.85546875" customWidth="1" style="199" min="42" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
@@ -7772,8 +7772,8 @@
     <col width="21.42578125" customWidth="1" style="192" min="13" max="13"/>
     <col width="17.85546875" customWidth="1" style="192" min="14" max="14"/>
     <col width="22" customWidth="1" style="192" min="15" max="16"/>
-    <col width="8.85546875" customWidth="1" style="199" min="17" max="37"/>
-    <col width="8.85546875" customWidth="1" style="199" min="38" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="199" min="17" max="38"/>
+    <col width="8.85546875" customWidth="1" style="199" min="39" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="126">
@@ -8089,8 +8089,8 @@
     <col width="36.7109375" customWidth="1" style="192" min="55" max="55"/>
     <col width="35.85546875" customWidth="1" style="192" min="56" max="56"/>
     <col width="26.5703125" customWidth="1" style="192" min="57" max="58"/>
-    <col width="8.85546875" customWidth="1" style="199" min="59" max="79"/>
-    <col width="8.85546875" customWidth="1" style="199" min="80" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="199" min="59" max="80"/>
+    <col width="8.85546875" customWidth="1" style="199" min="81" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="119">
@@ -25009,8 +25009,8 @@
     <col width="25.28515625" bestFit="1" customWidth="1" style="167" min="104" max="104"/>
     <col width="27.5703125" bestFit="1" customWidth="1" style="167" min="105" max="105"/>
     <col width="43.42578125" bestFit="1" customWidth="1" style="167" min="106" max="106"/>
-    <col width="21.85546875" customWidth="1" style="167" min="107" max="114"/>
-    <col width="21.85546875" customWidth="1" style="167" min="115" max="16384"/>
+    <col width="21.85546875" customWidth="1" style="167" min="107" max="115"/>
+    <col width="21.85546875" customWidth="1" style="167" min="116" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="160" thickBot="1">
@@ -28630,8 +28630,8 @@
     <col width="24.7109375" customWidth="1" style="167" min="49" max="49"/>
     <col width="25.5703125" customWidth="1" style="167" min="50" max="50"/>
     <col width="24.42578125" customWidth="1" style="167" min="51" max="51"/>
-    <col width="8.85546875" customWidth="1" style="167" min="52" max="74"/>
-    <col width="8.85546875" customWidth="1" style="167" min="75" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="167" min="52" max="75"/>
+    <col width="8.85546875" customWidth="1" style="167" min="76" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="179" thickBot="1">
@@ -30448,8 +30448,8 @@
     <col width="23.42578125" bestFit="1" customWidth="1" style="167" min="39" max="39"/>
     <col width="26.7109375" bestFit="1" customWidth="1" style="167" min="40" max="40"/>
     <col width="26.5703125" bestFit="1" customWidth="1" style="167" min="41" max="41"/>
-    <col width="8.85546875" customWidth="1" style="167" min="42" max="64"/>
-    <col width="8.85546875" customWidth="1" style="167" min="65" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="167" min="42" max="65"/>
+    <col width="8.85546875" customWidth="1" style="167" min="66" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="185">
@@ -35678,8 +35678,8 @@
     <col width="23.140625" bestFit="1" customWidth="1" style="192" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" style="192" min="24" max="24"/>
     <col width="16.85546875" bestFit="1" customWidth="1" style="199" min="25" max="25"/>
-    <col width="9.140625" customWidth="1" style="199" min="26" max="50"/>
-    <col width="9.140625" customWidth="1" style="199" min="51" max="16384"/>
+    <col width="9.140625" customWidth="1" style="199" min="26" max="51"/>
+    <col width="9.140625" customWidth="1" style="199" min="52" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="117" thickBot="1">
@@ -49165,8 +49165,8 @@
   <dimension ref="A1:FG7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU3" sqref="AU3"/>
+      <pane xSplit="2" topLeftCell="EO1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L2" sqref="L2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -50802,9 +50802,9 @@
           <t>Indemnity Fee - Usage (SFBG),Commitment Fee</t>
         </is>
       </c>
-      <c r="L3" s="195" t="inlineStr">
-        <is>
-          <t>AUD,AUD</t>
+      <c r="L3" s="192" t="inlineStr">
+        <is>
+          <t>EUR,EUR</t>
         </is>
       </c>
       <c r="M3" s="192" t="inlineStr">
@@ -51521,7 +51521,7 @@
           <t>Indemnity Fee - Usage (SFBG),Commitment Fee</t>
         </is>
       </c>
-      <c r="L4" s="195" t="inlineStr">
+      <c r="L4" s="192" t="inlineStr">
         <is>
           <t>EUR,EUR</t>
         </is>
@@ -52240,9 +52240,9 @@
           <t>Indemnity Fee - Usage (SFBG),Commitment Fee</t>
         </is>
       </c>
-      <c r="L5" s="195" t="inlineStr">
-        <is>
-          <t>AUD,AUD</t>
+      <c r="L5" s="192" t="inlineStr">
+        <is>
+          <t>EUR,EUR</t>
         </is>
       </c>
       <c r="M5" s="192" t="inlineStr">
@@ -52959,9 +52959,9 @@
           <t>Indemnity Fee - Usage (SFBG),Commitment Fee</t>
         </is>
       </c>
-      <c r="L6" s="195" t="inlineStr">
-        <is>
-          <t>AUD,AUD</t>
+      <c r="L6" s="192" t="inlineStr">
+        <is>
+          <t>EUR,EUR</t>
         </is>
       </c>
       <c r="M6" s="192" t="inlineStr">
@@ -53679,9 +53679,9 @@
           <t>Indemnity Fee - Usage (SFBG),Commitment Fee</t>
         </is>
       </c>
-      <c r="L7" s="195" t="inlineStr">
-        <is>
-          <t>AUD,AUD</t>
+      <c r="L7" s="192" t="inlineStr">
+        <is>
+          <t>EUR,EUR</t>
         </is>
       </c>
       <c r="M7" s="192" t="inlineStr">
@@ -60485,7 +60485,7 @@
   <dimension ref="A1:FG7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -61408,7 +61408,7 @@
   <dimension ref="A1:FG7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AR2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AQ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomRight" activeCell="AP2" sqref="AP2:AP7"/>

--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -35239,7 +35239,7 @@
       </c>
       <c r="W7" s="163" t="inlineStr">
         <is>
-          <t>Accrual/</t>
+          <t>FIXED/Fixed Rate Option</t>
         </is>
       </c>
       <c r="X7" s="151" t="inlineStr">
@@ -35444,7 +35444,7 @@
       </c>
       <c r="BO7" s="163" t="inlineStr">
         <is>
-          <t>273.93</t>
+          <t>258.59</t>
         </is>
       </c>
       <c r="BP7" s="163" t="inlineStr">
@@ -37588,7 +37588,7 @@
       </c>
       <c r="G7" s="136" t="inlineStr">
         <is>
-          <t>22-Dec-2020</t>
+          <t>20-Apr-2021</t>
         </is>
       </c>
       <c r="H7" s="151" t="inlineStr">
@@ -37613,7 +37613,7 @@
       </c>
       <c r="L7" s="136" t="inlineStr">
         <is>
-          <t>8.77</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="M7" s="136" t="inlineStr">

--- a/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
+++ b/DataSet/Integration_DataSet/CommSee/COMMSEE_Data_Set_EU.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="90" yWindow="390" windowWidth="28710" windowHeight="6000" tabRatio="731" firstSheet="32" activeTab="37" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="731" firstSheet="32" activeTab="34" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1426,7 +1426,8 @@
     <col width="26.7109375" customWidth="1" style="192" min="34" max="35"/>
     <col width="26.7109375" bestFit="1" customWidth="1" style="192" min="36" max="36"/>
     <col width="26.7109375" bestFit="1" customWidth="1" style="163" min="37" max="37"/>
-    <col width="9.140625" customWidth="1" style="163" min="38" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="38" max="38"/>
+    <col width="9.140625" customWidth="1" style="163" min="39" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="253" thickBot="1">
@@ -5573,7 +5574,8 @@
     <col width="23.140625" bestFit="1" customWidth="1" style="192" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" style="192" min="24" max="24"/>
     <col width="16.85546875" bestFit="1" customWidth="1" style="163" min="25" max="25"/>
-    <col width="9.140625" customWidth="1" style="163" min="26" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="26" max="26"/>
+    <col width="9.140625" customWidth="1" style="163" min="27" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="218" thickBot="1">
@@ -6331,7 +6333,8 @@
     <col width="20.28515625" bestFit="1" customWidth="1" style="192" min="10" max="10"/>
     <col width="23.85546875" bestFit="1" customWidth="1" style="192" min="11" max="11"/>
     <col width="23.140625" bestFit="1" customWidth="1" style="163" min="12" max="12"/>
-    <col width="9.140625" customWidth="1" style="163" min="13" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="13" max="13"/>
+    <col width="9.140625" customWidth="1" style="163" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="218" thickBot="1">
@@ -6735,8 +6738,8 @@
     <col width="22.7109375" bestFit="1" customWidth="1" style="115" min="67" max="67"/>
     <col width="25.28515625" customWidth="1" style="115" min="68" max="68"/>
     <col width="30.7109375" customWidth="1" style="115" min="69" max="69"/>
-    <col width="8.85546875" customWidth="1" style="121" min="70" max="96"/>
-    <col width="8.85546875" customWidth="1" style="121" min="97" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="121" min="70" max="97"/>
+    <col width="8.85546875" customWidth="1" style="121" min="98" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="83" thickBot="1">
@@ -7817,8 +7820,8 @@
     <col width="21.42578125" customWidth="1" style="115" min="16" max="16"/>
     <col width="22" customWidth="1" style="115" min="17" max="17"/>
     <col width="18" customWidth="1" style="115" min="18" max="19"/>
-    <col width="8.85546875" customWidth="1" style="121" min="20" max="46"/>
-    <col width="8.85546875" customWidth="1" style="121" min="47" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="121" min="20" max="47"/>
+    <col width="8.85546875" customWidth="1" style="121" min="48" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="30" thickBot="1">
@@ -8152,8 +8155,8 @@
     <col width="21.42578125" customWidth="1" style="115" min="13" max="13"/>
     <col width="17.85546875" customWidth="1" style="115" min="14" max="14"/>
     <col width="22" customWidth="1" style="115" min="15" max="16"/>
-    <col width="8.85546875" customWidth="1" style="121" min="17" max="43"/>
-    <col width="8.85546875" customWidth="1" style="121" min="44" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="121" min="17" max="44"/>
+    <col width="8.85546875" customWidth="1" style="121" min="45" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="92">
@@ -8469,8 +8472,8 @@
     <col width="36.7109375" customWidth="1" style="115" min="55" max="55"/>
     <col width="35.85546875" customWidth="1" style="115" min="56" max="56"/>
     <col width="26.5703125" customWidth="1" style="115" min="57" max="58"/>
-    <col width="8.85546875" customWidth="1" style="121" min="59" max="85"/>
-    <col width="8.85546875" customWidth="1" style="121" min="86" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="121" min="59" max="86"/>
+    <col width="8.85546875" customWidth="1" style="121" min="87" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="89">
@@ -25389,8 +25392,8 @@
     <col width="25.28515625" bestFit="1" customWidth="1" style="137" min="104" max="104"/>
     <col width="27.5703125" bestFit="1" customWidth="1" style="137" min="105" max="105"/>
     <col width="43.42578125" bestFit="1" customWidth="1" style="137" min="106" max="106"/>
-    <col width="21.85546875" customWidth="1" style="137" min="107" max="120"/>
-    <col width="21.85546875" customWidth="1" style="137" min="121" max="16384"/>
+    <col width="21.85546875" customWidth="1" style="137" min="107" max="121"/>
+    <col width="21.85546875" customWidth="1" style="137" min="122" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customFormat="1" customHeight="1" s="177" thickBot="1">
@@ -29508,8 +29511,8 @@
     <col width="24.7109375" customWidth="1" style="137" min="49" max="49"/>
     <col width="25.5703125" customWidth="1" style="137" min="50" max="50"/>
     <col width="24.42578125" customWidth="1" style="137" min="51" max="51"/>
-    <col width="8.85546875" customWidth="1" style="137" min="52" max="80"/>
-    <col width="8.85546875" customWidth="1" style="137" min="81" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="137" min="52" max="81"/>
+    <col width="8.85546875" customWidth="1" style="137" min="82" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="173" thickBot="1">
@@ -31569,8 +31572,8 @@
     <col width="23.42578125" bestFit="1" customWidth="1" style="137" min="39" max="39"/>
     <col width="26.7109375" bestFit="1" customWidth="1" style="137" min="40" max="40"/>
     <col width="26.5703125" bestFit="1" customWidth="1" style="137" min="41" max="41"/>
-    <col width="8.85546875" customWidth="1" style="137" min="42" max="70"/>
-    <col width="8.85546875" customWidth="1" style="137" min="71" max="16384"/>
+    <col width="8.85546875" customWidth="1" style="137" min="42" max="71"/>
+    <col width="8.85546875" customWidth="1" style="137" min="72" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="169">
@@ -33295,8 +33298,8 @@
   </sheetPr>
   <dimension ref="A1:DD8"/>
   <sheetViews>
-    <sheetView topLeftCell="BG1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD2" sqref="BD2:BD6"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -33370,7 +33373,8 @@
     <col width="21.5703125" bestFit="1" customWidth="1" style="163" min="67" max="67"/>
     <col width="23.7109375" bestFit="1" customWidth="1" style="163" min="68" max="68"/>
     <col width="6" bestFit="1" customWidth="1" style="163" min="69" max="69"/>
-    <col width="9.140625" customWidth="1" style="163" min="70" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="70" max="70"/>
+    <col width="9.140625" customWidth="1" style="163" min="71" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="189" thickBot="1">
@@ -35771,22 +35775,22 @@
       </c>
       <c r="BK8" s="163" t="inlineStr">
         <is>
-          <t>67.94,0.00</t>
+          <t>67.94,146.71</t>
         </is>
       </c>
       <c r="BM8" s="163" t="inlineStr">
         <is>
-          <t>1 Months,1 Months</t>
+          <t>1 Months,1 Months,1 Months</t>
         </is>
       </c>
       <c r="BN8" s="163" t="inlineStr">
         <is>
-          <t>2021-04-19,2021-05-19</t>
+          <t>2021-04-19,2021-05-19,2021-05-19</t>
         </is>
       </c>
       <c r="BO8" s="163" t="inlineStr">
         <is>
-          <t>67.94,0.00</t>
+          <t>67.94,146.71</t>
         </is>
       </c>
       <c r="BP8" s="163" t="inlineStr">
@@ -35907,7 +35911,8 @@
     <col width="34.85546875" customWidth="1" style="192" min="85" max="85"/>
     <col width="9.140625" customWidth="1" style="192" min="86" max="86"/>
     <col width="15.85546875" customWidth="1" style="192" min="87" max="87"/>
-    <col width="9.140625" customWidth="1" style="163" min="88" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="88" max="88"/>
+    <col width="9.140625" customWidth="1" style="163" min="89" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="200" thickBot="1">
@@ -36895,7 +36900,8 @@
     <col width="39.5703125" bestFit="1" customWidth="1" style="151" min="20" max="20"/>
     <col width="6" bestFit="1" customWidth="1" style="163" min="21" max="21"/>
     <col width="27.85546875" bestFit="1" customWidth="1" style="163" min="22" max="22"/>
-    <col width="9.140625" customWidth="1" style="163" min="23" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="23" max="23"/>
+    <col width="9.140625" customWidth="1" style="163" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="191" thickBot="1">
@@ -37788,7 +37794,7 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AE5" sqref="AE4:AE5"/>
     </sheetView>
   </sheetViews>
@@ -37820,8 +37826,8 @@
     <col width="18" bestFit="1" customWidth="1" style="136" min="24" max="24"/>
     <col width="16.85546875" bestFit="1" customWidth="1" style="163" min="25" max="25"/>
     <col width="6" bestFit="1" customWidth="1" style="163" min="26" max="26"/>
-    <col width="9.140625" customWidth="1" style="163" min="27" max="56"/>
-    <col width="9.140625" customWidth="1" style="163" min="57" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="27" max="57"/>
+    <col width="9.140625" customWidth="1" style="163" min="58" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="218" thickBot="1">
@@ -38865,7 +38871,8 @@
     <col width="13.42578125" bestFit="1" customWidth="1" style="163" min="31" max="31"/>
     <col width="9.140625" customWidth="1" style="163" min="32" max="32"/>
     <col width="6" bestFit="1" customWidth="1" style="163" min="33" max="33"/>
-    <col width="9.140625" customWidth="1" style="163" min="34" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="34" max="34"/>
+    <col width="9.140625" customWidth="1" style="163" min="35" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="191" thickBot="1">
@@ -51987,7 +51994,8 @@
     <col width="20.140625" bestFit="1" customWidth="1" style="163" min="147" max="147"/>
     <col width="21.42578125" bestFit="1" customWidth="1" style="163" min="148" max="148"/>
     <col width="24.7109375" customWidth="1" style="163" min="149" max="149"/>
-    <col width="9.140625" customWidth="1" style="163" min="150" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="150" max="150"/>
+    <col width="9.140625" customWidth="1" style="163" min="151" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="226" thickBot="1">
@@ -63177,7 +63185,8 @@
     <col width="18.42578125" bestFit="1" customWidth="1" style="192" min="20" max="20"/>
     <col width="18" bestFit="1" customWidth="1" style="192" min="21" max="21"/>
     <col width="16.85546875" bestFit="1" customWidth="1" style="163" min="22" max="22"/>
-    <col width="9.140625" customWidth="1" style="163" min="23" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="23" max="23"/>
+    <col width="9.140625" customWidth="1" style="163" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="191" thickBot="1">
@@ -64138,7 +64147,8 @@
     <col width="6.42578125" bestFit="1" customWidth="1" style="163" min="91" max="91"/>
     <col width="4.85546875" bestFit="1" customWidth="1" style="163" min="92" max="92"/>
     <col width="2" bestFit="1" customWidth="1" style="163" min="93" max="95"/>
-    <col width="9.140625" customWidth="1" style="163" min="96" max="16384"/>
+    <col width="9.140625" customWidth="1" style="163" min="96" max="96"/>
+    <col width="9.140625" customWidth="1" style="163" min="97" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customFormat="1" customHeight="1" s="191" thickBot="1">
